--- a/TNR_PREJDD/PREJDD.ST.MAG.xlsx
+++ b/TNR_PREJDD/PREJDD.ST.MAG.xlsx
@@ -37,13 +37,13 @@
     <t>JM Lafarge</t>
   </si>
   <si>
-    <t>DRAFT</t>
+    <t>Création de l'onglet 001 pour la table MAG</t>
   </si>
   <si>
     <t>Version de Mainta pour laquelle le JDD de référence est validé</t>
   </si>
   <si>
-    <t>CAS_DE_TEST</t>
+    <t>CAS DE TEST (MAG)</t>
   </si>
   <si>
     <t>ID_CODSIT</t>
@@ -77,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -96,14 +96,23 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.0"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -111,7 +120,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,14 +135,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -157,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -170,12 +185,18 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="49" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -397,7 +418,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="29.88"/>
+    <col customWidth="1" min="3" max="3" width="32.5"/>
     <col customWidth="1" min="4" max="4" width="10.63"/>
     <col customWidth="1" min="5" max="5" width="12.13"/>
     <col customWidth="1" min="6" max="26" width="10.63"/>
@@ -427,12 +448,12 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1546,5028 +1567,5028 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="G30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="A30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="A32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="G33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="G34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="G35" s="11"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="G36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="G37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="8"/>
-      <c r="G39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="8"/>
-      <c r="G40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="G40" s="11"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="8"/>
-      <c r="G41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="G41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="8"/>
-      <c r="G42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="G42" s="11"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="A43" s="10"/>
+      <c r="G43" s="11"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="8"/>
-      <c r="G44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="A44" s="10"/>
+      <c r="G44" s="11"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="G45" s="11"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="8"/>
-      <c r="G46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="A46" s="10"/>
+      <c r="G46" s="11"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="8"/>
-      <c r="G47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="A47" s="10"/>
+      <c r="G47" s="11"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="8"/>
-      <c r="G48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="A48" s="10"/>
+      <c r="G48" s="11"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="8"/>
-      <c r="G49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="G49" s="11"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="8"/>
-      <c r="G50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="A50" s="10"/>
+      <c r="G50" s="11"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="8"/>
-      <c r="G51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="G51" s="11"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="8"/>
-      <c r="G52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="A52" s="10"/>
+      <c r="G52" s="11"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="8"/>
-      <c r="G53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="A53" s="10"/>
+      <c r="G53" s="11"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="8"/>
-      <c r="G54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="A54" s="10"/>
+      <c r="G54" s="11"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="G55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="A55" s="10"/>
+      <c r="G55" s="11"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="8"/>
-      <c r="G56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="A56" s="10"/>
+      <c r="G56" s="11"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="8"/>
-      <c r="G57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="A57" s="10"/>
+      <c r="G57" s="11"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="8"/>
-      <c r="G58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="A58" s="10"/>
+      <c r="G58" s="11"/>
+      <c r="I58" s="11"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="8"/>
-      <c r="G59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="A59" s="10"/>
+      <c r="G59" s="11"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="8"/>
-      <c r="G60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="A60" s="10"/>
+      <c r="G60" s="11"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="8"/>
-      <c r="G61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="A61" s="10"/>
+      <c r="G61" s="11"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="8"/>
-      <c r="G62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="A62" s="10"/>
+      <c r="G62" s="11"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="8"/>
-      <c r="G63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="A63" s="10"/>
+      <c r="G63" s="11"/>
+      <c r="I63" s="11"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="8"/>
-      <c r="G64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="A64" s="10"/>
+      <c r="G64" s="11"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="8"/>
-      <c r="G65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="A65" s="10"/>
+      <c r="G65" s="11"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="8"/>
-      <c r="G66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="A66" s="10"/>
+      <c r="G66" s="11"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="8"/>
-      <c r="G67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="A67" s="10"/>
+      <c r="G67" s="11"/>
+      <c r="I67" s="11"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="8"/>
-      <c r="G68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="A68" s="10"/>
+      <c r="G68" s="11"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="8"/>
-      <c r="G69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="A69" s="10"/>
+      <c r="G69" s="11"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="8"/>
-      <c r="G70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="A70" s="10"/>
+      <c r="G70" s="11"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="8"/>
-      <c r="G71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="A71" s="10"/>
+      <c r="G71" s="11"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="8"/>
-      <c r="G72" s="9"/>
-      <c r="I72" s="9"/>
+      <c r="A72" s="10"/>
+      <c r="G72" s="11"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="8"/>
-      <c r="G73" s="9"/>
-      <c r="I73" s="9"/>
+      <c r="A73" s="10"/>
+      <c r="G73" s="11"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="8"/>
-      <c r="G74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="A74" s="10"/>
+      <c r="G74" s="11"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="8"/>
-      <c r="G75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="A75" s="10"/>
+      <c r="G75" s="11"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="8"/>
-      <c r="G76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="A76" s="10"/>
+      <c r="G76" s="11"/>
+      <c r="I76" s="11"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="8"/>
-      <c r="G77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="A77" s="10"/>
+      <c r="G77" s="11"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="8"/>
-      <c r="G78" s="9"/>
-      <c r="I78" s="9"/>
+      <c r="A78" s="10"/>
+      <c r="G78" s="11"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="8"/>
-      <c r="G79" s="9"/>
-      <c r="I79" s="9"/>
+      <c r="A79" s="10"/>
+      <c r="G79" s="11"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="8"/>
-      <c r="G80" s="9"/>
-      <c r="I80" s="9"/>
+      <c r="A80" s="10"/>
+      <c r="G80" s="11"/>
+      <c r="I80" s="11"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="8"/>
-      <c r="G81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="A81" s="10"/>
+      <c r="G81" s="11"/>
+      <c r="I81" s="11"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="8"/>
-      <c r="G82" s="9"/>
-      <c r="I82" s="9"/>
+      <c r="A82" s="10"/>
+      <c r="G82" s="11"/>
+      <c r="I82" s="11"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="8"/>
-      <c r="G83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="A83" s="10"/>
+      <c r="G83" s="11"/>
+      <c r="I83" s="11"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="8"/>
-      <c r="G84" s="9"/>
-      <c r="I84" s="9"/>
+      <c r="A84" s="10"/>
+      <c r="G84" s="11"/>
+      <c r="I84" s="11"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="8"/>
-      <c r="G85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="A85" s="10"/>
+      <c r="G85" s="11"/>
+      <c r="I85" s="11"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="8"/>
-      <c r="G86" s="9"/>
-      <c r="I86" s="9"/>
+      <c r="A86" s="10"/>
+      <c r="G86" s="11"/>
+      <c r="I86" s="11"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="8"/>
-      <c r="G87" s="9"/>
-      <c r="I87" s="9"/>
+      <c r="A87" s="10"/>
+      <c r="G87" s="11"/>
+      <c r="I87" s="11"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="8"/>
-      <c r="G88" s="9"/>
-      <c r="I88" s="9"/>
+      <c r="A88" s="10"/>
+      <c r="G88" s="11"/>
+      <c r="I88" s="11"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="8"/>
-      <c r="G89" s="9"/>
-      <c r="I89" s="9"/>
+      <c r="A89" s="10"/>
+      <c r="G89" s="11"/>
+      <c r="I89" s="11"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="8"/>
-      <c r="G90" s="9"/>
-      <c r="I90" s="9"/>
+      <c r="A90" s="10"/>
+      <c r="G90" s="11"/>
+      <c r="I90" s="11"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="8"/>
-      <c r="G91" s="9"/>
-      <c r="I91" s="9"/>
+      <c r="A91" s="10"/>
+      <c r="G91" s="11"/>
+      <c r="I91" s="11"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="8"/>
-      <c r="G92" s="9"/>
-      <c r="I92" s="9"/>
+      <c r="A92" s="10"/>
+      <c r="G92" s="11"/>
+      <c r="I92" s="11"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="8"/>
-      <c r="G93" s="9"/>
-      <c r="I93" s="9"/>
+      <c r="A93" s="10"/>
+      <c r="G93" s="11"/>
+      <c r="I93" s="11"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="8"/>
-      <c r="G94" s="9"/>
-      <c r="I94" s="9"/>
+      <c r="A94" s="10"/>
+      <c r="G94" s="11"/>
+      <c r="I94" s="11"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="8"/>
-      <c r="G95" s="9"/>
-      <c r="I95" s="9"/>
+      <c r="A95" s="10"/>
+      <c r="G95" s="11"/>
+      <c r="I95" s="11"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="8"/>
-      <c r="G96" s="9"/>
-      <c r="I96" s="9"/>
+      <c r="A96" s="10"/>
+      <c r="G96" s="11"/>
+      <c r="I96" s="11"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="8"/>
-      <c r="G97" s="9"/>
-      <c r="I97" s="9"/>
+      <c r="A97" s="10"/>
+      <c r="G97" s="11"/>
+      <c r="I97" s="11"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="8"/>
-      <c r="G98" s="9"/>
-      <c r="I98" s="9"/>
+      <c r="A98" s="10"/>
+      <c r="G98" s="11"/>
+      <c r="I98" s="11"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="8"/>
-      <c r="G99" s="9"/>
-      <c r="I99" s="9"/>
+      <c r="A99" s="10"/>
+      <c r="G99" s="11"/>
+      <c r="I99" s="11"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="8"/>
-      <c r="G100" s="9"/>
-      <c r="I100" s="9"/>
+      <c r="A100" s="10"/>
+      <c r="G100" s="11"/>
+      <c r="I100" s="11"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="8"/>
-      <c r="G101" s="9"/>
-      <c r="I101" s="9"/>
+      <c r="A101" s="10"/>
+      <c r="G101" s="11"/>
+      <c r="I101" s="11"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="8"/>
-      <c r="G102" s="9"/>
-      <c r="I102" s="9"/>
+      <c r="A102" s="10"/>
+      <c r="G102" s="11"/>
+      <c r="I102" s="11"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="8"/>
-      <c r="G103" s="9"/>
-      <c r="I103" s="9"/>
+      <c r="A103" s="10"/>
+      <c r="G103" s="11"/>
+      <c r="I103" s="11"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="8"/>
-      <c r="G104" s="9"/>
-      <c r="I104" s="9"/>
+      <c r="A104" s="10"/>
+      <c r="G104" s="11"/>
+      <c r="I104" s="11"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="8"/>
-      <c r="G105" s="9"/>
-      <c r="I105" s="9"/>
+      <c r="A105" s="10"/>
+      <c r="G105" s="11"/>
+      <c r="I105" s="11"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="8"/>
-      <c r="G106" s="9"/>
-      <c r="I106" s="9"/>
+      <c r="A106" s="10"/>
+      <c r="G106" s="11"/>
+      <c r="I106" s="11"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="8"/>
-      <c r="G107" s="9"/>
-      <c r="I107" s="9"/>
+      <c r="A107" s="10"/>
+      <c r="G107" s="11"/>
+      <c r="I107" s="11"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="8"/>
-      <c r="G108" s="9"/>
-      <c r="I108" s="9"/>
+      <c r="A108" s="10"/>
+      <c r="G108" s="11"/>
+      <c r="I108" s="11"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="8"/>
-      <c r="G109" s="9"/>
-      <c r="I109" s="9"/>
+      <c r="A109" s="10"/>
+      <c r="G109" s="11"/>
+      <c r="I109" s="11"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="8"/>
-      <c r="G110" s="9"/>
-      <c r="I110" s="9"/>
+      <c r="A110" s="10"/>
+      <c r="G110" s="11"/>
+      <c r="I110" s="11"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="8"/>
-      <c r="G111" s="9"/>
-      <c r="I111" s="9"/>
+      <c r="A111" s="10"/>
+      <c r="G111" s="11"/>
+      <c r="I111" s="11"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="8"/>
-      <c r="G112" s="9"/>
-      <c r="I112" s="9"/>
+      <c r="A112" s="10"/>
+      <c r="G112" s="11"/>
+      <c r="I112" s="11"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="8"/>
-      <c r="G113" s="9"/>
-      <c r="I113" s="9"/>
+      <c r="A113" s="10"/>
+      <c r="G113" s="11"/>
+      <c r="I113" s="11"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="8"/>
-      <c r="G114" s="9"/>
-      <c r="I114" s="9"/>
+      <c r="A114" s="10"/>
+      <c r="G114" s="11"/>
+      <c r="I114" s="11"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="8"/>
-      <c r="G115" s="9"/>
-      <c r="I115" s="9"/>
+      <c r="A115" s="10"/>
+      <c r="G115" s="11"/>
+      <c r="I115" s="11"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="8"/>
-      <c r="G116" s="9"/>
-      <c r="I116" s="9"/>
+      <c r="A116" s="10"/>
+      <c r="G116" s="11"/>
+      <c r="I116" s="11"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="8"/>
-      <c r="G117" s="9"/>
-      <c r="I117" s="9"/>
+      <c r="A117" s="10"/>
+      <c r="G117" s="11"/>
+      <c r="I117" s="11"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="8"/>
-      <c r="G118" s="9"/>
-      <c r="I118" s="9"/>
+      <c r="A118" s="10"/>
+      <c r="G118" s="11"/>
+      <c r="I118" s="11"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="8"/>
-      <c r="G119" s="9"/>
-      <c r="I119" s="9"/>
+      <c r="A119" s="10"/>
+      <c r="G119" s="11"/>
+      <c r="I119" s="11"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="8"/>
-      <c r="G120" s="9"/>
-      <c r="I120" s="9"/>
+      <c r="A120" s="10"/>
+      <c r="G120" s="11"/>
+      <c r="I120" s="11"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="8"/>
-      <c r="G121" s="9"/>
-      <c r="I121" s="9"/>
+      <c r="A121" s="10"/>
+      <c r="G121" s="11"/>
+      <c r="I121" s="11"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="8"/>
-      <c r="G122" s="9"/>
-      <c r="I122" s="9"/>
+      <c r="A122" s="10"/>
+      <c r="G122" s="11"/>
+      <c r="I122" s="11"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="8"/>
-      <c r="G123" s="9"/>
-      <c r="I123" s="9"/>
+      <c r="A123" s="10"/>
+      <c r="G123" s="11"/>
+      <c r="I123" s="11"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="8"/>
-      <c r="G124" s="9"/>
-      <c r="I124" s="9"/>
+      <c r="A124" s="10"/>
+      <c r="G124" s="11"/>
+      <c r="I124" s="11"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="8"/>
-      <c r="G125" s="9"/>
-      <c r="I125" s="9"/>
+      <c r="A125" s="10"/>
+      <c r="G125" s="11"/>
+      <c r="I125" s="11"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="8"/>
-      <c r="G126" s="9"/>
-      <c r="I126" s="9"/>
+      <c r="A126" s="10"/>
+      <c r="G126" s="11"/>
+      <c r="I126" s="11"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="8"/>
-      <c r="G127" s="9"/>
-      <c r="I127" s="9"/>
+      <c r="A127" s="10"/>
+      <c r="G127" s="11"/>
+      <c r="I127" s="11"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="8"/>
-      <c r="G128" s="9"/>
-      <c r="I128" s="9"/>
+      <c r="A128" s="10"/>
+      <c r="G128" s="11"/>
+      <c r="I128" s="11"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="8"/>
-      <c r="G129" s="9"/>
-      <c r="I129" s="9"/>
+      <c r="A129" s="10"/>
+      <c r="G129" s="11"/>
+      <c r="I129" s="11"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="8"/>
-      <c r="G130" s="9"/>
-      <c r="I130" s="9"/>
+      <c r="A130" s="10"/>
+      <c r="G130" s="11"/>
+      <c r="I130" s="11"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="8"/>
-      <c r="G131" s="9"/>
-      <c r="I131" s="9"/>
+      <c r="A131" s="10"/>
+      <c r="G131" s="11"/>
+      <c r="I131" s="11"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="8"/>
-      <c r="G132" s="9"/>
-      <c r="I132" s="9"/>
+      <c r="A132" s="10"/>
+      <c r="G132" s="11"/>
+      <c r="I132" s="11"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="8"/>
-      <c r="G133" s="9"/>
-      <c r="I133" s="9"/>
+      <c r="A133" s="10"/>
+      <c r="G133" s="11"/>
+      <c r="I133" s="11"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="8"/>
-      <c r="G134" s="9"/>
-      <c r="I134" s="9"/>
+      <c r="A134" s="10"/>
+      <c r="G134" s="11"/>
+      <c r="I134" s="11"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="8"/>
-      <c r="G135" s="9"/>
-      <c r="I135" s="9"/>
+      <c r="A135" s="10"/>
+      <c r="G135" s="11"/>
+      <c r="I135" s="11"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="8"/>
-      <c r="G136" s="9"/>
-      <c r="I136" s="9"/>
+      <c r="A136" s="10"/>
+      <c r="G136" s="11"/>
+      <c r="I136" s="11"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="8"/>
-      <c r="G137" s="9"/>
-      <c r="I137" s="9"/>
+      <c r="A137" s="10"/>
+      <c r="G137" s="11"/>
+      <c r="I137" s="11"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="8"/>
-      <c r="G138" s="9"/>
-      <c r="I138" s="9"/>
+      <c r="A138" s="10"/>
+      <c r="G138" s="11"/>
+      <c r="I138" s="11"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="8"/>
-      <c r="G139" s="9"/>
-      <c r="I139" s="9"/>
+      <c r="A139" s="10"/>
+      <c r="G139" s="11"/>
+      <c r="I139" s="11"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="8"/>
-      <c r="G140" s="9"/>
-      <c r="I140" s="9"/>
+      <c r="A140" s="10"/>
+      <c r="G140" s="11"/>
+      <c r="I140" s="11"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="8"/>
-      <c r="G141" s="9"/>
-      <c r="I141" s="9"/>
+      <c r="A141" s="10"/>
+      <c r="G141" s="11"/>
+      <c r="I141" s="11"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="8"/>
-      <c r="G142" s="9"/>
-      <c r="I142" s="9"/>
+      <c r="A142" s="10"/>
+      <c r="G142" s="11"/>
+      <c r="I142" s="11"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="8"/>
-      <c r="G143" s="9"/>
-      <c r="I143" s="9"/>
+      <c r="A143" s="10"/>
+      <c r="G143" s="11"/>
+      <c r="I143" s="11"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="8"/>
-      <c r="G144" s="9"/>
-      <c r="I144" s="9"/>
+      <c r="A144" s="10"/>
+      <c r="G144" s="11"/>
+      <c r="I144" s="11"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="8"/>
-      <c r="G145" s="9"/>
-      <c r="I145" s="9"/>
+      <c r="A145" s="10"/>
+      <c r="G145" s="11"/>
+      <c r="I145" s="11"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="8"/>
-      <c r="G146" s="9"/>
-      <c r="I146" s="9"/>
+      <c r="A146" s="10"/>
+      <c r="G146" s="11"/>
+      <c r="I146" s="11"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="8"/>
-      <c r="G147" s="9"/>
-      <c r="I147" s="9"/>
+      <c r="A147" s="10"/>
+      <c r="G147" s="11"/>
+      <c r="I147" s="11"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="8"/>
-      <c r="G148" s="9"/>
-      <c r="I148" s="9"/>
+      <c r="A148" s="10"/>
+      <c r="G148" s="11"/>
+      <c r="I148" s="11"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="8"/>
-      <c r="G149" s="9"/>
-      <c r="I149" s="9"/>
+      <c r="A149" s="10"/>
+      <c r="G149" s="11"/>
+      <c r="I149" s="11"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="8"/>
-      <c r="G150" s="9"/>
-      <c r="I150" s="9"/>
+      <c r="A150" s="10"/>
+      <c r="G150" s="11"/>
+      <c r="I150" s="11"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="8"/>
-      <c r="G151" s="9"/>
-      <c r="I151" s="9"/>
+      <c r="A151" s="10"/>
+      <c r="G151" s="11"/>
+      <c r="I151" s="11"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="8"/>
-      <c r="G152" s="9"/>
-      <c r="I152" s="9"/>
+      <c r="A152" s="10"/>
+      <c r="G152" s="11"/>
+      <c r="I152" s="11"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="8"/>
-      <c r="G153" s="9"/>
-      <c r="I153" s="9"/>
+      <c r="A153" s="10"/>
+      <c r="G153" s="11"/>
+      <c r="I153" s="11"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="8"/>
-      <c r="G154" s="9"/>
-      <c r="I154" s="9"/>
+      <c r="A154" s="10"/>
+      <c r="G154" s="11"/>
+      <c r="I154" s="11"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="8"/>
-      <c r="G155" s="9"/>
-      <c r="I155" s="9"/>
+      <c r="A155" s="10"/>
+      <c r="G155" s="11"/>
+      <c r="I155" s="11"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="8"/>
-      <c r="G156" s="9"/>
-      <c r="I156" s="9"/>
+      <c r="A156" s="10"/>
+      <c r="G156" s="11"/>
+      <c r="I156" s="11"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="8"/>
-      <c r="G157" s="9"/>
-      <c r="I157" s="9"/>
+      <c r="A157" s="10"/>
+      <c r="G157" s="11"/>
+      <c r="I157" s="11"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="8"/>
-      <c r="G158" s="9"/>
-      <c r="I158" s="9"/>
+      <c r="A158" s="10"/>
+      <c r="G158" s="11"/>
+      <c r="I158" s="11"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="8"/>
-      <c r="G159" s="9"/>
-      <c r="I159" s="9"/>
+      <c r="A159" s="10"/>
+      <c r="G159" s="11"/>
+      <c r="I159" s="11"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="8"/>
-      <c r="G160" s="9"/>
-      <c r="I160" s="9"/>
+      <c r="A160" s="10"/>
+      <c r="G160" s="11"/>
+      <c r="I160" s="11"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="8"/>
-      <c r="G161" s="9"/>
-      <c r="I161" s="9"/>
+      <c r="A161" s="10"/>
+      <c r="G161" s="11"/>
+      <c r="I161" s="11"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="8"/>
-      <c r="G162" s="9"/>
-      <c r="I162" s="9"/>
+      <c r="A162" s="10"/>
+      <c r="G162" s="11"/>
+      <c r="I162" s="11"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="8"/>
-      <c r="G163" s="9"/>
-      <c r="I163" s="9"/>
+      <c r="A163" s="10"/>
+      <c r="G163" s="11"/>
+      <c r="I163" s="11"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="8"/>
-      <c r="G164" s="9"/>
-      <c r="I164" s="9"/>
+      <c r="A164" s="10"/>
+      <c r="G164" s="11"/>
+      <c r="I164" s="11"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="8"/>
-      <c r="G165" s="9"/>
-      <c r="I165" s="9"/>
+      <c r="A165" s="10"/>
+      <c r="G165" s="11"/>
+      <c r="I165" s="11"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="8"/>
-      <c r="G166" s="9"/>
-      <c r="I166" s="9"/>
+      <c r="A166" s="10"/>
+      <c r="G166" s="11"/>
+      <c r="I166" s="11"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="8"/>
-      <c r="G167" s="9"/>
-      <c r="I167" s="9"/>
+      <c r="A167" s="10"/>
+      <c r="G167" s="11"/>
+      <c r="I167" s="11"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="8"/>
-      <c r="G168" s="9"/>
-      <c r="I168" s="9"/>
+      <c r="A168" s="10"/>
+      <c r="G168" s="11"/>
+      <c r="I168" s="11"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="8"/>
-      <c r="G169" s="9"/>
-      <c r="I169" s="9"/>
+      <c r="A169" s="10"/>
+      <c r="G169" s="11"/>
+      <c r="I169" s="11"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="8"/>
-      <c r="G170" s="9"/>
-      <c r="I170" s="9"/>
+      <c r="A170" s="10"/>
+      <c r="G170" s="11"/>
+      <c r="I170" s="11"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="8"/>
-      <c r="G171" s="9"/>
-      <c r="I171" s="9"/>
+      <c r="A171" s="10"/>
+      <c r="G171" s="11"/>
+      <c r="I171" s="11"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="8"/>
-      <c r="G172" s="9"/>
-      <c r="I172" s="9"/>
+      <c r="A172" s="10"/>
+      <c r="G172" s="11"/>
+      <c r="I172" s="11"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="8"/>
-      <c r="G173" s="9"/>
-      <c r="I173" s="9"/>
+      <c r="A173" s="10"/>
+      <c r="G173" s="11"/>
+      <c r="I173" s="11"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="8"/>
-      <c r="G174" s="9"/>
-      <c r="I174" s="9"/>
+      <c r="A174" s="10"/>
+      <c r="G174" s="11"/>
+      <c r="I174" s="11"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="8"/>
-      <c r="G175" s="9"/>
-      <c r="I175" s="9"/>
+      <c r="A175" s="10"/>
+      <c r="G175" s="11"/>
+      <c r="I175" s="11"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="8"/>
-      <c r="G176" s="9"/>
-      <c r="I176" s="9"/>
+      <c r="A176" s="10"/>
+      <c r="G176" s="11"/>
+      <c r="I176" s="11"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="8"/>
-      <c r="G177" s="9"/>
-      <c r="I177" s="9"/>
+      <c r="A177" s="10"/>
+      <c r="G177" s="11"/>
+      <c r="I177" s="11"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="8"/>
-      <c r="G178" s="9"/>
-      <c r="I178" s="9"/>
+      <c r="A178" s="10"/>
+      <c r="G178" s="11"/>
+      <c r="I178" s="11"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="8"/>
-      <c r="G179" s="9"/>
-      <c r="I179" s="9"/>
+      <c r="A179" s="10"/>
+      <c r="G179" s="11"/>
+      <c r="I179" s="11"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="8"/>
-      <c r="G180" s="9"/>
-      <c r="I180" s="9"/>
+      <c r="A180" s="10"/>
+      <c r="G180" s="11"/>
+      <c r="I180" s="11"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="8"/>
-      <c r="G181" s="9"/>
-      <c r="I181" s="9"/>
+      <c r="A181" s="10"/>
+      <c r="G181" s="11"/>
+      <c r="I181" s="11"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="8"/>
-      <c r="G182" s="9"/>
-      <c r="I182" s="9"/>
+      <c r="A182" s="10"/>
+      <c r="G182" s="11"/>
+      <c r="I182" s="11"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="8"/>
-      <c r="G183" s="9"/>
-      <c r="I183" s="9"/>
+      <c r="A183" s="10"/>
+      <c r="G183" s="11"/>
+      <c r="I183" s="11"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="8"/>
-      <c r="G184" s="9"/>
-      <c r="I184" s="9"/>
+      <c r="A184" s="10"/>
+      <c r="G184" s="11"/>
+      <c r="I184" s="11"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="8"/>
-      <c r="G185" s="9"/>
-      <c r="I185" s="9"/>
+      <c r="A185" s="10"/>
+      <c r="G185" s="11"/>
+      <c r="I185" s="11"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="8"/>
-      <c r="G186" s="9"/>
-      <c r="I186" s="9"/>
+      <c r="A186" s="10"/>
+      <c r="G186" s="11"/>
+      <c r="I186" s="11"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="8"/>
-      <c r="G187" s="9"/>
-      <c r="I187" s="9"/>
+      <c r="A187" s="10"/>
+      <c r="G187" s="11"/>
+      <c r="I187" s="11"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="8"/>
-      <c r="G188" s="9"/>
-      <c r="I188" s="9"/>
+      <c r="A188" s="10"/>
+      <c r="G188" s="11"/>
+      <c r="I188" s="11"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="8"/>
-      <c r="G189" s="9"/>
-      <c r="I189" s="9"/>
+      <c r="A189" s="10"/>
+      <c r="G189" s="11"/>
+      <c r="I189" s="11"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="8"/>
-      <c r="G190" s="9"/>
-      <c r="I190" s="9"/>
+      <c r="A190" s="10"/>
+      <c r="G190" s="11"/>
+      <c r="I190" s="11"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="8"/>
-      <c r="G191" s="9"/>
-      <c r="I191" s="9"/>
+      <c r="A191" s="10"/>
+      <c r="G191" s="11"/>
+      <c r="I191" s="11"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="8"/>
-      <c r="G192" s="9"/>
-      <c r="I192" s="9"/>
+      <c r="A192" s="10"/>
+      <c r="G192" s="11"/>
+      <c r="I192" s="11"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="8"/>
-      <c r="G193" s="9"/>
-      <c r="I193" s="9"/>
+      <c r="A193" s="10"/>
+      <c r="G193" s="11"/>
+      <c r="I193" s="11"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="8"/>
-      <c r="G194" s="9"/>
-      <c r="I194" s="9"/>
+      <c r="A194" s="10"/>
+      <c r="G194" s="11"/>
+      <c r="I194" s="11"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="8"/>
-      <c r="G195" s="9"/>
-      <c r="I195" s="9"/>
+      <c r="A195" s="10"/>
+      <c r="G195" s="11"/>
+      <c r="I195" s="11"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="8"/>
-      <c r="G196" s="9"/>
-      <c r="I196" s="9"/>
+      <c r="A196" s="10"/>
+      <c r="G196" s="11"/>
+      <c r="I196" s="11"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="8"/>
-      <c r="G197" s="9"/>
-      <c r="I197" s="9"/>
+      <c r="A197" s="10"/>
+      <c r="G197" s="11"/>
+      <c r="I197" s="11"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="8"/>
-      <c r="G198" s="9"/>
-      <c r="I198" s="9"/>
+      <c r="A198" s="10"/>
+      <c r="G198" s="11"/>
+      <c r="I198" s="11"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="8"/>
-      <c r="G199" s="9"/>
-      <c r="I199" s="9"/>
+      <c r="A199" s="10"/>
+      <c r="G199" s="11"/>
+      <c r="I199" s="11"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="8"/>
-      <c r="G200" s="9"/>
-      <c r="I200" s="9"/>
+      <c r="A200" s="10"/>
+      <c r="G200" s="11"/>
+      <c r="I200" s="11"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="8"/>
-      <c r="G201" s="9"/>
-      <c r="I201" s="9"/>
+      <c r="A201" s="10"/>
+      <c r="G201" s="11"/>
+      <c r="I201" s="11"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="8"/>
-      <c r="G202" s="9"/>
-      <c r="I202" s="9"/>
+      <c r="A202" s="10"/>
+      <c r="G202" s="11"/>
+      <c r="I202" s="11"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="8"/>
-      <c r="G203" s="9"/>
-      <c r="I203" s="9"/>
+      <c r="A203" s="10"/>
+      <c r="G203" s="11"/>
+      <c r="I203" s="11"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="8"/>
-      <c r="G204" s="9"/>
-      <c r="I204" s="9"/>
+      <c r="A204" s="10"/>
+      <c r="G204" s="11"/>
+      <c r="I204" s="11"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="8"/>
-      <c r="G205" s="9"/>
-      <c r="I205" s="9"/>
+      <c r="A205" s="10"/>
+      <c r="G205" s="11"/>
+      <c r="I205" s="11"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="8"/>
-      <c r="G206" s="9"/>
-      <c r="I206" s="9"/>
+      <c r="A206" s="10"/>
+      <c r="G206" s="11"/>
+      <c r="I206" s="11"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="8"/>
-      <c r="G207" s="9"/>
-      <c r="I207" s="9"/>
+      <c r="A207" s="10"/>
+      <c r="G207" s="11"/>
+      <c r="I207" s="11"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="8"/>
-      <c r="G208" s="9"/>
-      <c r="I208" s="9"/>
+      <c r="A208" s="10"/>
+      <c r="G208" s="11"/>
+      <c r="I208" s="11"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="8"/>
-      <c r="G209" s="9"/>
-      <c r="I209" s="9"/>
+      <c r="A209" s="10"/>
+      <c r="G209" s="11"/>
+      <c r="I209" s="11"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="8"/>
-      <c r="G210" s="9"/>
-      <c r="I210" s="9"/>
+      <c r="A210" s="10"/>
+      <c r="G210" s="11"/>
+      <c r="I210" s="11"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="8"/>
-      <c r="G211" s="9"/>
-      <c r="I211" s="9"/>
+      <c r="A211" s="10"/>
+      <c r="G211" s="11"/>
+      <c r="I211" s="11"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="8"/>
-      <c r="G212" s="9"/>
-      <c r="I212" s="9"/>
+      <c r="A212" s="10"/>
+      <c r="G212" s="11"/>
+      <c r="I212" s="11"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="8"/>
-      <c r="G213" s="9"/>
-      <c r="I213" s="9"/>
+      <c r="A213" s="10"/>
+      <c r="G213" s="11"/>
+      <c r="I213" s="11"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="8"/>
-      <c r="G214" s="9"/>
-      <c r="I214" s="9"/>
+      <c r="A214" s="10"/>
+      <c r="G214" s="11"/>
+      <c r="I214" s="11"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="8"/>
-      <c r="G215" s="9"/>
-      <c r="I215" s="9"/>
+      <c r="A215" s="10"/>
+      <c r="G215" s="11"/>
+      <c r="I215" s="11"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="8"/>
-      <c r="G216" s="9"/>
-      <c r="I216" s="9"/>
+      <c r="A216" s="10"/>
+      <c r="G216" s="11"/>
+      <c r="I216" s="11"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="8"/>
-      <c r="G217" s="9"/>
-      <c r="I217" s="9"/>
+      <c r="A217" s="10"/>
+      <c r="G217" s="11"/>
+      <c r="I217" s="11"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="8"/>
-      <c r="G218" s="9"/>
-      <c r="I218" s="9"/>
+      <c r="A218" s="10"/>
+      <c r="G218" s="11"/>
+      <c r="I218" s="11"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="8"/>
-      <c r="G219" s="9"/>
-      <c r="I219" s="9"/>
+      <c r="A219" s="10"/>
+      <c r="G219" s="11"/>
+      <c r="I219" s="11"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="8"/>
-      <c r="G220" s="9"/>
-      <c r="I220" s="9"/>
+      <c r="A220" s="10"/>
+      <c r="G220" s="11"/>
+      <c r="I220" s="11"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="8"/>
-      <c r="G221" s="9"/>
-      <c r="I221" s="9"/>
+      <c r="A221" s="10"/>
+      <c r="G221" s="11"/>
+      <c r="I221" s="11"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="8"/>
-      <c r="G222" s="9"/>
-      <c r="I222" s="9"/>
+      <c r="A222" s="10"/>
+      <c r="G222" s="11"/>
+      <c r="I222" s="11"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="8"/>
-      <c r="G223" s="9"/>
-      <c r="I223" s="9"/>
+      <c r="A223" s="10"/>
+      <c r="G223" s="11"/>
+      <c r="I223" s="11"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="8"/>
-      <c r="G224" s="9"/>
-      <c r="I224" s="9"/>
+      <c r="A224" s="10"/>
+      <c r="G224" s="11"/>
+      <c r="I224" s="11"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="8"/>
-      <c r="G225" s="9"/>
-      <c r="I225" s="9"/>
+      <c r="A225" s="10"/>
+      <c r="G225" s="11"/>
+      <c r="I225" s="11"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="8"/>
-      <c r="G226" s="9"/>
-      <c r="I226" s="9"/>
+      <c r="A226" s="10"/>
+      <c r="G226" s="11"/>
+      <c r="I226" s="11"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="8"/>
-      <c r="G227" s="9"/>
-      <c r="I227" s="9"/>
+      <c r="A227" s="10"/>
+      <c r="G227" s="11"/>
+      <c r="I227" s="11"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="8"/>
-      <c r="G228" s="9"/>
-      <c r="I228" s="9"/>
+      <c r="A228" s="10"/>
+      <c r="G228" s="11"/>
+      <c r="I228" s="11"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="8"/>
-      <c r="G229" s="9"/>
-      <c r="I229" s="9"/>
+      <c r="A229" s="10"/>
+      <c r="G229" s="11"/>
+      <c r="I229" s="11"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="8"/>
-      <c r="G230" s="9"/>
-      <c r="I230" s="9"/>
+      <c r="A230" s="10"/>
+      <c r="G230" s="11"/>
+      <c r="I230" s="11"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="8"/>
-      <c r="G231" s="9"/>
-      <c r="I231" s="9"/>
+      <c r="A231" s="10"/>
+      <c r="G231" s="11"/>
+      <c r="I231" s="11"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="8"/>
-      <c r="G232" s="9"/>
-      <c r="I232" s="9"/>
+      <c r="A232" s="10"/>
+      <c r="G232" s="11"/>
+      <c r="I232" s="11"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="8"/>
-      <c r="G233" s="9"/>
-      <c r="I233" s="9"/>
+      <c r="A233" s="10"/>
+      <c r="G233" s="11"/>
+      <c r="I233" s="11"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="8"/>
-      <c r="G234" s="9"/>
-      <c r="I234" s="9"/>
+      <c r="A234" s="10"/>
+      <c r="G234" s="11"/>
+      <c r="I234" s="11"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="8"/>
-      <c r="G235" s="9"/>
-      <c r="I235" s="9"/>
+      <c r="A235" s="10"/>
+      <c r="G235" s="11"/>
+      <c r="I235" s="11"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="8"/>
-      <c r="G236" s="9"/>
-      <c r="I236" s="9"/>
+      <c r="A236" s="10"/>
+      <c r="G236" s="11"/>
+      <c r="I236" s="11"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="8"/>
-      <c r="G237" s="9"/>
-      <c r="I237" s="9"/>
+      <c r="A237" s="10"/>
+      <c r="G237" s="11"/>
+      <c r="I237" s="11"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="8"/>
-      <c r="G238" s="9"/>
-      <c r="I238" s="9"/>
+      <c r="A238" s="10"/>
+      <c r="G238" s="11"/>
+      <c r="I238" s="11"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="8"/>
-      <c r="G239" s="9"/>
-      <c r="I239" s="9"/>
+      <c r="A239" s="10"/>
+      <c r="G239" s="11"/>
+      <c r="I239" s="11"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="8"/>
-      <c r="G240" s="9"/>
-      <c r="I240" s="9"/>
+      <c r="A240" s="10"/>
+      <c r="G240" s="11"/>
+      <c r="I240" s="11"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="8"/>
-      <c r="G241" s="9"/>
-      <c r="I241" s="9"/>
+      <c r="A241" s="10"/>
+      <c r="G241" s="11"/>
+      <c r="I241" s="11"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="8"/>
-      <c r="G242" s="9"/>
-      <c r="I242" s="9"/>
+      <c r="A242" s="10"/>
+      <c r="G242" s="11"/>
+      <c r="I242" s="11"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="8"/>
-      <c r="G243" s="9"/>
-      <c r="I243" s="9"/>
+      <c r="A243" s="10"/>
+      <c r="G243" s="11"/>
+      <c r="I243" s="11"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="8"/>
-      <c r="G244" s="9"/>
-      <c r="I244" s="9"/>
+      <c r="A244" s="10"/>
+      <c r="G244" s="11"/>
+      <c r="I244" s="11"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="8"/>
-      <c r="G245" s="9"/>
-      <c r="I245" s="9"/>
+      <c r="A245" s="10"/>
+      <c r="G245" s="11"/>
+      <c r="I245" s="11"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="8"/>
-      <c r="G246" s="9"/>
-      <c r="I246" s="9"/>
+      <c r="A246" s="10"/>
+      <c r="G246" s="11"/>
+      <c r="I246" s="11"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="8"/>
-      <c r="G247" s="9"/>
-      <c r="I247" s="9"/>
+      <c r="A247" s="10"/>
+      <c r="G247" s="11"/>
+      <c r="I247" s="11"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="8"/>
-      <c r="G248" s="9"/>
-      <c r="I248" s="9"/>
+      <c r="A248" s="10"/>
+      <c r="G248" s="11"/>
+      <c r="I248" s="11"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="8"/>
-      <c r="G249" s="9"/>
-      <c r="I249" s="9"/>
+      <c r="A249" s="10"/>
+      <c r="G249" s="11"/>
+      <c r="I249" s="11"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="8"/>
-      <c r="G250" s="9"/>
-      <c r="I250" s="9"/>
+      <c r="A250" s="10"/>
+      <c r="G250" s="11"/>
+      <c r="I250" s="11"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="8"/>
-      <c r="G251" s="9"/>
-      <c r="I251" s="9"/>
+      <c r="A251" s="10"/>
+      <c r="G251" s="11"/>
+      <c r="I251" s="11"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="8"/>
-      <c r="G252" s="9"/>
-      <c r="I252" s="9"/>
+      <c r="A252" s="10"/>
+      <c r="G252" s="11"/>
+      <c r="I252" s="11"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="8"/>
-      <c r="G253" s="9"/>
-      <c r="I253" s="9"/>
+      <c r="A253" s="10"/>
+      <c r="G253" s="11"/>
+      <c r="I253" s="11"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="8"/>
-      <c r="G254" s="9"/>
-      <c r="I254" s="9"/>
+      <c r="A254" s="10"/>
+      <c r="G254" s="11"/>
+      <c r="I254" s="11"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="8"/>
-      <c r="G255" s="9"/>
-      <c r="I255" s="9"/>
+      <c r="A255" s="10"/>
+      <c r="G255" s="11"/>
+      <c r="I255" s="11"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="8"/>
-      <c r="G256" s="9"/>
-      <c r="I256" s="9"/>
+      <c r="A256" s="10"/>
+      <c r="G256" s="11"/>
+      <c r="I256" s="11"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="8"/>
-      <c r="G257" s="9"/>
-      <c r="I257" s="9"/>
+      <c r="A257" s="10"/>
+      <c r="G257" s="11"/>
+      <c r="I257" s="11"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="8"/>
-      <c r="G258" s="9"/>
-      <c r="I258" s="9"/>
+      <c r="A258" s="10"/>
+      <c r="G258" s="11"/>
+      <c r="I258" s="11"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="8"/>
-      <c r="G259" s="9"/>
-      <c r="I259" s="9"/>
+      <c r="A259" s="10"/>
+      <c r="G259" s="11"/>
+      <c r="I259" s="11"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="8"/>
-      <c r="G260" s="9"/>
-      <c r="I260" s="9"/>
+      <c r="A260" s="10"/>
+      <c r="G260" s="11"/>
+      <c r="I260" s="11"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="8"/>
-      <c r="G261" s="9"/>
-      <c r="I261" s="9"/>
+      <c r="A261" s="10"/>
+      <c r="G261" s="11"/>
+      <c r="I261" s="11"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="8"/>
-      <c r="G262" s="9"/>
-      <c r="I262" s="9"/>
+      <c r="A262" s="10"/>
+      <c r="G262" s="11"/>
+      <c r="I262" s="11"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="8"/>
-      <c r="G263" s="9"/>
-      <c r="I263" s="9"/>
+      <c r="A263" s="10"/>
+      <c r="G263" s="11"/>
+      <c r="I263" s="11"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="8"/>
-      <c r="G264" s="9"/>
-      <c r="I264" s="9"/>
+      <c r="A264" s="10"/>
+      <c r="G264" s="11"/>
+      <c r="I264" s="11"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="8"/>
-      <c r="G265" s="9"/>
-      <c r="I265" s="9"/>
+      <c r="A265" s="10"/>
+      <c r="G265" s="11"/>
+      <c r="I265" s="11"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="8"/>
-      <c r="G266" s="9"/>
-      <c r="I266" s="9"/>
+      <c r="A266" s="10"/>
+      <c r="G266" s="11"/>
+      <c r="I266" s="11"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="8"/>
-      <c r="G267" s="9"/>
-      <c r="I267" s="9"/>
+      <c r="A267" s="10"/>
+      <c r="G267" s="11"/>
+      <c r="I267" s="11"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="8"/>
-      <c r="G268" s="9"/>
-      <c r="I268" s="9"/>
+      <c r="A268" s="10"/>
+      <c r="G268" s="11"/>
+      <c r="I268" s="11"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="8"/>
-      <c r="G269" s="9"/>
-      <c r="I269" s="9"/>
+      <c r="A269" s="10"/>
+      <c r="G269" s="11"/>
+      <c r="I269" s="11"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="8"/>
-      <c r="G270" s="9"/>
-      <c r="I270" s="9"/>
+      <c r="A270" s="10"/>
+      <c r="G270" s="11"/>
+      <c r="I270" s="11"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="8"/>
-      <c r="G271" s="9"/>
-      <c r="I271" s="9"/>
+      <c r="A271" s="10"/>
+      <c r="G271" s="11"/>
+      <c r="I271" s="11"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="8"/>
-      <c r="G272" s="9"/>
-      <c r="I272" s="9"/>
+      <c r="A272" s="10"/>
+      <c r="G272" s="11"/>
+      <c r="I272" s="11"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="8"/>
-      <c r="G273" s="9"/>
-      <c r="I273" s="9"/>
+      <c r="A273" s="10"/>
+      <c r="G273" s="11"/>
+      <c r="I273" s="11"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="8"/>
-      <c r="G274" s="9"/>
-      <c r="I274" s="9"/>
+      <c r="A274" s="10"/>
+      <c r="G274" s="11"/>
+      <c r="I274" s="11"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="8"/>
-      <c r="G275" s="9"/>
-      <c r="I275" s="9"/>
+      <c r="A275" s="10"/>
+      <c r="G275" s="11"/>
+      <c r="I275" s="11"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="8"/>
-      <c r="G276" s="9"/>
-      <c r="I276" s="9"/>
+      <c r="A276" s="10"/>
+      <c r="G276" s="11"/>
+      <c r="I276" s="11"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="8"/>
-      <c r="G277" s="9"/>
-      <c r="I277" s="9"/>
+      <c r="A277" s="10"/>
+      <c r="G277" s="11"/>
+      <c r="I277" s="11"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="8"/>
-      <c r="G278" s="9"/>
-      <c r="I278" s="9"/>
+      <c r="A278" s="10"/>
+      <c r="G278" s="11"/>
+      <c r="I278" s="11"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="8"/>
-      <c r="G279" s="9"/>
-      <c r="I279" s="9"/>
+      <c r="A279" s="10"/>
+      <c r="G279" s="11"/>
+      <c r="I279" s="11"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="8"/>
-      <c r="G280" s="9"/>
-      <c r="I280" s="9"/>
+      <c r="A280" s="10"/>
+      <c r="G280" s="11"/>
+      <c r="I280" s="11"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="8"/>
-      <c r="G281" s="9"/>
-      <c r="I281" s="9"/>
+      <c r="A281" s="10"/>
+      <c r="G281" s="11"/>
+      <c r="I281" s="11"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="8"/>
-      <c r="G282" s="9"/>
-      <c r="I282" s="9"/>
+      <c r="A282" s="10"/>
+      <c r="G282" s="11"/>
+      <c r="I282" s="11"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="8"/>
-      <c r="G283" s="9"/>
-      <c r="I283" s="9"/>
+      <c r="A283" s="10"/>
+      <c r="G283" s="11"/>
+      <c r="I283" s="11"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="8"/>
-      <c r="G284" s="9"/>
-      <c r="I284" s="9"/>
+      <c r="A284" s="10"/>
+      <c r="G284" s="11"/>
+      <c r="I284" s="11"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="8"/>
-      <c r="G285" s="9"/>
-      <c r="I285" s="9"/>
+      <c r="A285" s="10"/>
+      <c r="G285" s="11"/>
+      <c r="I285" s="11"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="8"/>
-      <c r="G286" s="9"/>
-      <c r="I286" s="9"/>
+      <c r="A286" s="10"/>
+      <c r="G286" s="11"/>
+      <c r="I286" s="11"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="8"/>
-      <c r="G287" s="9"/>
-      <c r="I287" s="9"/>
+      <c r="A287" s="10"/>
+      <c r="G287" s="11"/>
+      <c r="I287" s="11"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="8"/>
-      <c r="G288" s="9"/>
-      <c r="I288" s="9"/>
+      <c r="A288" s="10"/>
+      <c r="G288" s="11"/>
+      <c r="I288" s="11"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="8"/>
-      <c r="G289" s="9"/>
-      <c r="I289" s="9"/>
+      <c r="A289" s="10"/>
+      <c r="G289" s="11"/>
+      <c r="I289" s="11"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="8"/>
-      <c r="G290" s="9"/>
-      <c r="I290" s="9"/>
+      <c r="A290" s="10"/>
+      <c r="G290" s="11"/>
+      <c r="I290" s="11"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="8"/>
-      <c r="G291" s="9"/>
-      <c r="I291" s="9"/>
+      <c r="A291" s="10"/>
+      <c r="G291" s="11"/>
+      <c r="I291" s="11"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="8"/>
-      <c r="G292" s="9"/>
-      <c r="I292" s="9"/>
+      <c r="A292" s="10"/>
+      <c r="G292" s="11"/>
+      <c r="I292" s="11"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="8"/>
-      <c r="G293" s="9"/>
-      <c r="I293" s="9"/>
+      <c r="A293" s="10"/>
+      <c r="G293" s="11"/>
+      <c r="I293" s="11"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="8"/>
-      <c r="G294" s="9"/>
-      <c r="I294" s="9"/>
+      <c r="A294" s="10"/>
+      <c r="G294" s="11"/>
+      <c r="I294" s="11"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="8"/>
-      <c r="G295" s="9"/>
-      <c r="I295" s="9"/>
+      <c r="A295" s="10"/>
+      <c r="G295" s="11"/>
+      <c r="I295" s="11"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="8"/>
-      <c r="G296" s="9"/>
-      <c r="I296" s="9"/>
+      <c r="A296" s="10"/>
+      <c r="G296" s="11"/>
+      <c r="I296" s="11"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="8"/>
-      <c r="G297" s="9"/>
-      <c r="I297" s="9"/>
+      <c r="A297" s="10"/>
+      <c r="G297" s="11"/>
+      <c r="I297" s="11"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="8"/>
-      <c r="G298" s="9"/>
-      <c r="I298" s="9"/>
+      <c r="A298" s="10"/>
+      <c r="G298" s="11"/>
+      <c r="I298" s="11"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="8"/>
-      <c r="G299" s="9"/>
-      <c r="I299" s="9"/>
+      <c r="A299" s="10"/>
+      <c r="G299" s="11"/>
+      <c r="I299" s="11"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="8"/>
-      <c r="G300" s="9"/>
-      <c r="I300" s="9"/>
+      <c r="A300" s="10"/>
+      <c r="G300" s="11"/>
+      <c r="I300" s="11"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="8"/>
-      <c r="G301" s="9"/>
-      <c r="I301" s="9"/>
+      <c r="A301" s="10"/>
+      <c r="G301" s="11"/>
+      <c r="I301" s="11"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="8"/>
-      <c r="G302" s="9"/>
-      <c r="I302" s="9"/>
+      <c r="A302" s="10"/>
+      <c r="G302" s="11"/>
+      <c r="I302" s="11"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="8"/>
-      <c r="G303" s="9"/>
-      <c r="I303" s="9"/>
+      <c r="A303" s="10"/>
+      <c r="G303" s="11"/>
+      <c r="I303" s="11"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="8"/>
-      <c r="G304" s="9"/>
-      <c r="I304" s="9"/>
+      <c r="A304" s="10"/>
+      <c r="G304" s="11"/>
+      <c r="I304" s="11"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="8"/>
-      <c r="G305" s="9"/>
-      <c r="I305" s="9"/>
+      <c r="A305" s="10"/>
+      <c r="G305" s="11"/>
+      <c r="I305" s="11"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="8"/>
-      <c r="G306" s="9"/>
-      <c r="I306" s="9"/>
+      <c r="A306" s="10"/>
+      <c r="G306" s="11"/>
+      <c r="I306" s="11"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="8"/>
-      <c r="G307" s="9"/>
-      <c r="I307" s="9"/>
+      <c r="A307" s="10"/>
+      <c r="G307" s="11"/>
+      <c r="I307" s="11"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="8"/>
-      <c r="G308" s="9"/>
-      <c r="I308" s="9"/>
+      <c r="A308" s="10"/>
+      <c r="G308" s="11"/>
+      <c r="I308" s="11"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="8"/>
-      <c r="G309" s="9"/>
-      <c r="I309" s="9"/>
+      <c r="A309" s="10"/>
+      <c r="G309" s="11"/>
+      <c r="I309" s="11"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="8"/>
-      <c r="G310" s="9"/>
-      <c r="I310" s="9"/>
+      <c r="A310" s="10"/>
+      <c r="G310" s="11"/>
+      <c r="I310" s="11"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="8"/>
-      <c r="G311" s="9"/>
-      <c r="I311" s="9"/>
+      <c r="A311" s="10"/>
+      <c r="G311" s="11"/>
+      <c r="I311" s="11"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="8"/>
-      <c r="G312" s="9"/>
-      <c r="I312" s="9"/>
+      <c r="A312" s="10"/>
+      <c r="G312" s="11"/>
+      <c r="I312" s="11"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="8"/>
-      <c r="G313" s="9"/>
-      <c r="I313" s="9"/>
+      <c r="A313" s="10"/>
+      <c r="G313" s="11"/>
+      <c r="I313" s="11"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="8"/>
-      <c r="G314" s="9"/>
-      <c r="I314" s="9"/>
+      <c r="A314" s="10"/>
+      <c r="G314" s="11"/>
+      <c r="I314" s="11"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="8"/>
-      <c r="G315" s="9"/>
-      <c r="I315" s="9"/>
+      <c r="A315" s="10"/>
+      <c r="G315" s="11"/>
+      <c r="I315" s="11"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="8"/>
-      <c r="G316" s="9"/>
-      <c r="I316" s="9"/>
+      <c r="A316" s="10"/>
+      <c r="G316" s="11"/>
+      <c r="I316" s="11"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="8"/>
-      <c r="G317" s="9"/>
-      <c r="I317" s="9"/>
+      <c r="A317" s="10"/>
+      <c r="G317" s="11"/>
+      <c r="I317" s="11"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="8"/>
-      <c r="G318" s="9"/>
-      <c r="I318" s="9"/>
+      <c r="A318" s="10"/>
+      <c r="G318" s="11"/>
+      <c r="I318" s="11"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="8"/>
-      <c r="G319" s="9"/>
-      <c r="I319" s="9"/>
+      <c r="A319" s="10"/>
+      <c r="G319" s="11"/>
+      <c r="I319" s="11"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="8"/>
-      <c r="G320" s="9"/>
-      <c r="I320" s="9"/>
+      <c r="A320" s="10"/>
+      <c r="G320" s="11"/>
+      <c r="I320" s="11"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="8"/>
-      <c r="G321" s="9"/>
-      <c r="I321" s="9"/>
+      <c r="A321" s="10"/>
+      <c r="G321" s="11"/>
+      <c r="I321" s="11"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="8"/>
-      <c r="G322" s="9"/>
-      <c r="I322" s="9"/>
+      <c r="A322" s="10"/>
+      <c r="G322" s="11"/>
+      <c r="I322" s="11"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="8"/>
-      <c r="G323" s="9"/>
-      <c r="I323" s="9"/>
+      <c r="A323" s="10"/>
+      <c r="G323" s="11"/>
+      <c r="I323" s="11"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="8"/>
-      <c r="G324" s="9"/>
-      <c r="I324" s="9"/>
+      <c r="A324" s="10"/>
+      <c r="G324" s="11"/>
+      <c r="I324" s="11"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="8"/>
-      <c r="G325" s="9"/>
-      <c r="I325" s="9"/>
+      <c r="A325" s="10"/>
+      <c r="G325" s="11"/>
+      <c r="I325" s="11"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="8"/>
-      <c r="G326" s="9"/>
-      <c r="I326" s="9"/>
+      <c r="A326" s="10"/>
+      <c r="G326" s="11"/>
+      <c r="I326" s="11"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="8"/>
-      <c r="G327" s="9"/>
-      <c r="I327" s="9"/>
+      <c r="A327" s="10"/>
+      <c r="G327" s="11"/>
+      <c r="I327" s="11"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="8"/>
-      <c r="G328" s="9"/>
-      <c r="I328" s="9"/>
+      <c r="A328" s="10"/>
+      <c r="G328" s="11"/>
+      <c r="I328" s="11"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="8"/>
-      <c r="G329" s="9"/>
-      <c r="I329" s="9"/>
+      <c r="A329" s="10"/>
+      <c r="G329" s="11"/>
+      <c r="I329" s="11"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="8"/>
-      <c r="G330" s="9"/>
-      <c r="I330" s="9"/>
+      <c r="A330" s="10"/>
+      <c r="G330" s="11"/>
+      <c r="I330" s="11"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="8"/>
-      <c r="G331" s="9"/>
-      <c r="I331" s="9"/>
+      <c r="A331" s="10"/>
+      <c r="G331" s="11"/>
+      <c r="I331" s="11"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="8"/>
-      <c r="G332" s="9"/>
-      <c r="I332" s="9"/>
+      <c r="A332" s="10"/>
+      <c r="G332" s="11"/>
+      <c r="I332" s="11"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="8"/>
-      <c r="G333" s="9"/>
-      <c r="I333" s="9"/>
+      <c r="A333" s="10"/>
+      <c r="G333" s="11"/>
+      <c r="I333" s="11"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="8"/>
-      <c r="G334" s="9"/>
-      <c r="I334" s="9"/>
+      <c r="A334" s="10"/>
+      <c r="G334" s="11"/>
+      <c r="I334" s="11"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="8"/>
-      <c r="G335" s="9"/>
-      <c r="I335" s="9"/>
+      <c r="A335" s="10"/>
+      <c r="G335" s="11"/>
+      <c r="I335" s="11"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="8"/>
-      <c r="G336" s="9"/>
-      <c r="I336" s="9"/>
+      <c r="A336" s="10"/>
+      <c r="G336" s="11"/>
+      <c r="I336" s="11"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="8"/>
-      <c r="G337" s="9"/>
-      <c r="I337" s="9"/>
+      <c r="A337" s="10"/>
+      <c r="G337" s="11"/>
+      <c r="I337" s="11"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="8"/>
-      <c r="G338" s="9"/>
-      <c r="I338" s="9"/>
+      <c r="A338" s="10"/>
+      <c r="G338" s="11"/>
+      <c r="I338" s="11"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="8"/>
-      <c r="G339" s="9"/>
-      <c r="I339" s="9"/>
+      <c r="A339" s="10"/>
+      <c r="G339" s="11"/>
+      <c r="I339" s="11"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="8"/>
-      <c r="G340" s="9"/>
-      <c r="I340" s="9"/>
+      <c r="A340" s="10"/>
+      <c r="G340" s="11"/>
+      <c r="I340" s="11"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="8"/>
-      <c r="G341" s="9"/>
-      <c r="I341" s="9"/>
+      <c r="A341" s="10"/>
+      <c r="G341" s="11"/>
+      <c r="I341" s="11"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="8"/>
-      <c r="G342" s="9"/>
-      <c r="I342" s="9"/>
+      <c r="A342" s="10"/>
+      <c r="G342" s="11"/>
+      <c r="I342" s="11"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="8"/>
-      <c r="G343" s="9"/>
-      <c r="I343" s="9"/>
+      <c r="A343" s="10"/>
+      <c r="G343" s="11"/>
+      <c r="I343" s="11"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="8"/>
-      <c r="G344" s="9"/>
-      <c r="I344" s="9"/>
+      <c r="A344" s="10"/>
+      <c r="G344" s="11"/>
+      <c r="I344" s="11"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="8"/>
-      <c r="G345" s="9"/>
-      <c r="I345" s="9"/>
+      <c r="A345" s="10"/>
+      <c r="G345" s="11"/>
+      <c r="I345" s="11"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="8"/>
-      <c r="G346" s="9"/>
-      <c r="I346" s="9"/>
+      <c r="A346" s="10"/>
+      <c r="G346" s="11"/>
+      <c r="I346" s="11"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="8"/>
-      <c r="G347" s="9"/>
-      <c r="I347" s="9"/>
+      <c r="A347" s="10"/>
+      <c r="G347" s="11"/>
+      <c r="I347" s="11"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="8"/>
-      <c r="G348" s="9"/>
-      <c r="I348" s="9"/>
+      <c r="A348" s="10"/>
+      <c r="G348" s="11"/>
+      <c r="I348" s="11"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="8"/>
-      <c r="G349" s="9"/>
-      <c r="I349" s="9"/>
+      <c r="A349" s="10"/>
+      <c r="G349" s="11"/>
+      <c r="I349" s="11"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="8"/>
-      <c r="G350" s="9"/>
-      <c r="I350" s="9"/>
+      <c r="A350" s="10"/>
+      <c r="G350" s="11"/>
+      <c r="I350" s="11"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="8"/>
-      <c r="G351" s="9"/>
-      <c r="I351" s="9"/>
+      <c r="A351" s="10"/>
+      <c r="G351" s="11"/>
+      <c r="I351" s="11"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="8"/>
-      <c r="G352" s="9"/>
-      <c r="I352" s="9"/>
+      <c r="A352" s="10"/>
+      <c r="G352" s="11"/>
+      <c r="I352" s="11"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="8"/>
-      <c r="G353" s="9"/>
-      <c r="I353" s="9"/>
+      <c r="A353" s="10"/>
+      <c r="G353" s="11"/>
+      <c r="I353" s="11"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="8"/>
-      <c r="G354" s="9"/>
-      <c r="I354" s="9"/>
+      <c r="A354" s="10"/>
+      <c r="G354" s="11"/>
+      <c r="I354" s="11"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="8"/>
-      <c r="G355" s="9"/>
-      <c r="I355" s="9"/>
+      <c r="A355" s="10"/>
+      <c r="G355" s="11"/>
+      <c r="I355" s="11"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="8"/>
-      <c r="G356" s="9"/>
-      <c r="I356" s="9"/>
+      <c r="A356" s="10"/>
+      <c r="G356" s="11"/>
+      <c r="I356" s="11"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="8"/>
-      <c r="G357" s="9"/>
-      <c r="I357" s="9"/>
+      <c r="A357" s="10"/>
+      <c r="G357" s="11"/>
+      <c r="I357" s="11"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="8"/>
-      <c r="G358" s="9"/>
-      <c r="I358" s="9"/>
+      <c r="A358" s="10"/>
+      <c r="G358" s="11"/>
+      <c r="I358" s="11"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="8"/>
-      <c r="G359" s="9"/>
-      <c r="I359" s="9"/>
+      <c r="A359" s="10"/>
+      <c r="G359" s="11"/>
+      <c r="I359" s="11"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="8"/>
-      <c r="G360" s="9"/>
-      <c r="I360" s="9"/>
+      <c r="A360" s="10"/>
+      <c r="G360" s="11"/>
+      <c r="I360" s="11"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="8"/>
-      <c r="G361" s="9"/>
-      <c r="I361" s="9"/>
+      <c r="A361" s="10"/>
+      <c r="G361" s="11"/>
+      <c r="I361" s="11"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="8"/>
-      <c r="G362" s="9"/>
-      <c r="I362" s="9"/>
+      <c r="A362" s="10"/>
+      <c r="G362" s="11"/>
+      <c r="I362" s="11"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="8"/>
-      <c r="G363" s="9"/>
-      <c r="I363" s="9"/>
+      <c r="A363" s="10"/>
+      <c r="G363" s="11"/>
+      <c r="I363" s="11"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="8"/>
-      <c r="G364" s="9"/>
-      <c r="I364" s="9"/>
+      <c r="A364" s="10"/>
+      <c r="G364" s="11"/>
+      <c r="I364" s="11"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="8"/>
-      <c r="G365" s="9"/>
-      <c r="I365" s="9"/>
+      <c r="A365" s="10"/>
+      <c r="G365" s="11"/>
+      <c r="I365" s="11"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="8"/>
-      <c r="G366" s="9"/>
-      <c r="I366" s="9"/>
+      <c r="A366" s="10"/>
+      <c r="G366" s="11"/>
+      <c r="I366" s="11"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="8"/>
-      <c r="G367" s="9"/>
-      <c r="I367" s="9"/>
+      <c r="A367" s="10"/>
+      <c r="G367" s="11"/>
+      <c r="I367" s="11"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="8"/>
-      <c r="G368" s="9"/>
-      <c r="I368" s="9"/>
+      <c r="A368" s="10"/>
+      <c r="G368" s="11"/>
+      <c r="I368" s="11"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="8"/>
-      <c r="G369" s="9"/>
-      <c r="I369" s="9"/>
+      <c r="A369" s="10"/>
+      <c r="G369" s="11"/>
+      <c r="I369" s="11"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="8"/>
-      <c r="G370" s="9"/>
-      <c r="I370" s="9"/>
+      <c r="A370" s="10"/>
+      <c r="G370" s="11"/>
+      <c r="I370" s="11"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="8"/>
-      <c r="G371" s="9"/>
-      <c r="I371" s="9"/>
+      <c r="A371" s="10"/>
+      <c r="G371" s="11"/>
+      <c r="I371" s="11"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="8"/>
-      <c r="G372" s="9"/>
-      <c r="I372" s="9"/>
+      <c r="A372" s="10"/>
+      <c r="G372" s="11"/>
+      <c r="I372" s="11"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="8"/>
-      <c r="G373" s="9"/>
-      <c r="I373" s="9"/>
+      <c r="A373" s="10"/>
+      <c r="G373" s="11"/>
+      <c r="I373" s="11"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="8"/>
-      <c r="G374" s="9"/>
-      <c r="I374" s="9"/>
+      <c r="A374" s="10"/>
+      <c r="G374" s="11"/>
+      <c r="I374" s="11"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="8"/>
-      <c r="G375" s="9"/>
-      <c r="I375" s="9"/>
+      <c r="A375" s="10"/>
+      <c r="G375" s="11"/>
+      <c r="I375" s="11"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="8"/>
-      <c r="G376" s="9"/>
-      <c r="I376" s="9"/>
+      <c r="A376" s="10"/>
+      <c r="G376" s="11"/>
+      <c r="I376" s="11"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="8"/>
-      <c r="G377" s="9"/>
-      <c r="I377" s="9"/>
+      <c r="A377" s="10"/>
+      <c r="G377" s="11"/>
+      <c r="I377" s="11"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="8"/>
-      <c r="G378" s="9"/>
-      <c r="I378" s="9"/>
+      <c r="A378" s="10"/>
+      <c r="G378" s="11"/>
+      <c r="I378" s="11"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="8"/>
-      <c r="G379" s="9"/>
-      <c r="I379" s="9"/>
+      <c r="A379" s="10"/>
+      <c r="G379" s="11"/>
+      <c r="I379" s="11"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="8"/>
-      <c r="G380" s="9"/>
-      <c r="I380" s="9"/>
+      <c r="A380" s="10"/>
+      <c r="G380" s="11"/>
+      <c r="I380" s="11"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="8"/>
-      <c r="G381" s="9"/>
-      <c r="I381" s="9"/>
+      <c r="A381" s="10"/>
+      <c r="G381" s="11"/>
+      <c r="I381" s="11"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="8"/>
-      <c r="G382" s="9"/>
-      <c r="I382" s="9"/>
+      <c r="A382" s="10"/>
+      <c r="G382" s="11"/>
+      <c r="I382" s="11"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="8"/>
-      <c r="G383" s="9"/>
-      <c r="I383" s="9"/>
+      <c r="A383" s="10"/>
+      <c r="G383" s="11"/>
+      <c r="I383" s="11"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="8"/>
-      <c r="G384" s="9"/>
-      <c r="I384" s="9"/>
+      <c r="A384" s="10"/>
+      <c r="G384" s="11"/>
+      <c r="I384" s="11"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="8"/>
-      <c r="G385" s="9"/>
-      <c r="I385" s="9"/>
+      <c r="A385" s="10"/>
+      <c r="G385" s="11"/>
+      <c r="I385" s="11"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="8"/>
-      <c r="G386" s="9"/>
-      <c r="I386" s="9"/>
+      <c r="A386" s="10"/>
+      <c r="G386" s="11"/>
+      <c r="I386" s="11"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="8"/>
-      <c r="G387" s="9"/>
-      <c r="I387" s="9"/>
+      <c r="A387" s="10"/>
+      <c r="G387" s="11"/>
+      <c r="I387" s="11"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="8"/>
-      <c r="G388" s="9"/>
-      <c r="I388" s="9"/>
+      <c r="A388" s="10"/>
+      <c r="G388" s="11"/>
+      <c r="I388" s="11"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="8"/>
-      <c r="G389" s="9"/>
-      <c r="I389" s="9"/>
+      <c r="A389" s="10"/>
+      <c r="G389" s="11"/>
+      <c r="I389" s="11"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="8"/>
-      <c r="G390" s="9"/>
-      <c r="I390" s="9"/>
+      <c r="A390" s="10"/>
+      <c r="G390" s="11"/>
+      <c r="I390" s="11"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="8"/>
-      <c r="G391" s="9"/>
-      <c r="I391" s="9"/>
+      <c r="A391" s="10"/>
+      <c r="G391" s="11"/>
+      <c r="I391" s="11"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="8"/>
-      <c r="G392" s="9"/>
-      <c r="I392" s="9"/>
+      <c r="A392" s="10"/>
+      <c r="G392" s="11"/>
+      <c r="I392" s="11"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="8"/>
-      <c r="G393" s="9"/>
-      <c r="I393" s="9"/>
+      <c r="A393" s="10"/>
+      <c r="G393" s="11"/>
+      <c r="I393" s="11"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="8"/>
-      <c r="G394" s="9"/>
-      <c r="I394" s="9"/>
+      <c r="A394" s="10"/>
+      <c r="G394" s="11"/>
+      <c r="I394" s="11"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="8"/>
-      <c r="G395" s="9"/>
-      <c r="I395" s="9"/>
+      <c r="A395" s="10"/>
+      <c r="G395" s="11"/>
+      <c r="I395" s="11"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="8"/>
-      <c r="G396" s="9"/>
-      <c r="I396" s="9"/>
+      <c r="A396" s="10"/>
+      <c r="G396" s="11"/>
+      <c r="I396" s="11"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="8"/>
-      <c r="G397" s="9"/>
-      <c r="I397" s="9"/>
+      <c r="A397" s="10"/>
+      <c r="G397" s="11"/>
+      <c r="I397" s="11"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="8"/>
-      <c r="G398" s="9"/>
-      <c r="I398" s="9"/>
+      <c r="A398" s="10"/>
+      <c r="G398" s="11"/>
+      <c r="I398" s="11"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="8"/>
-      <c r="G399" s="9"/>
-      <c r="I399" s="9"/>
+      <c r="A399" s="10"/>
+      <c r="G399" s="11"/>
+      <c r="I399" s="11"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="8"/>
-      <c r="G400" s="9"/>
-      <c r="I400" s="9"/>
+      <c r="A400" s="10"/>
+      <c r="G400" s="11"/>
+      <c r="I400" s="11"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="8"/>
-      <c r="G401" s="9"/>
-      <c r="I401" s="9"/>
+      <c r="A401" s="10"/>
+      <c r="G401" s="11"/>
+      <c r="I401" s="11"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="8"/>
-      <c r="G402" s="9"/>
-      <c r="I402" s="9"/>
+      <c r="A402" s="10"/>
+      <c r="G402" s="11"/>
+      <c r="I402" s="11"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="8"/>
-      <c r="G403" s="9"/>
-      <c r="I403" s="9"/>
+      <c r="A403" s="10"/>
+      <c r="G403" s="11"/>
+      <c r="I403" s="11"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="8"/>
-      <c r="G404" s="9"/>
-      <c r="I404" s="9"/>
+      <c r="A404" s="10"/>
+      <c r="G404" s="11"/>
+      <c r="I404" s="11"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="8"/>
-      <c r="G405" s="9"/>
-      <c r="I405" s="9"/>
+      <c r="A405" s="10"/>
+      <c r="G405" s="11"/>
+      <c r="I405" s="11"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="8"/>
-      <c r="G406" s="9"/>
-      <c r="I406" s="9"/>
+      <c r="A406" s="10"/>
+      <c r="G406" s="11"/>
+      <c r="I406" s="11"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="8"/>
-      <c r="G407" s="9"/>
-      <c r="I407" s="9"/>
+      <c r="A407" s="10"/>
+      <c r="G407" s="11"/>
+      <c r="I407" s="11"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="8"/>
-      <c r="G408" s="9"/>
-      <c r="I408" s="9"/>
+      <c r="A408" s="10"/>
+      <c r="G408" s="11"/>
+      <c r="I408" s="11"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="8"/>
-      <c r="G409" s="9"/>
-      <c r="I409" s="9"/>
+      <c r="A409" s="10"/>
+      <c r="G409" s="11"/>
+      <c r="I409" s="11"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="8"/>
-      <c r="G410" s="9"/>
-      <c r="I410" s="9"/>
+      <c r="A410" s="10"/>
+      <c r="G410" s="11"/>
+      <c r="I410" s="11"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="8"/>
-      <c r="G411" s="9"/>
-      <c r="I411" s="9"/>
+      <c r="A411" s="10"/>
+      <c r="G411" s="11"/>
+      <c r="I411" s="11"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="8"/>
-      <c r="G412" s="9"/>
-      <c r="I412" s="9"/>
+      <c r="A412" s="10"/>
+      <c r="G412" s="11"/>
+      <c r="I412" s="11"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="8"/>
-      <c r="G413" s="9"/>
-      <c r="I413" s="9"/>
+      <c r="A413" s="10"/>
+      <c r="G413" s="11"/>
+      <c r="I413" s="11"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="8"/>
-      <c r="G414" s="9"/>
-      <c r="I414" s="9"/>
+      <c r="A414" s="10"/>
+      <c r="G414" s="11"/>
+      <c r="I414" s="11"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="8"/>
-      <c r="G415" s="9"/>
-      <c r="I415" s="9"/>
+      <c r="A415" s="10"/>
+      <c r="G415" s="11"/>
+      <c r="I415" s="11"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="8"/>
-      <c r="G416" s="9"/>
-      <c r="I416" s="9"/>
+      <c r="A416" s="10"/>
+      <c r="G416" s="11"/>
+      <c r="I416" s="11"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="8"/>
-      <c r="G417" s="9"/>
-      <c r="I417" s="9"/>
+      <c r="A417" s="10"/>
+      <c r="G417" s="11"/>
+      <c r="I417" s="11"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="8"/>
-      <c r="G418" s="9"/>
-      <c r="I418" s="9"/>
+      <c r="A418" s="10"/>
+      <c r="G418" s="11"/>
+      <c r="I418" s="11"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="8"/>
-      <c r="G419" s="9"/>
-      <c r="I419" s="9"/>
+      <c r="A419" s="10"/>
+      <c r="G419" s="11"/>
+      <c r="I419" s="11"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="8"/>
-      <c r="G420" s="9"/>
-      <c r="I420" s="9"/>
+      <c r="A420" s="10"/>
+      <c r="G420" s="11"/>
+      <c r="I420" s="11"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="8"/>
-      <c r="G421" s="9"/>
-      <c r="I421" s="9"/>
+      <c r="A421" s="10"/>
+      <c r="G421" s="11"/>
+      <c r="I421" s="11"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="8"/>
-      <c r="G422" s="9"/>
-      <c r="I422" s="9"/>
+      <c r="A422" s="10"/>
+      <c r="G422" s="11"/>
+      <c r="I422" s="11"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="8"/>
-      <c r="G423" s="9"/>
-      <c r="I423" s="9"/>
+      <c r="A423" s="10"/>
+      <c r="G423" s="11"/>
+      <c r="I423" s="11"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="8"/>
-      <c r="G424" s="9"/>
-      <c r="I424" s="9"/>
+      <c r="A424" s="10"/>
+      <c r="G424" s="11"/>
+      <c r="I424" s="11"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="8"/>
-      <c r="G425" s="9"/>
-      <c r="I425" s="9"/>
+      <c r="A425" s="10"/>
+      <c r="G425" s="11"/>
+      <c r="I425" s="11"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="8"/>
-      <c r="G426" s="9"/>
-      <c r="I426" s="9"/>
+      <c r="A426" s="10"/>
+      <c r="G426" s="11"/>
+      <c r="I426" s="11"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="8"/>
-      <c r="G427" s="9"/>
-      <c r="I427" s="9"/>
+      <c r="A427" s="10"/>
+      <c r="G427" s="11"/>
+      <c r="I427" s="11"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="8"/>
-      <c r="G428" s="9"/>
-      <c r="I428" s="9"/>
+      <c r="A428" s="10"/>
+      <c r="G428" s="11"/>
+      <c r="I428" s="11"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="8"/>
-      <c r="G429" s="9"/>
-      <c r="I429" s="9"/>
+      <c r="A429" s="10"/>
+      <c r="G429" s="11"/>
+      <c r="I429" s="11"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="8"/>
-      <c r="G430" s="9"/>
-      <c r="I430" s="9"/>
+      <c r="A430" s="10"/>
+      <c r="G430" s="11"/>
+      <c r="I430" s="11"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="8"/>
-      <c r="G431" s="9"/>
-      <c r="I431" s="9"/>
+      <c r="A431" s="10"/>
+      <c r="G431" s="11"/>
+      <c r="I431" s="11"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="8"/>
-      <c r="G432" s="9"/>
-      <c r="I432" s="9"/>
+      <c r="A432" s="10"/>
+      <c r="G432" s="11"/>
+      <c r="I432" s="11"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="8"/>
-      <c r="G433" s="9"/>
-      <c r="I433" s="9"/>
+      <c r="A433" s="10"/>
+      <c r="G433" s="11"/>
+      <c r="I433" s="11"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="8"/>
-      <c r="G434" s="9"/>
-      <c r="I434" s="9"/>
+      <c r="A434" s="10"/>
+      <c r="G434" s="11"/>
+      <c r="I434" s="11"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="8"/>
-      <c r="G435" s="9"/>
-      <c r="I435" s="9"/>
+      <c r="A435" s="10"/>
+      <c r="G435" s="11"/>
+      <c r="I435" s="11"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="8"/>
-      <c r="G436" s="9"/>
-      <c r="I436" s="9"/>
+      <c r="A436" s="10"/>
+      <c r="G436" s="11"/>
+      <c r="I436" s="11"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="8"/>
-      <c r="G437" s="9"/>
-      <c r="I437" s="9"/>
+      <c r="A437" s="10"/>
+      <c r="G437" s="11"/>
+      <c r="I437" s="11"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="8"/>
-      <c r="G438" s="9"/>
-      <c r="I438" s="9"/>
+      <c r="A438" s="10"/>
+      <c r="G438" s="11"/>
+      <c r="I438" s="11"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="8"/>
-      <c r="G439" s="9"/>
-      <c r="I439" s="9"/>
+      <c r="A439" s="10"/>
+      <c r="G439" s="11"/>
+      <c r="I439" s="11"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="8"/>
-      <c r="G440" s="9"/>
-      <c r="I440" s="9"/>
+      <c r="A440" s="10"/>
+      <c r="G440" s="11"/>
+      <c r="I440" s="11"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="8"/>
-      <c r="G441" s="9"/>
-      <c r="I441" s="9"/>
+      <c r="A441" s="10"/>
+      <c r="G441" s="11"/>
+      <c r="I441" s="11"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="8"/>
-      <c r="G442" s="9"/>
-      <c r="I442" s="9"/>
+      <c r="A442" s="10"/>
+      <c r="G442" s="11"/>
+      <c r="I442" s="11"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="8"/>
-      <c r="G443" s="9"/>
-      <c r="I443" s="9"/>
+      <c r="A443" s="10"/>
+      <c r="G443" s="11"/>
+      <c r="I443" s="11"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="8"/>
-      <c r="G444" s="9"/>
-      <c r="I444" s="9"/>
+      <c r="A444" s="10"/>
+      <c r="G444" s="11"/>
+      <c r="I444" s="11"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="8"/>
-      <c r="G445" s="9"/>
-      <c r="I445" s="9"/>
+      <c r="A445" s="10"/>
+      <c r="G445" s="11"/>
+      <c r="I445" s="11"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="8"/>
-      <c r="G446" s="9"/>
-      <c r="I446" s="9"/>
+      <c r="A446" s="10"/>
+      <c r="G446" s="11"/>
+      <c r="I446" s="11"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="8"/>
-      <c r="G447" s="9"/>
-      <c r="I447" s="9"/>
+      <c r="A447" s="10"/>
+      <c r="G447" s="11"/>
+      <c r="I447" s="11"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="8"/>
-      <c r="G448" s="9"/>
-      <c r="I448" s="9"/>
+      <c r="A448" s="10"/>
+      <c r="G448" s="11"/>
+      <c r="I448" s="11"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="8"/>
-      <c r="G449" s="9"/>
-      <c r="I449" s="9"/>
+      <c r="A449" s="10"/>
+      <c r="G449" s="11"/>
+      <c r="I449" s="11"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="8"/>
-      <c r="G450" s="9"/>
-      <c r="I450" s="9"/>
+      <c r="A450" s="10"/>
+      <c r="G450" s="11"/>
+      <c r="I450" s="11"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="8"/>
-      <c r="G451" s="9"/>
-      <c r="I451" s="9"/>
+      <c r="A451" s="10"/>
+      <c r="G451" s="11"/>
+      <c r="I451" s="11"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="8"/>
-      <c r="G452" s="9"/>
-      <c r="I452" s="9"/>
+      <c r="A452" s="10"/>
+      <c r="G452" s="11"/>
+      <c r="I452" s="11"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="8"/>
-      <c r="G453" s="9"/>
-      <c r="I453" s="9"/>
+      <c r="A453" s="10"/>
+      <c r="G453" s="11"/>
+      <c r="I453" s="11"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="8"/>
-      <c r="G454" s="9"/>
-      <c r="I454" s="9"/>
+      <c r="A454" s="10"/>
+      <c r="G454" s="11"/>
+      <c r="I454" s="11"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="8"/>
-      <c r="G455" s="9"/>
-      <c r="I455" s="9"/>
+      <c r="A455" s="10"/>
+      <c r="G455" s="11"/>
+      <c r="I455" s="11"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="8"/>
-      <c r="G456" s="9"/>
-      <c r="I456" s="9"/>
+      <c r="A456" s="10"/>
+      <c r="G456" s="11"/>
+      <c r="I456" s="11"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="8"/>
-      <c r="G457" s="9"/>
-      <c r="I457" s="9"/>
+      <c r="A457" s="10"/>
+      <c r="G457" s="11"/>
+      <c r="I457" s="11"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="8"/>
-      <c r="G458" s="9"/>
-      <c r="I458" s="9"/>
+      <c r="A458" s="10"/>
+      <c r="G458" s="11"/>
+      <c r="I458" s="11"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="8"/>
-      <c r="G459" s="9"/>
-      <c r="I459" s="9"/>
+      <c r="A459" s="10"/>
+      <c r="G459" s="11"/>
+      <c r="I459" s="11"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="8"/>
-      <c r="G460" s="9"/>
-      <c r="I460" s="9"/>
+      <c r="A460" s="10"/>
+      <c r="G460" s="11"/>
+      <c r="I460" s="11"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="8"/>
-      <c r="G461" s="9"/>
-      <c r="I461" s="9"/>
+      <c r="A461" s="10"/>
+      <c r="G461" s="11"/>
+      <c r="I461" s="11"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="8"/>
-      <c r="G462" s="9"/>
-      <c r="I462" s="9"/>
+      <c r="A462" s="10"/>
+      <c r="G462" s="11"/>
+      <c r="I462" s="11"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="8"/>
-      <c r="G463" s="9"/>
-      <c r="I463" s="9"/>
+      <c r="A463" s="10"/>
+      <c r="G463" s="11"/>
+      <c r="I463" s="11"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="8"/>
-      <c r="G464" s="9"/>
-      <c r="I464" s="9"/>
+      <c r="A464" s="10"/>
+      <c r="G464" s="11"/>
+      <c r="I464" s="11"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="8"/>
-      <c r="G465" s="9"/>
-      <c r="I465" s="9"/>
+      <c r="A465" s="10"/>
+      <c r="G465" s="11"/>
+      <c r="I465" s="11"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="8"/>
-      <c r="G466" s="9"/>
-      <c r="I466" s="9"/>
+      <c r="A466" s="10"/>
+      <c r="G466" s="11"/>
+      <c r="I466" s="11"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="8"/>
-      <c r="G467" s="9"/>
-      <c r="I467" s="9"/>
+      <c r="A467" s="10"/>
+      <c r="G467" s="11"/>
+      <c r="I467" s="11"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="8"/>
-      <c r="G468" s="9"/>
-      <c r="I468" s="9"/>
+      <c r="A468" s="10"/>
+      <c r="G468" s="11"/>
+      <c r="I468" s="11"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="8"/>
-      <c r="G469" s="9"/>
-      <c r="I469" s="9"/>
+      <c r="A469" s="10"/>
+      <c r="G469" s="11"/>
+      <c r="I469" s="11"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="8"/>
-      <c r="G470" s="9"/>
-      <c r="I470" s="9"/>
+      <c r="A470" s="10"/>
+      <c r="G470" s="11"/>
+      <c r="I470" s="11"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="8"/>
-      <c r="G471" s="9"/>
-      <c r="I471" s="9"/>
+      <c r="A471" s="10"/>
+      <c r="G471" s="11"/>
+      <c r="I471" s="11"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="8"/>
-      <c r="G472" s="9"/>
-      <c r="I472" s="9"/>
+      <c r="A472" s="10"/>
+      <c r="G472" s="11"/>
+      <c r="I472" s="11"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="8"/>
-      <c r="G473" s="9"/>
-      <c r="I473" s="9"/>
+      <c r="A473" s="10"/>
+      <c r="G473" s="11"/>
+      <c r="I473" s="11"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="8"/>
-      <c r="G474" s="9"/>
-      <c r="I474" s="9"/>
+      <c r="A474" s="10"/>
+      <c r="G474" s="11"/>
+      <c r="I474" s="11"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="8"/>
-      <c r="G475" s="9"/>
-      <c r="I475" s="9"/>
+      <c r="A475" s="10"/>
+      <c r="G475" s="11"/>
+      <c r="I475" s="11"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="8"/>
-      <c r="G476" s="9"/>
-      <c r="I476" s="9"/>
+      <c r="A476" s="10"/>
+      <c r="G476" s="11"/>
+      <c r="I476" s="11"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="8"/>
-      <c r="G477" s="9"/>
-      <c r="I477" s="9"/>
+      <c r="A477" s="10"/>
+      <c r="G477" s="11"/>
+      <c r="I477" s="11"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="8"/>
-      <c r="G478" s="9"/>
-      <c r="I478" s="9"/>
+      <c r="A478" s="10"/>
+      <c r="G478" s="11"/>
+      <c r="I478" s="11"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="8"/>
-      <c r="G479" s="9"/>
-      <c r="I479" s="9"/>
+      <c r="A479" s="10"/>
+      <c r="G479" s="11"/>
+      <c r="I479" s="11"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="8"/>
-      <c r="G480" s="9"/>
-      <c r="I480" s="9"/>
+      <c r="A480" s="10"/>
+      <c r="G480" s="11"/>
+      <c r="I480" s="11"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="8"/>
-      <c r="G481" s="9"/>
-      <c r="I481" s="9"/>
+      <c r="A481" s="10"/>
+      <c r="G481" s="11"/>
+      <c r="I481" s="11"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="8"/>
-      <c r="G482" s="9"/>
-      <c r="I482" s="9"/>
+      <c r="A482" s="10"/>
+      <c r="G482" s="11"/>
+      <c r="I482" s="11"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="8"/>
-      <c r="G483" s="9"/>
-      <c r="I483" s="9"/>
+      <c r="A483" s="10"/>
+      <c r="G483" s="11"/>
+      <c r="I483" s="11"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="8"/>
-      <c r="G484" s="9"/>
-      <c r="I484" s="9"/>
+      <c r="A484" s="10"/>
+      <c r="G484" s="11"/>
+      <c r="I484" s="11"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="8"/>
-      <c r="G485" s="9"/>
-      <c r="I485" s="9"/>
+      <c r="A485" s="10"/>
+      <c r="G485" s="11"/>
+      <c r="I485" s="11"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="8"/>
-      <c r="G486" s="9"/>
-      <c r="I486" s="9"/>
+      <c r="A486" s="10"/>
+      <c r="G486" s="11"/>
+      <c r="I486" s="11"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="8"/>
-      <c r="G487" s="9"/>
-      <c r="I487" s="9"/>
+      <c r="A487" s="10"/>
+      <c r="G487" s="11"/>
+      <c r="I487" s="11"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="8"/>
-      <c r="G488" s="9"/>
-      <c r="I488" s="9"/>
+      <c r="A488" s="10"/>
+      <c r="G488" s="11"/>
+      <c r="I488" s="11"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="8"/>
-      <c r="G489" s="9"/>
-      <c r="I489" s="9"/>
+      <c r="A489" s="10"/>
+      <c r="G489" s="11"/>
+      <c r="I489" s="11"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="8"/>
-      <c r="G490" s="9"/>
-      <c r="I490" s="9"/>
+      <c r="A490" s="10"/>
+      <c r="G490" s="11"/>
+      <c r="I490" s="11"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="8"/>
-      <c r="G491" s="9"/>
-      <c r="I491" s="9"/>
+      <c r="A491" s="10"/>
+      <c r="G491" s="11"/>
+      <c r="I491" s="11"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="8"/>
-      <c r="G492" s="9"/>
-      <c r="I492" s="9"/>
+      <c r="A492" s="10"/>
+      <c r="G492" s="11"/>
+      <c r="I492" s="11"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="8"/>
-      <c r="G493" s="9"/>
-      <c r="I493" s="9"/>
+      <c r="A493" s="10"/>
+      <c r="G493" s="11"/>
+      <c r="I493" s="11"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="8"/>
-      <c r="G494" s="9"/>
-      <c r="I494" s="9"/>
+      <c r="A494" s="10"/>
+      <c r="G494" s="11"/>
+      <c r="I494" s="11"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="8"/>
-      <c r="G495" s="9"/>
-      <c r="I495" s="9"/>
+      <c r="A495" s="10"/>
+      <c r="G495" s="11"/>
+      <c r="I495" s="11"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="8"/>
-      <c r="G496" s="9"/>
-      <c r="I496" s="9"/>
+      <c r="A496" s="10"/>
+      <c r="G496" s="11"/>
+      <c r="I496" s="11"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="8"/>
-      <c r="G497" s="9"/>
-      <c r="I497" s="9"/>
+      <c r="A497" s="10"/>
+      <c r="G497" s="11"/>
+      <c r="I497" s="11"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="8"/>
-      <c r="G498" s="9"/>
-      <c r="I498" s="9"/>
+      <c r="A498" s="10"/>
+      <c r="G498" s="11"/>
+      <c r="I498" s="11"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="8"/>
-      <c r="G499" s="9"/>
-      <c r="I499" s="9"/>
+      <c r="A499" s="10"/>
+      <c r="G499" s="11"/>
+      <c r="I499" s="11"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="8"/>
-      <c r="G500" s="9"/>
-      <c r="I500" s="9"/>
+      <c r="A500" s="10"/>
+      <c r="G500" s="11"/>
+      <c r="I500" s="11"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="8"/>
-      <c r="G501" s="9"/>
-      <c r="I501" s="9"/>
+      <c r="A501" s="10"/>
+      <c r="G501" s="11"/>
+      <c r="I501" s="11"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="8"/>
-      <c r="G502" s="9"/>
-      <c r="I502" s="9"/>
+      <c r="A502" s="10"/>
+      <c r="G502" s="11"/>
+      <c r="I502" s="11"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="8"/>
-      <c r="G503" s="9"/>
-      <c r="I503" s="9"/>
+      <c r="A503" s="10"/>
+      <c r="G503" s="11"/>
+      <c r="I503" s="11"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="8"/>
-      <c r="G504" s="9"/>
-      <c r="I504" s="9"/>
+      <c r="A504" s="10"/>
+      <c r="G504" s="11"/>
+      <c r="I504" s="11"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="8"/>
-      <c r="G505" s="9"/>
-      <c r="I505" s="9"/>
+      <c r="A505" s="10"/>
+      <c r="G505" s="11"/>
+      <c r="I505" s="11"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="8"/>
-      <c r="G506" s="9"/>
-      <c r="I506" s="9"/>
+      <c r="A506" s="10"/>
+      <c r="G506" s="11"/>
+      <c r="I506" s="11"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="8"/>
-      <c r="G507" s="9"/>
-      <c r="I507" s="9"/>
+      <c r="A507" s="10"/>
+      <c r="G507" s="11"/>
+      <c r="I507" s="11"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="8"/>
-      <c r="G508" s="9"/>
-      <c r="I508" s="9"/>
+      <c r="A508" s="10"/>
+      <c r="G508" s="11"/>
+      <c r="I508" s="11"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="8"/>
-      <c r="G509" s="9"/>
-      <c r="I509" s="9"/>
+      <c r="A509" s="10"/>
+      <c r="G509" s="11"/>
+      <c r="I509" s="11"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="8"/>
-      <c r="G510" s="9"/>
-      <c r="I510" s="9"/>
+      <c r="A510" s="10"/>
+      <c r="G510" s="11"/>
+      <c r="I510" s="11"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="8"/>
-      <c r="G511" s="9"/>
-      <c r="I511" s="9"/>
+      <c r="A511" s="10"/>
+      <c r="G511" s="11"/>
+      <c r="I511" s="11"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="8"/>
-      <c r="G512" s="9"/>
-      <c r="I512" s="9"/>
+      <c r="A512" s="10"/>
+      <c r="G512" s="11"/>
+      <c r="I512" s="11"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="8"/>
-      <c r="G513" s="9"/>
-      <c r="I513" s="9"/>
+      <c r="A513" s="10"/>
+      <c r="G513" s="11"/>
+      <c r="I513" s="11"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="8"/>
-      <c r="G514" s="9"/>
-      <c r="I514" s="9"/>
+      <c r="A514" s="10"/>
+      <c r="G514" s="11"/>
+      <c r="I514" s="11"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="8"/>
-      <c r="G515" s="9"/>
-      <c r="I515" s="9"/>
+      <c r="A515" s="10"/>
+      <c r="G515" s="11"/>
+      <c r="I515" s="11"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="8"/>
-      <c r="G516" s="9"/>
-      <c r="I516" s="9"/>
+      <c r="A516" s="10"/>
+      <c r="G516" s="11"/>
+      <c r="I516" s="11"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="8"/>
-      <c r="G517" s="9"/>
-      <c r="I517" s="9"/>
+      <c r="A517" s="10"/>
+      <c r="G517" s="11"/>
+      <c r="I517" s="11"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="8"/>
-      <c r="G518" s="9"/>
-      <c r="I518" s="9"/>
+      <c r="A518" s="10"/>
+      <c r="G518" s="11"/>
+      <c r="I518" s="11"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="8"/>
-      <c r="G519" s="9"/>
-      <c r="I519" s="9"/>
+      <c r="A519" s="10"/>
+      <c r="G519" s="11"/>
+      <c r="I519" s="11"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="8"/>
-      <c r="G520" s="9"/>
-      <c r="I520" s="9"/>
+      <c r="A520" s="10"/>
+      <c r="G520" s="11"/>
+      <c r="I520" s="11"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="8"/>
-      <c r="G521" s="9"/>
-      <c r="I521" s="9"/>
+      <c r="A521" s="10"/>
+      <c r="G521" s="11"/>
+      <c r="I521" s="11"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="8"/>
-      <c r="G522" s="9"/>
-      <c r="I522" s="9"/>
+      <c r="A522" s="10"/>
+      <c r="G522" s="11"/>
+      <c r="I522" s="11"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="8"/>
-      <c r="G523" s="9"/>
-      <c r="I523" s="9"/>
+      <c r="A523" s="10"/>
+      <c r="G523" s="11"/>
+      <c r="I523" s="11"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="8"/>
-      <c r="G524" s="9"/>
-      <c r="I524" s="9"/>
+      <c r="A524" s="10"/>
+      <c r="G524" s="11"/>
+      <c r="I524" s="11"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="8"/>
-      <c r="G525" s="9"/>
-      <c r="I525" s="9"/>
+      <c r="A525" s="10"/>
+      <c r="G525" s="11"/>
+      <c r="I525" s="11"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="8"/>
-      <c r="G526" s="9"/>
-      <c r="I526" s="9"/>
+      <c r="A526" s="10"/>
+      <c r="G526" s="11"/>
+      <c r="I526" s="11"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="8"/>
-      <c r="G527" s="9"/>
-      <c r="I527" s="9"/>
+      <c r="A527" s="10"/>
+      <c r="G527" s="11"/>
+      <c r="I527" s="11"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="8"/>
-      <c r="G528" s="9"/>
-      <c r="I528" s="9"/>
+      <c r="A528" s="10"/>
+      <c r="G528" s="11"/>
+      <c r="I528" s="11"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="8"/>
-      <c r="G529" s="9"/>
-      <c r="I529" s="9"/>
+      <c r="A529" s="10"/>
+      <c r="G529" s="11"/>
+      <c r="I529" s="11"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="8"/>
-      <c r="G530" s="9"/>
-      <c r="I530" s="9"/>
+      <c r="A530" s="10"/>
+      <c r="G530" s="11"/>
+      <c r="I530" s="11"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="8"/>
-      <c r="G531" s="9"/>
-      <c r="I531" s="9"/>
+      <c r="A531" s="10"/>
+      <c r="G531" s="11"/>
+      <c r="I531" s="11"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="8"/>
-      <c r="G532" s="9"/>
-      <c r="I532" s="9"/>
+      <c r="A532" s="10"/>
+      <c r="G532" s="11"/>
+      <c r="I532" s="11"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="8"/>
-      <c r="G533" s="9"/>
-      <c r="I533" s="9"/>
+      <c r="A533" s="10"/>
+      <c r="G533" s="11"/>
+      <c r="I533" s="11"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="8"/>
-      <c r="G534" s="9"/>
-      <c r="I534" s="9"/>
+      <c r="A534" s="10"/>
+      <c r="G534" s="11"/>
+      <c r="I534" s="11"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="8"/>
-      <c r="G535" s="9"/>
-      <c r="I535" s="9"/>
+      <c r="A535" s="10"/>
+      <c r="G535" s="11"/>
+      <c r="I535" s="11"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="8"/>
-      <c r="G536" s="9"/>
-      <c r="I536" s="9"/>
+      <c r="A536" s="10"/>
+      <c r="G536" s="11"/>
+      <c r="I536" s="11"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="8"/>
-      <c r="G537" s="9"/>
-      <c r="I537" s="9"/>
+      <c r="A537" s="10"/>
+      <c r="G537" s="11"/>
+      <c r="I537" s="11"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="8"/>
-      <c r="G538" s="9"/>
-      <c r="I538" s="9"/>
+      <c r="A538" s="10"/>
+      <c r="G538" s="11"/>
+      <c r="I538" s="11"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="8"/>
-      <c r="G539" s="9"/>
-      <c r="I539" s="9"/>
+      <c r="A539" s="10"/>
+      <c r="G539" s="11"/>
+      <c r="I539" s="11"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="8"/>
-      <c r="G540" s="9"/>
-      <c r="I540" s="9"/>
+      <c r="A540" s="10"/>
+      <c r="G540" s="11"/>
+      <c r="I540" s="11"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="8"/>
-      <c r="G541" s="9"/>
-      <c r="I541" s="9"/>
+      <c r="A541" s="10"/>
+      <c r="G541" s="11"/>
+      <c r="I541" s="11"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="8"/>
-      <c r="G542" s="9"/>
-      <c r="I542" s="9"/>
+      <c r="A542" s="10"/>
+      <c r="G542" s="11"/>
+      <c r="I542" s="11"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="8"/>
-      <c r="G543" s="9"/>
-      <c r="I543" s="9"/>
+      <c r="A543" s="10"/>
+      <c r="G543" s="11"/>
+      <c r="I543" s="11"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="8"/>
-      <c r="G544" s="9"/>
-      <c r="I544" s="9"/>
+      <c r="A544" s="10"/>
+      <c r="G544" s="11"/>
+      <c r="I544" s="11"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="8"/>
-      <c r="G545" s="9"/>
-      <c r="I545" s="9"/>
+      <c r="A545" s="10"/>
+      <c r="G545" s="11"/>
+      <c r="I545" s="11"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="8"/>
-      <c r="G546" s="9"/>
-      <c r="I546" s="9"/>
+      <c r="A546" s="10"/>
+      <c r="G546" s="11"/>
+      <c r="I546" s="11"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="8"/>
-      <c r="G547" s="9"/>
-      <c r="I547" s="9"/>
+      <c r="A547" s="10"/>
+      <c r="G547" s="11"/>
+      <c r="I547" s="11"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="8"/>
-      <c r="G548" s="9"/>
-      <c r="I548" s="9"/>
+      <c r="A548" s="10"/>
+      <c r="G548" s="11"/>
+      <c r="I548" s="11"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="8"/>
-      <c r="G549" s="9"/>
-      <c r="I549" s="9"/>
+      <c r="A549" s="10"/>
+      <c r="G549" s="11"/>
+      <c r="I549" s="11"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="8"/>
-      <c r="G550" s="9"/>
-      <c r="I550" s="9"/>
+      <c r="A550" s="10"/>
+      <c r="G550" s="11"/>
+      <c r="I550" s="11"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="8"/>
-      <c r="G551" s="9"/>
-      <c r="I551" s="9"/>
+      <c r="A551" s="10"/>
+      <c r="G551" s="11"/>
+      <c r="I551" s="11"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="8"/>
-      <c r="G552" s="9"/>
-      <c r="I552" s="9"/>
+      <c r="A552" s="10"/>
+      <c r="G552" s="11"/>
+      <c r="I552" s="11"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="8"/>
-      <c r="G553" s="9"/>
-      <c r="I553" s="9"/>
+      <c r="A553" s="10"/>
+      <c r="G553" s="11"/>
+      <c r="I553" s="11"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="8"/>
-      <c r="G554" s="9"/>
-      <c r="I554" s="9"/>
+      <c r="A554" s="10"/>
+      <c r="G554" s="11"/>
+      <c r="I554" s="11"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="8"/>
-      <c r="G555" s="9"/>
-      <c r="I555" s="9"/>
+      <c r="A555" s="10"/>
+      <c r="G555" s="11"/>
+      <c r="I555" s="11"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="8"/>
-      <c r="G556" s="9"/>
-      <c r="I556" s="9"/>
+      <c r="A556" s="10"/>
+      <c r="G556" s="11"/>
+      <c r="I556" s="11"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="8"/>
-      <c r="G557" s="9"/>
-      <c r="I557" s="9"/>
+      <c r="A557" s="10"/>
+      <c r="G557" s="11"/>
+      <c r="I557" s="11"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="8"/>
-      <c r="G558" s="9"/>
-      <c r="I558" s="9"/>
+      <c r="A558" s="10"/>
+      <c r="G558" s="11"/>
+      <c r="I558" s="11"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="8"/>
-      <c r="G559" s="9"/>
-      <c r="I559" s="9"/>
+      <c r="A559" s="10"/>
+      <c r="G559" s="11"/>
+      <c r="I559" s="11"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="8"/>
-      <c r="G560" s="9"/>
-      <c r="I560" s="9"/>
+      <c r="A560" s="10"/>
+      <c r="G560" s="11"/>
+      <c r="I560" s="11"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="8"/>
-      <c r="G561" s="9"/>
-      <c r="I561" s="9"/>
+      <c r="A561" s="10"/>
+      <c r="G561" s="11"/>
+      <c r="I561" s="11"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="8"/>
-      <c r="G562" s="9"/>
-      <c r="I562" s="9"/>
+      <c r="A562" s="10"/>
+      <c r="G562" s="11"/>
+      <c r="I562" s="11"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="8"/>
-      <c r="G563" s="9"/>
-      <c r="I563" s="9"/>
+      <c r="A563" s="10"/>
+      <c r="G563" s="11"/>
+      <c r="I563" s="11"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="8"/>
-      <c r="G564" s="9"/>
-      <c r="I564" s="9"/>
+      <c r="A564" s="10"/>
+      <c r="G564" s="11"/>
+      <c r="I564" s="11"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="8"/>
-      <c r="G565" s="9"/>
-      <c r="I565" s="9"/>
+      <c r="A565" s="10"/>
+      <c r="G565" s="11"/>
+      <c r="I565" s="11"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="8"/>
-      <c r="G566" s="9"/>
-      <c r="I566" s="9"/>
+      <c r="A566" s="10"/>
+      <c r="G566" s="11"/>
+      <c r="I566" s="11"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="8"/>
-      <c r="G567" s="9"/>
-      <c r="I567" s="9"/>
+      <c r="A567" s="10"/>
+      <c r="G567" s="11"/>
+      <c r="I567" s="11"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="8"/>
-      <c r="G568" s="9"/>
-      <c r="I568" s="9"/>
+      <c r="A568" s="10"/>
+      <c r="G568" s="11"/>
+      <c r="I568" s="11"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="8"/>
-      <c r="G569" s="9"/>
-      <c r="I569" s="9"/>
+      <c r="A569" s="10"/>
+      <c r="G569" s="11"/>
+      <c r="I569" s="11"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="8"/>
-      <c r="G570" s="9"/>
-      <c r="I570" s="9"/>
+      <c r="A570" s="10"/>
+      <c r="G570" s="11"/>
+      <c r="I570" s="11"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="8"/>
-      <c r="G571" s="9"/>
-      <c r="I571" s="9"/>
+      <c r="A571" s="10"/>
+      <c r="G571" s="11"/>
+      <c r="I571" s="11"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="8"/>
-      <c r="G572" s="9"/>
-      <c r="I572" s="9"/>
+      <c r="A572" s="10"/>
+      <c r="G572" s="11"/>
+      <c r="I572" s="11"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="8"/>
-      <c r="G573" s="9"/>
-      <c r="I573" s="9"/>
+      <c r="A573" s="10"/>
+      <c r="G573" s="11"/>
+      <c r="I573" s="11"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="8"/>
-      <c r="G574" s="9"/>
-      <c r="I574" s="9"/>
+      <c r="A574" s="10"/>
+      <c r="G574" s="11"/>
+      <c r="I574" s="11"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="8"/>
-      <c r="G575" s="9"/>
-      <c r="I575" s="9"/>
+      <c r="A575" s="10"/>
+      <c r="G575" s="11"/>
+      <c r="I575" s="11"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="8"/>
-      <c r="G576" s="9"/>
-      <c r="I576" s="9"/>
+      <c r="A576" s="10"/>
+      <c r="G576" s="11"/>
+      <c r="I576" s="11"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="8"/>
-      <c r="G577" s="9"/>
-      <c r="I577" s="9"/>
+      <c r="A577" s="10"/>
+      <c r="G577" s="11"/>
+      <c r="I577" s="11"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="8"/>
-      <c r="G578" s="9"/>
-      <c r="I578" s="9"/>
+      <c r="A578" s="10"/>
+      <c r="G578" s="11"/>
+      <c r="I578" s="11"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="8"/>
-      <c r="G579" s="9"/>
-      <c r="I579" s="9"/>
+      <c r="A579" s="10"/>
+      <c r="G579" s="11"/>
+      <c r="I579" s="11"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="8"/>
-      <c r="G580" s="9"/>
-      <c r="I580" s="9"/>
+      <c r="A580" s="10"/>
+      <c r="G580" s="11"/>
+      <c r="I580" s="11"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="8"/>
-      <c r="G581" s="9"/>
-      <c r="I581" s="9"/>
+      <c r="A581" s="10"/>
+      <c r="G581" s="11"/>
+      <c r="I581" s="11"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="8"/>
-      <c r="G582" s="9"/>
-      <c r="I582" s="9"/>
+      <c r="A582" s="10"/>
+      <c r="G582" s="11"/>
+      <c r="I582" s="11"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="8"/>
-      <c r="G583" s="9"/>
-      <c r="I583" s="9"/>
+      <c r="A583" s="10"/>
+      <c r="G583" s="11"/>
+      <c r="I583" s="11"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="8"/>
-      <c r="G584" s="9"/>
-      <c r="I584" s="9"/>
+      <c r="A584" s="10"/>
+      <c r="G584" s="11"/>
+      <c r="I584" s="11"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="8"/>
-      <c r="G585" s="9"/>
-      <c r="I585" s="9"/>
+      <c r="A585" s="10"/>
+      <c r="G585" s="11"/>
+      <c r="I585" s="11"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="8"/>
-      <c r="G586" s="9"/>
-      <c r="I586" s="9"/>
+      <c r="A586" s="10"/>
+      <c r="G586" s="11"/>
+      <c r="I586" s="11"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="8"/>
-      <c r="G587" s="9"/>
-      <c r="I587" s="9"/>
+      <c r="A587" s="10"/>
+      <c r="G587" s="11"/>
+      <c r="I587" s="11"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="8"/>
-      <c r="G588" s="9"/>
-      <c r="I588" s="9"/>
+      <c r="A588" s="10"/>
+      <c r="G588" s="11"/>
+      <c r="I588" s="11"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="8"/>
-      <c r="G589" s="9"/>
-      <c r="I589" s="9"/>
+      <c r="A589" s="10"/>
+      <c r="G589" s="11"/>
+      <c r="I589" s="11"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="8"/>
-      <c r="G590" s="9"/>
-      <c r="I590" s="9"/>
+      <c r="A590" s="10"/>
+      <c r="G590" s="11"/>
+      <c r="I590" s="11"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="8"/>
-      <c r="G591" s="9"/>
-      <c r="I591" s="9"/>
+      <c r="A591" s="10"/>
+      <c r="G591" s="11"/>
+      <c r="I591" s="11"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="8"/>
-      <c r="G592" s="9"/>
-      <c r="I592" s="9"/>
+      <c r="A592" s="10"/>
+      <c r="G592" s="11"/>
+      <c r="I592" s="11"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="8"/>
-      <c r="G593" s="9"/>
-      <c r="I593" s="9"/>
+      <c r="A593" s="10"/>
+      <c r="G593" s="11"/>
+      <c r="I593" s="11"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="8"/>
-      <c r="G594" s="9"/>
-      <c r="I594" s="9"/>
+      <c r="A594" s="10"/>
+      <c r="G594" s="11"/>
+      <c r="I594" s="11"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="8"/>
-      <c r="G595" s="9"/>
-      <c r="I595" s="9"/>
+      <c r="A595" s="10"/>
+      <c r="G595" s="11"/>
+      <c r="I595" s="11"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="8"/>
-      <c r="G596" s="9"/>
-      <c r="I596" s="9"/>
+      <c r="A596" s="10"/>
+      <c r="G596" s="11"/>
+      <c r="I596" s="11"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="8"/>
-      <c r="G597" s="9"/>
-      <c r="I597" s="9"/>
+      <c r="A597" s="10"/>
+      <c r="G597" s="11"/>
+      <c r="I597" s="11"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="8"/>
-      <c r="G598" s="9"/>
-      <c r="I598" s="9"/>
+      <c r="A598" s="10"/>
+      <c r="G598" s="11"/>
+      <c r="I598" s="11"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="8"/>
-      <c r="G599" s="9"/>
-      <c r="I599" s="9"/>
+      <c r="A599" s="10"/>
+      <c r="G599" s="11"/>
+      <c r="I599" s="11"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="8"/>
-      <c r="G600" s="9"/>
-      <c r="I600" s="9"/>
+      <c r="A600" s="10"/>
+      <c r="G600" s="11"/>
+      <c r="I600" s="11"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="8"/>
-      <c r="G601" s="9"/>
-      <c r="I601" s="9"/>
+      <c r="A601" s="10"/>
+      <c r="G601" s="11"/>
+      <c r="I601" s="11"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="8"/>
-      <c r="G602" s="9"/>
-      <c r="I602" s="9"/>
+      <c r="A602" s="10"/>
+      <c r="G602" s="11"/>
+      <c r="I602" s="11"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="8"/>
-      <c r="G603" s="9"/>
-      <c r="I603" s="9"/>
+      <c r="A603" s="10"/>
+      <c r="G603" s="11"/>
+      <c r="I603" s="11"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="8"/>
-      <c r="G604" s="9"/>
-      <c r="I604" s="9"/>
+      <c r="A604" s="10"/>
+      <c r="G604" s="11"/>
+      <c r="I604" s="11"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="8"/>
-      <c r="G605" s="9"/>
-      <c r="I605" s="9"/>
+      <c r="A605" s="10"/>
+      <c r="G605" s="11"/>
+      <c r="I605" s="11"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="8"/>
-      <c r="G606" s="9"/>
-      <c r="I606" s="9"/>
+      <c r="A606" s="10"/>
+      <c r="G606" s="11"/>
+      <c r="I606" s="11"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="8"/>
-      <c r="G607" s="9"/>
-      <c r="I607" s="9"/>
+      <c r="A607" s="10"/>
+      <c r="G607" s="11"/>
+      <c r="I607" s="11"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="8"/>
-      <c r="G608" s="9"/>
-      <c r="I608" s="9"/>
+      <c r="A608" s="10"/>
+      <c r="G608" s="11"/>
+      <c r="I608" s="11"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="8"/>
-      <c r="G609" s="9"/>
-      <c r="I609" s="9"/>
+      <c r="A609" s="10"/>
+      <c r="G609" s="11"/>
+      <c r="I609" s="11"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="8"/>
-      <c r="G610" s="9"/>
-      <c r="I610" s="9"/>
+      <c r="A610" s="10"/>
+      <c r="G610" s="11"/>
+      <c r="I610" s="11"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="8"/>
-      <c r="G611" s="9"/>
-      <c r="I611" s="9"/>
+      <c r="A611" s="10"/>
+      <c r="G611" s="11"/>
+      <c r="I611" s="11"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="8"/>
-      <c r="G612" s="9"/>
-      <c r="I612" s="9"/>
+      <c r="A612" s="10"/>
+      <c r="G612" s="11"/>
+      <c r="I612" s="11"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="8"/>
-      <c r="G613" s="9"/>
-      <c r="I613" s="9"/>
+      <c r="A613" s="10"/>
+      <c r="G613" s="11"/>
+      <c r="I613" s="11"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="8"/>
-      <c r="G614" s="9"/>
-      <c r="I614" s="9"/>
+      <c r="A614" s="10"/>
+      <c r="G614" s="11"/>
+      <c r="I614" s="11"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="8"/>
-      <c r="G615" s="9"/>
-      <c r="I615" s="9"/>
+      <c r="A615" s="10"/>
+      <c r="G615" s="11"/>
+      <c r="I615" s="11"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="8"/>
-      <c r="G616" s="9"/>
-      <c r="I616" s="9"/>
+      <c r="A616" s="10"/>
+      <c r="G616" s="11"/>
+      <c r="I616" s="11"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="8"/>
-      <c r="G617" s="9"/>
-      <c r="I617" s="9"/>
+      <c r="A617" s="10"/>
+      <c r="G617" s="11"/>
+      <c r="I617" s="11"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="8"/>
-      <c r="G618" s="9"/>
-      <c r="I618" s="9"/>
+      <c r="A618" s="10"/>
+      <c r="G618" s="11"/>
+      <c r="I618" s="11"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="8"/>
-      <c r="G619" s="9"/>
-      <c r="I619" s="9"/>
+      <c r="A619" s="10"/>
+      <c r="G619" s="11"/>
+      <c r="I619" s="11"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="8"/>
-      <c r="G620" s="9"/>
-      <c r="I620" s="9"/>
+      <c r="A620" s="10"/>
+      <c r="G620" s="11"/>
+      <c r="I620" s="11"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="8"/>
-      <c r="G621" s="9"/>
-      <c r="I621" s="9"/>
+      <c r="A621" s="10"/>
+      <c r="G621" s="11"/>
+      <c r="I621" s="11"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="8"/>
-      <c r="G622" s="9"/>
-      <c r="I622" s="9"/>
+      <c r="A622" s="10"/>
+      <c r="G622" s="11"/>
+      <c r="I622" s="11"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="8"/>
-      <c r="G623" s="9"/>
-      <c r="I623" s="9"/>
+      <c r="A623" s="10"/>
+      <c r="G623" s="11"/>
+      <c r="I623" s="11"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="8"/>
-      <c r="G624" s="9"/>
-      <c r="I624" s="9"/>
+      <c r="A624" s="10"/>
+      <c r="G624" s="11"/>
+      <c r="I624" s="11"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="8"/>
-      <c r="G625" s="9"/>
-      <c r="I625" s="9"/>
+      <c r="A625" s="10"/>
+      <c r="G625" s="11"/>
+      <c r="I625" s="11"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="8"/>
-      <c r="G626" s="9"/>
-      <c r="I626" s="9"/>
+      <c r="A626" s="10"/>
+      <c r="G626" s="11"/>
+      <c r="I626" s="11"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="8"/>
-      <c r="G627" s="9"/>
-      <c r="I627" s="9"/>
+      <c r="A627" s="10"/>
+      <c r="G627" s="11"/>
+      <c r="I627" s="11"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="8"/>
-      <c r="G628" s="9"/>
-      <c r="I628" s="9"/>
+      <c r="A628" s="10"/>
+      <c r="G628" s="11"/>
+      <c r="I628" s="11"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="8"/>
-      <c r="G629" s="9"/>
-      <c r="I629" s="9"/>
+      <c r="A629" s="10"/>
+      <c r="G629" s="11"/>
+      <c r="I629" s="11"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="8"/>
-      <c r="G630" s="9"/>
-      <c r="I630" s="9"/>
+      <c r="A630" s="10"/>
+      <c r="G630" s="11"/>
+      <c r="I630" s="11"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="8"/>
-      <c r="G631" s="9"/>
-      <c r="I631" s="9"/>
+      <c r="A631" s="10"/>
+      <c r="G631" s="11"/>
+      <c r="I631" s="11"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="8"/>
-      <c r="G632" s="9"/>
-      <c r="I632" s="9"/>
+      <c r="A632" s="10"/>
+      <c r="G632" s="11"/>
+      <c r="I632" s="11"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="8"/>
-      <c r="G633" s="9"/>
-      <c r="I633" s="9"/>
+      <c r="A633" s="10"/>
+      <c r="G633" s="11"/>
+      <c r="I633" s="11"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="8"/>
-      <c r="G634" s="9"/>
-      <c r="I634" s="9"/>
+      <c r="A634" s="10"/>
+      <c r="G634" s="11"/>
+      <c r="I634" s="11"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="8"/>
-      <c r="G635" s="9"/>
-      <c r="I635" s="9"/>
+      <c r="A635" s="10"/>
+      <c r="G635" s="11"/>
+      <c r="I635" s="11"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="8"/>
-      <c r="G636" s="9"/>
-      <c r="I636" s="9"/>
+      <c r="A636" s="10"/>
+      <c r="G636" s="11"/>
+      <c r="I636" s="11"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="8"/>
-      <c r="G637" s="9"/>
-      <c r="I637" s="9"/>
+      <c r="A637" s="10"/>
+      <c r="G637" s="11"/>
+      <c r="I637" s="11"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="8"/>
-      <c r="G638" s="9"/>
-      <c r="I638" s="9"/>
+      <c r="A638" s="10"/>
+      <c r="G638" s="11"/>
+      <c r="I638" s="11"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="8"/>
-      <c r="G639" s="9"/>
-      <c r="I639" s="9"/>
+      <c r="A639" s="10"/>
+      <c r="G639" s="11"/>
+      <c r="I639" s="11"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="8"/>
-      <c r="G640" s="9"/>
-      <c r="I640" s="9"/>
+      <c r="A640" s="10"/>
+      <c r="G640" s="11"/>
+      <c r="I640" s="11"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="8"/>
-      <c r="G641" s="9"/>
-      <c r="I641" s="9"/>
+      <c r="A641" s="10"/>
+      <c r="G641" s="11"/>
+      <c r="I641" s="11"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="8"/>
-      <c r="G642" s="9"/>
-      <c r="I642" s="9"/>
+      <c r="A642" s="10"/>
+      <c r="G642" s="11"/>
+      <c r="I642" s="11"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="8"/>
-      <c r="G643" s="9"/>
-      <c r="I643" s="9"/>
+      <c r="A643" s="10"/>
+      <c r="G643" s="11"/>
+      <c r="I643" s="11"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="8"/>
-      <c r="G644" s="9"/>
-      <c r="I644" s="9"/>
+      <c r="A644" s="10"/>
+      <c r="G644" s="11"/>
+      <c r="I644" s="11"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="8"/>
-      <c r="G645" s="9"/>
-      <c r="I645" s="9"/>
+      <c r="A645" s="10"/>
+      <c r="G645" s="11"/>
+      <c r="I645" s="11"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="8"/>
-      <c r="G646" s="9"/>
-      <c r="I646" s="9"/>
+      <c r="A646" s="10"/>
+      <c r="G646" s="11"/>
+      <c r="I646" s="11"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="8"/>
-      <c r="G647" s="9"/>
-      <c r="I647" s="9"/>
+      <c r="A647" s="10"/>
+      <c r="G647" s="11"/>
+      <c r="I647" s="11"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="8"/>
-      <c r="G648" s="9"/>
-      <c r="I648" s="9"/>
+      <c r="A648" s="10"/>
+      <c r="G648" s="11"/>
+      <c r="I648" s="11"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="8"/>
-      <c r="G649" s="9"/>
-      <c r="I649" s="9"/>
+      <c r="A649" s="10"/>
+      <c r="G649" s="11"/>
+      <c r="I649" s="11"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="8"/>
-      <c r="G650" s="9"/>
-      <c r="I650" s="9"/>
+      <c r="A650" s="10"/>
+      <c r="G650" s="11"/>
+      <c r="I650" s="11"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="8"/>
-      <c r="G651" s="9"/>
-      <c r="I651" s="9"/>
+      <c r="A651" s="10"/>
+      <c r="G651" s="11"/>
+      <c r="I651" s="11"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="8"/>
-      <c r="G652" s="9"/>
-      <c r="I652" s="9"/>
+      <c r="A652" s="10"/>
+      <c r="G652" s="11"/>
+      <c r="I652" s="11"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="8"/>
-      <c r="G653" s="9"/>
-      <c r="I653" s="9"/>
+      <c r="A653" s="10"/>
+      <c r="G653" s="11"/>
+      <c r="I653" s="11"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="8"/>
-      <c r="G654" s="9"/>
-      <c r="I654" s="9"/>
+      <c r="A654" s="10"/>
+      <c r="G654" s="11"/>
+      <c r="I654" s="11"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="8"/>
-      <c r="G655" s="9"/>
-      <c r="I655" s="9"/>
+      <c r="A655" s="10"/>
+      <c r="G655" s="11"/>
+      <c r="I655" s="11"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="8"/>
-      <c r="G656" s="9"/>
-      <c r="I656" s="9"/>
+      <c r="A656" s="10"/>
+      <c r="G656" s="11"/>
+      <c r="I656" s="11"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="8"/>
-      <c r="G657" s="9"/>
-      <c r="I657" s="9"/>
+      <c r="A657" s="10"/>
+      <c r="G657" s="11"/>
+      <c r="I657" s="11"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="8"/>
-      <c r="G658" s="9"/>
-      <c r="I658" s="9"/>
+      <c r="A658" s="10"/>
+      <c r="G658" s="11"/>
+      <c r="I658" s="11"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="8"/>
-      <c r="G659" s="9"/>
-      <c r="I659" s="9"/>
+      <c r="A659" s="10"/>
+      <c r="G659" s="11"/>
+      <c r="I659" s="11"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="8"/>
-      <c r="G660" s="9"/>
-      <c r="I660" s="9"/>
+      <c r="A660" s="10"/>
+      <c r="G660" s="11"/>
+      <c r="I660" s="11"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="8"/>
-      <c r="G661" s="9"/>
-      <c r="I661" s="9"/>
+      <c r="A661" s="10"/>
+      <c r="G661" s="11"/>
+      <c r="I661" s="11"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="8"/>
-      <c r="G662" s="9"/>
-      <c r="I662" s="9"/>
+      <c r="A662" s="10"/>
+      <c r="G662" s="11"/>
+      <c r="I662" s="11"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="8"/>
-      <c r="G663" s="9"/>
-      <c r="I663" s="9"/>
+      <c r="A663" s="10"/>
+      <c r="G663" s="11"/>
+      <c r="I663" s="11"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="8"/>
-      <c r="G664" s="9"/>
-      <c r="I664" s="9"/>
+      <c r="A664" s="10"/>
+      <c r="G664" s="11"/>
+      <c r="I664" s="11"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="8"/>
-      <c r="G665" s="9"/>
-      <c r="I665" s="9"/>
+      <c r="A665" s="10"/>
+      <c r="G665" s="11"/>
+      <c r="I665" s="11"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="8"/>
-      <c r="G666" s="9"/>
-      <c r="I666" s="9"/>
+      <c r="A666" s="10"/>
+      <c r="G666" s="11"/>
+      <c r="I666" s="11"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="8"/>
-      <c r="G667" s="9"/>
-      <c r="I667" s="9"/>
+      <c r="A667" s="10"/>
+      <c r="G667" s="11"/>
+      <c r="I667" s="11"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="8"/>
-      <c r="G668" s="9"/>
-      <c r="I668" s="9"/>
+      <c r="A668" s="10"/>
+      <c r="G668" s="11"/>
+      <c r="I668" s="11"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="8"/>
-      <c r="G669" s="9"/>
-      <c r="I669" s="9"/>
+      <c r="A669" s="10"/>
+      <c r="G669" s="11"/>
+      <c r="I669" s="11"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="8"/>
-      <c r="G670" s="9"/>
-      <c r="I670" s="9"/>
+      <c r="A670" s="10"/>
+      <c r="G670" s="11"/>
+      <c r="I670" s="11"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="8"/>
-      <c r="G671" s="9"/>
-      <c r="I671" s="9"/>
+      <c r="A671" s="10"/>
+      <c r="G671" s="11"/>
+      <c r="I671" s="11"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="8"/>
-      <c r="G672" s="9"/>
-      <c r="I672" s="9"/>
+      <c r="A672" s="10"/>
+      <c r="G672" s="11"/>
+      <c r="I672" s="11"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="8"/>
-      <c r="G673" s="9"/>
-      <c r="I673" s="9"/>
+      <c r="A673" s="10"/>
+      <c r="G673" s="11"/>
+      <c r="I673" s="11"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="8"/>
-      <c r="G674" s="9"/>
-      <c r="I674" s="9"/>
+      <c r="A674" s="10"/>
+      <c r="G674" s="11"/>
+      <c r="I674" s="11"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="8"/>
-      <c r="G675" s="9"/>
-      <c r="I675" s="9"/>
+      <c r="A675" s="10"/>
+      <c r="G675" s="11"/>
+      <c r="I675" s="11"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="8"/>
-      <c r="G676" s="9"/>
-      <c r="I676" s="9"/>
+      <c r="A676" s="10"/>
+      <c r="G676" s="11"/>
+      <c r="I676" s="11"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="8"/>
-      <c r="G677" s="9"/>
-      <c r="I677" s="9"/>
+      <c r="A677" s="10"/>
+      <c r="G677" s="11"/>
+      <c r="I677" s="11"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="8"/>
-      <c r="G678" s="9"/>
-      <c r="I678" s="9"/>
+      <c r="A678" s="10"/>
+      <c r="G678" s="11"/>
+      <c r="I678" s="11"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="8"/>
-      <c r="G679" s="9"/>
-      <c r="I679" s="9"/>
+      <c r="A679" s="10"/>
+      <c r="G679" s="11"/>
+      <c r="I679" s="11"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="8"/>
-      <c r="G680" s="9"/>
-      <c r="I680" s="9"/>
+      <c r="A680" s="10"/>
+      <c r="G680" s="11"/>
+      <c r="I680" s="11"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="8"/>
-      <c r="G681" s="9"/>
-      <c r="I681" s="9"/>
+      <c r="A681" s="10"/>
+      <c r="G681" s="11"/>
+      <c r="I681" s="11"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="8"/>
-      <c r="G682" s="9"/>
-      <c r="I682" s="9"/>
+      <c r="A682" s="10"/>
+      <c r="G682" s="11"/>
+      <c r="I682" s="11"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="8"/>
-      <c r="G683" s="9"/>
-      <c r="I683" s="9"/>
+      <c r="A683" s="10"/>
+      <c r="G683" s="11"/>
+      <c r="I683" s="11"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="8"/>
-      <c r="G684" s="9"/>
-      <c r="I684" s="9"/>
+      <c r="A684" s="10"/>
+      <c r="G684" s="11"/>
+      <c r="I684" s="11"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="8"/>
-      <c r="G685" s="9"/>
-      <c r="I685" s="9"/>
+      <c r="A685" s="10"/>
+      <c r="G685" s="11"/>
+      <c r="I685" s="11"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="8"/>
-      <c r="G686" s="9"/>
-      <c r="I686" s="9"/>
+      <c r="A686" s="10"/>
+      <c r="G686" s="11"/>
+      <c r="I686" s="11"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="8"/>
-      <c r="G687" s="9"/>
-      <c r="I687" s="9"/>
+      <c r="A687" s="10"/>
+      <c r="G687" s="11"/>
+      <c r="I687" s="11"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="8"/>
-      <c r="G688" s="9"/>
-      <c r="I688" s="9"/>
+      <c r="A688" s="10"/>
+      <c r="G688" s="11"/>
+      <c r="I688" s="11"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="8"/>
-      <c r="G689" s="9"/>
-      <c r="I689" s="9"/>
+      <c r="A689" s="10"/>
+      <c r="G689" s="11"/>
+      <c r="I689" s="11"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="8"/>
-      <c r="G690" s="9"/>
-      <c r="I690" s="9"/>
+      <c r="A690" s="10"/>
+      <c r="G690" s="11"/>
+      <c r="I690" s="11"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="8"/>
-      <c r="G691" s="9"/>
-      <c r="I691" s="9"/>
+      <c r="A691" s="10"/>
+      <c r="G691" s="11"/>
+      <c r="I691" s="11"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="8"/>
-      <c r="G692" s="9"/>
-      <c r="I692" s="9"/>
+      <c r="A692" s="10"/>
+      <c r="G692" s="11"/>
+      <c r="I692" s="11"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="8"/>
-      <c r="G693" s="9"/>
-      <c r="I693" s="9"/>
+      <c r="A693" s="10"/>
+      <c r="G693" s="11"/>
+      <c r="I693" s="11"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="8"/>
-      <c r="G694" s="9"/>
-      <c r="I694" s="9"/>
+      <c r="A694" s="10"/>
+      <c r="G694" s="11"/>
+      <c r="I694" s="11"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="8"/>
-      <c r="G695" s="9"/>
-      <c r="I695" s="9"/>
+      <c r="A695" s="10"/>
+      <c r="G695" s="11"/>
+      <c r="I695" s="11"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="8"/>
-      <c r="G696" s="9"/>
-      <c r="I696" s="9"/>
+      <c r="A696" s="10"/>
+      <c r="G696" s="11"/>
+      <c r="I696" s="11"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="8"/>
-      <c r="G697" s="9"/>
-      <c r="I697" s="9"/>
+      <c r="A697" s="10"/>
+      <c r="G697" s="11"/>
+      <c r="I697" s="11"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="8"/>
-      <c r="G698" s="9"/>
-      <c r="I698" s="9"/>
+      <c r="A698" s="10"/>
+      <c r="G698" s="11"/>
+      <c r="I698" s="11"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="8"/>
-      <c r="G699" s="9"/>
-      <c r="I699" s="9"/>
+      <c r="A699" s="10"/>
+      <c r="G699" s="11"/>
+      <c r="I699" s="11"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="8"/>
-      <c r="G700" s="9"/>
-      <c r="I700" s="9"/>
+      <c r="A700" s="10"/>
+      <c r="G700" s="11"/>
+      <c r="I700" s="11"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="8"/>
-      <c r="G701" s="9"/>
-      <c r="I701" s="9"/>
+      <c r="A701" s="10"/>
+      <c r="G701" s="11"/>
+      <c r="I701" s="11"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="8"/>
-      <c r="G702" s="9"/>
-      <c r="I702" s="9"/>
+      <c r="A702" s="10"/>
+      <c r="G702" s="11"/>
+      <c r="I702" s="11"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="8"/>
-      <c r="G703" s="9"/>
-      <c r="I703" s="9"/>
+      <c r="A703" s="10"/>
+      <c r="G703" s="11"/>
+      <c r="I703" s="11"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="8"/>
-      <c r="G704" s="9"/>
-      <c r="I704" s="9"/>
+      <c r="A704" s="10"/>
+      <c r="G704" s="11"/>
+      <c r="I704" s="11"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="8"/>
-      <c r="G705" s="9"/>
-      <c r="I705" s="9"/>
+      <c r="A705" s="10"/>
+      <c r="G705" s="11"/>
+      <c r="I705" s="11"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="8"/>
-      <c r="G706" s="9"/>
-      <c r="I706" s="9"/>
+      <c r="A706" s="10"/>
+      <c r="G706" s="11"/>
+      <c r="I706" s="11"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="8"/>
-      <c r="G707" s="9"/>
-      <c r="I707" s="9"/>
+      <c r="A707" s="10"/>
+      <c r="G707" s="11"/>
+      <c r="I707" s="11"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="8"/>
-      <c r="G708" s="9"/>
-      <c r="I708" s="9"/>
+      <c r="A708" s="10"/>
+      <c r="G708" s="11"/>
+      <c r="I708" s="11"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="8"/>
-      <c r="G709" s="9"/>
-      <c r="I709" s="9"/>
+      <c r="A709" s="10"/>
+      <c r="G709" s="11"/>
+      <c r="I709" s="11"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="8"/>
-      <c r="G710" s="9"/>
-      <c r="I710" s="9"/>
+      <c r="A710" s="10"/>
+      <c r="G710" s="11"/>
+      <c r="I710" s="11"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="8"/>
-      <c r="G711" s="9"/>
-      <c r="I711" s="9"/>
+      <c r="A711" s="10"/>
+      <c r="G711" s="11"/>
+      <c r="I711" s="11"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="8"/>
-      <c r="G712" s="9"/>
-      <c r="I712" s="9"/>
+      <c r="A712" s="10"/>
+      <c r="G712" s="11"/>
+      <c r="I712" s="11"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="8"/>
-      <c r="G713" s="9"/>
-      <c r="I713" s="9"/>
+      <c r="A713" s="10"/>
+      <c r="G713" s="11"/>
+      <c r="I713" s="11"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="8"/>
-      <c r="G714" s="9"/>
-      <c r="I714" s="9"/>
+      <c r="A714" s="10"/>
+      <c r="G714" s="11"/>
+      <c r="I714" s="11"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="8"/>
-      <c r="G715" s="9"/>
-      <c r="I715" s="9"/>
+      <c r="A715" s="10"/>
+      <c r="G715" s="11"/>
+      <c r="I715" s="11"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="8"/>
-      <c r="G716" s="9"/>
-      <c r="I716" s="9"/>
+      <c r="A716" s="10"/>
+      <c r="G716" s="11"/>
+      <c r="I716" s="11"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="8"/>
-      <c r="G717" s="9"/>
-      <c r="I717" s="9"/>
+      <c r="A717" s="10"/>
+      <c r="G717" s="11"/>
+      <c r="I717" s="11"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="8"/>
-      <c r="G718" s="9"/>
-      <c r="I718" s="9"/>
+      <c r="A718" s="10"/>
+      <c r="G718" s="11"/>
+      <c r="I718" s="11"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="8"/>
-      <c r="G719" s="9"/>
-      <c r="I719" s="9"/>
+      <c r="A719" s="10"/>
+      <c r="G719" s="11"/>
+      <c r="I719" s="11"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="8"/>
-      <c r="G720" s="9"/>
-      <c r="I720" s="9"/>
+      <c r="A720" s="10"/>
+      <c r="G720" s="11"/>
+      <c r="I720" s="11"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="8"/>
-      <c r="G721" s="9"/>
-      <c r="I721" s="9"/>
+      <c r="A721" s="10"/>
+      <c r="G721" s="11"/>
+      <c r="I721" s="11"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="8"/>
-      <c r="G722" s="9"/>
-      <c r="I722" s="9"/>
+      <c r="A722" s="10"/>
+      <c r="G722" s="11"/>
+      <c r="I722" s="11"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="8"/>
-      <c r="G723" s="9"/>
-      <c r="I723" s="9"/>
+      <c r="A723" s="10"/>
+      <c r="G723" s="11"/>
+      <c r="I723" s="11"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="8"/>
-      <c r="G724" s="9"/>
-      <c r="I724" s="9"/>
+      <c r="A724" s="10"/>
+      <c r="G724" s="11"/>
+      <c r="I724" s="11"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="8"/>
-      <c r="G725" s="9"/>
-      <c r="I725" s="9"/>
+      <c r="A725" s="10"/>
+      <c r="G725" s="11"/>
+      <c r="I725" s="11"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="8"/>
-      <c r="G726" s="9"/>
-      <c r="I726" s="9"/>
+      <c r="A726" s="10"/>
+      <c r="G726" s="11"/>
+      <c r="I726" s="11"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="8"/>
-      <c r="G727" s="9"/>
-      <c r="I727" s="9"/>
+      <c r="A727" s="10"/>
+      <c r="G727" s="11"/>
+      <c r="I727" s="11"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="8"/>
-      <c r="G728" s="9"/>
-      <c r="I728" s="9"/>
+      <c r="A728" s="10"/>
+      <c r="G728" s="11"/>
+      <c r="I728" s="11"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="8"/>
-      <c r="G729" s="9"/>
-      <c r="I729" s="9"/>
+      <c r="A729" s="10"/>
+      <c r="G729" s="11"/>
+      <c r="I729" s="11"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="8"/>
-      <c r="G730" s="9"/>
-      <c r="I730" s="9"/>
+      <c r="A730" s="10"/>
+      <c r="G730" s="11"/>
+      <c r="I730" s="11"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="8"/>
-      <c r="G731" s="9"/>
-      <c r="I731" s="9"/>
+      <c r="A731" s="10"/>
+      <c r="G731" s="11"/>
+      <c r="I731" s="11"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="8"/>
-      <c r="G732" s="9"/>
-      <c r="I732" s="9"/>
+      <c r="A732" s="10"/>
+      <c r="G732" s="11"/>
+      <c r="I732" s="11"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="8"/>
-      <c r="G733" s="9"/>
-      <c r="I733" s="9"/>
+      <c r="A733" s="10"/>
+      <c r="G733" s="11"/>
+      <c r="I733" s="11"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="8"/>
-      <c r="G734" s="9"/>
-      <c r="I734" s="9"/>
+      <c r="A734" s="10"/>
+      <c r="G734" s="11"/>
+      <c r="I734" s="11"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="8"/>
-      <c r="G735" s="9"/>
-      <c r="I735" s="9"/>
+      <c r="A735" s="10"/>
+      <c r="G735" s="11"/>
+      <c r="I735" s="11"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="8"/>
-      <c r="G736" s="9"/>
-      <c r="I736" s="9"/>
+      <c r="A736" s="10"/>
+      <c r="G736" s="11"/>
+      <c r="I736" s="11"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="8"/>
-      <c r="G737" s="9"/>
-      <c r="I737" s="9"/>
+      <c r="A737" s="10"/>
+      <c r="G737" s="11"/>
+      <c r="I737" s="11"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="8"/>
-      <c r="G738" s="9"/>
-      <c r="I738" s="9"/>
+      <c r="A738" s="10"/>
+      <c r="G738" s="11"/>
+      <c r="I738" s="11"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="8"/>
-      <c r="G739" s="9"/>
-      <c r="I739" s="9"/>
+      <c r="A739" s="10"/>
+      <c r="G739" s="11"/>
+      <c r="I739" s="11"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="8"/>
-      <c r="G740" s="9"/>
-      <c r="I740" s="9"/>
+      <c r="A740" s="10"/>
+      <c r="G740" s="11"/>
+      <c r="I740" s="11"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="8"/>
-      <c r="G741" s="9"/>
-      <c r="I741" s="9"/>
+      <c r="A741" s="10"/>
+      <c r="G741" s="11"/>
+      <c r="I741" s="11"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="8"/>
-      <c r="G742" s="9"/>
-      <c r="I742" s="9"/>
+      <c r="A742" s="10"/>
+      <c r="G742" s="11"/>
+      <c r="I742" s="11"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="8"/>
-      <c r="G743" s="9"/>
-      <c r="I743" s="9"/>
+      <c r="A743" s="10"/>
+      <c r="G743" s="11"/>
+      <c r="I743" s="11"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="8"/>
-      <c r="G744" s="9"/>
-      <c r="I744" s="9"/>
+      <c r="A744" s="10"/>
+      <c r="G744" s="11"/>
+      <c r="I744" s="11"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="8"/>
-      <c r="G745" s="9"/>
-      <c r="I745" s="9"/>
+      <c r="A745" s="10"/>
+      <c r="G745" s="11"/>
+      <c r="I745" s="11"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="8"/>
-      <c r="G746" s="9"/>
-      <c r="I746" s="9"/>
+      <c r="A746" s="10"/>
+      <c r="G746" s="11"/>
+      <c r="I746" s="11"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="8"/>
-      <c r="G747" s="9"/>
-      <c r="I747" s="9"/>
+      <c r="A747" s="10"/>
+      <c r="G747" s="11"/>
+      <c r="I747" s="11"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="8"/>
-      <c r="G748" s="9"/>
-      <c r="I748" s="9"/>
+      <c r="A748" s="10"/>
+      <c r="G748" s="11"/>
+      <c r="I748" s="11"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="8"/>
-      <c r="G749" s="9"/>
-      <c r="I749" s="9"/>
+      <c r="A749" s="10"/>
+      <c r="G749" s="11"/>
+      <c r="I749" s="11"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="8"/>
-      <c r="G750" s="9"/>
-      <c r="I750" s="9"/>
+      <c r="A750" s="10"/>
+      <c r="G750" s="11"/>
+      <c r="I750" s="11"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="8"/>
-      <c r="G751" s="9"/>
-      <c r="I751" s="9"/>
+      <c r="A751" s="10"/>
+      <c r="G751" s="11"/>
+      <c r="I751" s="11"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="8"/>
-      <c r="G752" s="9"/>
-      <c r="I752" s="9"/>
+      <c r="A752" s="10"/>
+      <c r="G752" s="11"/>
+      <c r="I752" s="11"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="8"/>
-      <c r="G753" s="9"/>
-      <c r="I753" s="9"/>
+      <c r="A753" s="10"/>
+      <c r="G753" s="11"/>
+      <c r="I753" s="11"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="8"/>
-      <c r="G754" s="9"/>
-      <c r="I754" s="9"/>
+      <c r="A754" s="10"/>
+      <c r="G754" s="11"/>
+      <c r="I754" s="11"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="8"/>
-      <c r="G755" s="9"/>
-      <c r="I755" s="9"/>
+      <c r="A755" s="10"/>
+      <c r="G755" s="11"/>
+      <c r="I755" s="11"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="8"/>
-      <c r="G756" s="9"/>
-      <c r="I756" s="9"/>
+      <c r="A756" s="10"/>
+      <c r="G756" s="11"/>
+      <c r="I756" s="11"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="8"/>
-      <c r="G757" s="9"/>
-      <c r="I757" s="9"/>
+      <c r="A757" s="10"/>
+      <c r="G757" s="11"/>
+      <c r="I757" s="11"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="8"/>
-      <c r="G758" s="9"/>
-      <c r="I758" s="9"/>
+      <c r="A758" s="10"/>
+      <c r="G758" s="11"/>
+      <c r="I758" s="11"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="8"/>
-      <c r="G759" s="9"/>
-      <c r="I759" s="9"/>
+      <c r="A759" s="10"/>
+      <c r="G759" s="11"/>
+      <c r="I759" s="11"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="8"/>
-      <c r="G760" s="9"/>
-      <c r="I760" s="9"/>
+      <c r="A760" s="10"/>
+      <c r="G760" s="11"/>
+      <c r="I760" s="11"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="8"/>
-      <c r="G761" s="9"/>
-      <c r="I761" s="9"/>
+      <c r="A761" s="10"/>
+      <c r="G761" s="11"/>
+      <c r="I761" s="11"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="8"/>
-      <c r="G762" s="9"/>
-      <c r="I762" s="9"/>
+      <c r="A762" s="10"/>
+      <c r="G762" s="11"/>
+      <c r="I762" s="11"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="8"/>
-      <c r="G763" s="9"/>
-      <c r="I763" s="9"/>
+      <c r="A763" s="10"/>
+      <c r="G763" s="11"/>
+      <c r="I763" s="11"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="8"/>
-      <c r="G764" s="9"/>
-      <c r="I764" s="9"/>
+      <c r="A764" s="10"/>
+      <c r="G764" s="11"/>
+      <c r="I764" s="11"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="8"/>
-      <c r="G765" s="9"/>
-      <c r="I765" s="9"/>
+      <c r="A765" s="10"/>
+      <c r="G765" s="11"/>
+      <c r="I765" s="11"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="8"/>
-      <c r="G766" s="9"/>
-      <c r="I766" s="9"/>
+      <c r="A766" s="10"/>
+      <c r="G766" s="11"/>
+      <c r="I766" s="11"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="8"/>
-      <c r="G767" s="9"/>
-      <c r="I767" s="9"/>
+      <c r="A767" s="10"/>
+      <c r="G767" s="11"/>
+      <c r="I767" s="11"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="8"/>
-      <c r="G768" s="9"/>
-      <c r="I768" s="9"/>
+      <c r="A768" s="10"/>
+      <c r="G768" s="11"/>
+      <c r="I768" s="11"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="8"/>
-      <c r="G769" s="9"/>
-      <c r="I769" s="9"/>
+      <c r="A769" s="10"/>
+      <c r="G769" s="11"/>
+      <c r="I769" s="11"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="8"/>
-      <c r="G770" s="9"/>
-      <c r="I770" s="9"/>
+      <c r="A770" s="10"/>
+      <c r="G770" s="11"/>
+      <c r="I770" s="11"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="8"/>
-      <c r="G771" s="9"/>
-      <c r="I771" s="9"/>
+      <c r="A771" s="10"/>
+      <c r="G771" s="11"/>
+      <c r="I771" s="11"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="8"/>
-      <c r="G772" s="9"/>
-      <c r="I772" s="9"/>
+      <c r="A772" s="10"/>
+      <c r="G772" s="11"/>
+      <c r="I772" s="11"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="8"/>
-      <c r="G773" s="9"/>
-      <c r="I773" s="9"/>
+      <c r="A773" s="10"/>
+      <c r="G773" s="11"/>
+      <c r="I773" s="11"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="8"/>
-      <c r="G774" s="9"/>
-      <c r="I774" s="9"/>
+      <c r="A774" s="10"/>
+      <c r="G774" s="11"/>
+      <c r="I774" s="11"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="8"/>
-      <c r="G775" s="9"/>
-      <c r="I775" s="9"/>
+      <c r="A775" s="10"/>
+      <c r="G775" s="11"/>
+      <c r="I775" s="11"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="8"/>
-      <c r="G776" s="9"/>
-      <c r="I776" s="9"/>
+      <c r="A776" s="10"/>
+      <c r="G776" s="11"/>
+      <c r="I776" s="11"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="8"/>
-      <c r="G777" s="9"/>
-      <c r="I777" s="9"/>
+      <c r="A777" s="10"/>
+      <c r="G777" s="11"/>
+      <c r="I777" s="11"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="8"/>
-      <c r="G778" s="9"/>
-      <c r="I778" s="9"/>
+      <c r="A778" s="10"/>
+      <c r="G778" s="11"/>
+      <c r="I778" s="11"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="8"/>
-      <c r="G779" s="9"/>
-      <c r="I779" s="9"/>
+      <c r="A779" s="10"/>
+      <c r="G779" s="11"/>
+      <c r="I779" s="11"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="8"/>
-      <c r="G780" s="9"/>
-      <c r="I780" s="9"/>
+      <c r="A780" s="10"/>
+      <c r="G780" s="11"/>
+      <c r="I780" s="11"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="8"/>
-      <c r="G781" s="9"/>
-      <c r="I781" s="9"/>
+      <c r="A781" s="10"/>
+      <c r="G781" s="11"/>
+      <c r="I781" s="11"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="8"/>
-      <c r="G782" s="9"/>
-      <c r="I782" s="9"/>
+      <c r="A782" s="10"/>
+      <c r="G782" s="11"/>
+      <c r="I782" s="11"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="8"/>
-      <c r="G783" s="9"/>
-      <c r="I783" s="9"/>
+      <c r="A783" s="10"/>
+      <c r="G783" s="11"/>
+      <c r="I783" s="11"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="8"/>
-      <c r="G784" s="9"/>
-      <c r="I784" s="9"/>
+      <c r="A784" s="10"/>
+      <c r="G784" s="11"/>
+      <c r="I784" s="11"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="8"/>
-      <c r="G785" s="9"/>
-      <c r="I785" s="9"/>
+      <c r="A785" s="10"/>
+      <c r="G785" s="11"/>
+      <c r="I785" s="11"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="8"/>
-      <c r="G786" s="9"/>
-      <c r="I786" s="9"/>
+      <c r="A786" s="10"/>
+      <c r="G786" s="11"/>
+      <c r="I786" s="11"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="8"/>
-      <c r="G787" s="9"/>
-      <c r="I787" s="9"/>
+      <c r="A787" s="10"/>
+      <c r="G787" s="11"/>
+      <c r="I787" s="11"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="8"/>
-      <c r="G788" s="9"/>
-      <c r="I788" s="9"/>
+      <c r="A788" s="10"/>
+      <c r="G788" s="11"/>
+      <c r="I788" s="11"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="8"/>
-      <c r="G789" s="9"/>
-      <c r="I789" s="9"/>
+      <c r="A789" s="10"/>
+      <c r="G789" s="11"/>
+      <c r="I789" s="11"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="8"/>
-      <c r="G790" s="9"/>
-      <c r="I790" s="9"/>
+      <c r="A790" s="10"/>
+      <c r="G790" s="11"/>
+      <c r="I790" s="11"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="8"/>
-      <c r="G791" s="9"/>
-      <c r="I791" s="9"/>
+      <c r="A791" s="10"/>
+      <c r="G791" s="11"/>
+      <c r="I791" s="11"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="8"/>
-      <c r="G792" s="9"/>
-      <c r="I792" s="9"/>
+      <c r="A792" s="10"/>
+      <c r="G792" s="11"/>
+      <c r="I792" s="11"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="8"/>
-      <c r="G793" s="9"/>
-      <c r="I793" s="9"/>
+      <c r="A793" s="10"/>
+      <c r="G793" s="11"/>
+      <c r="I793" s="11"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="8"/>
-      <c r="G794" s="9"/>
-      <c r="I794" s="9"/>
+      <c r="A794" s="10"/>
+      <c r="G794" s="11"/>
+      <c r="I794" s="11"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="8"/>
-      <c r="G795" s="9"/>
-      <c r="I795" s="9"/>
+      <c r="A795" s="10"/>
+      <c r="G795" s="11"/>
+      <c r="I795" s="11"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="8"/>
-      <c r="G796" s="9"/>
-      <c r="I796" s="9"/>
+      <c r="A796" s="10"/>
+      <c r="G796" s="11"/>
+      <c r="I796" s="11"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="8"/>
-      <c r="G797" s="9"/>
-      <c r="I797" s="9"/>
+      <c r="A797" s="10"/>
+      <c r="G797" s="11"/>
+      <c r="I797" s="11"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="8"/>
-      <c r="G798" s="9"/>
-      <c r="I798" s="9"/>
+      <c r="A798" s="10"/>
+      <c r="G798" s="11"/>
+      <c r="I798" s="11"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="8"/>
-      <c r="G799" s="9"/>
-      <c r="I799" s="9"/>
+      <c r="A799" s="10"/>
+      <c r="G799" s="11"/>
+      <c r="I799" s="11"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="8"/>
-      <c r="G800" s="9"/>
-      <c r="I800" s="9"/>
+      <c r="A800" s="10"/>
+      <c r="G800" s="11"/>
+      <c r="I800" s="11"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="8"/>
-      <c r="G801" s="9"/>
-      <c r="I801" s="9"/>
+      <c r="A801" s="10"/>
+      <c r="G801" s="11"/>
+      <c r="I801" s="11"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="8"/>
-      <c r="G802" s="9"/>
-      <c r="I802" s="9"/>
+      <c r="A802" s="10"/>
+      <c r="G802" s="11"/>
+      <c r="I802" s="11"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="8"/>
-      <c r="G803" s="9"/>
-      <c r="I803" s="9"/>
+      <c r="A803" s="10"/>
+      <c r="G803" s="11"/>
+      <c r="I803" s="11"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="8"/>
-      <c r="G804" s="9"/>
-      <c r="I804" s="9"/>
+      <c r="A804" s="10"/>
+      <c r="G804" s="11"/>
+      <c r="I804" s="11"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="8"/>
-      <c r="G805" s="9"/>
-      <c r="I805" s="9"/>
+      <c r="A805" s="10"/>
+      <c r="G805" s="11"/>
+      <c r="I805" s="11"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="8"/>
-      <c r="G806" s="9"/>
-      <c r="I806" s="9"/>
+      <c r="A806" s="10"/>
+      <c r="G806" s="11"/>
+      <c r="I806" s="11"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="8"/>
-      <c r="G807" s="9"/>
-      <c r="I807" s="9"/>
+      <c r="A807" s="10"/>
+      <c r="G807" s="11"/>
+      <c r="I807" s="11"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="8"/>
-      <c r="G808" s="9"/>
-      <c r="I808" s="9"/>
+      <c r="A808" s="10"/>
+      <c r="G808" s="11"/>
+      <c r="I808" s="11"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="8"/>
-      <c r="G809" s="9"/>
-      <c r="I809" s="9"/>
+      <c r="A809" s="10"/>
+      <c r="G809" s="11"/>
+      <c r="I809" s="11"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="8"/>
-      <c r="G810" s="9"/>
-      <c r="I810" s="9"/>
+      <c r="A810" s="10"/>
+      <c r="G810" s="11"/>
+      <c r="I810" s="11"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="8"/>
-      <c r="G811" s="9"/>
-      <c r="I811" s="9"/>
+      <c r="A811" s="10"/>
+      <c r="G811" s="11"/>
+      <c r="I811" s="11"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="8"/>
-      <c r="G812" s="9"/>
-      <c r="I812" s="9"/>
+      <c r="A812" s="10"/>
+      <c r="G812" s="11"/>
+      <c r="I812" s="11"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="8"/>
-      <c r="G813" s="9"/>
-      <c r="I813" s="9"/>
+      <c r="A813" s="10"/>
+      <c r="G813" s="11"/>
+      <c r="I813" s="11"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="8"/>
-      <c r="G814" s="9"/>
-      <c r="I814" s="9"/>
+      <c r="A814" s="10"/>
+      <c r="G814" s="11"/>
+      <c r="I814" s="11"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="8"/>
-      <c r="G815" s="9"/>
-      <c r="I815" s="9"/>
+      <c r="A815" s="10"/>
+      <c r="G815" s="11"/>
+      <c r="I815" s="11"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="8"/>
-      <c r="G816" s="9"/>
-      <c r="I816" s="9"/>
+      <c r="A816" s="10"/>
+      <c r="G816" s="11"/>
+      <c r="I816" s="11"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="8"/>
-      <c r="G817" s="9"/>
-      <c r="I817" s="9"/>
+      <c r="A817" s="10"/>
+      <c r="G817" s="11"/>
+      <c r="I817" s="11"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="8"/>
-      <c r="G818" s="9"/>
-      <c r="I818" s="9"/>
+      <c r="A818" s="10"/>
+      <c r="G818" s="11"/>
+      <c r="I818" s="11"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="8"/>
-      <c r="G819" s="9"/>
-      <c r="I819" s="9"/>
+      <c r="A819" s="10"/>
+      <c r="G819" s="11"/>
+      <c r="I819" s="11"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="8"/>
-      <c r="G820" s="9"/>
-      <c r="I820" s="9"/>
+      <c r="A820" s="10"/>
+      <c r="G820" s="11"/>
+      <c r="I820" s="11"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="8"/>
-      <c r="G821" s="9"/>
-      <c r="I821" s="9"/>
+      <c r="A821" s="10"/>
+      <c r="G821" s="11"/>
+      <c r="I821" s="11"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="8"/>
-      <c r="G822" s="9"/>
-      <c r="I822" s="9"/>
+      <c r="A822" s="10"/>
+      <c r="G822" s="11"/>
+      <c r="I822" s="11"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="8"/>
-      <c r="G823" s="9"/>
-      <c r="I823" s="9"/>
+      <c r="A823" s="10"/>
+      <c r="G823" s="11"/>
+      <c r="I823" s="11"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="8"/>
-      <c r="G824" s="9"/>
-      <c r="I824" s="9"/>
+      <c r="A824" s="10"/>
+      <c r="G824" s="11"/>
+      <c r="I824" s="11"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="8"/>
-      <c r="G825" s="9"/>
-      <c r="I825" s="9"/>
+      <c r="A825" s="10"/>
+      <c r="G825" s="11"/>
+      <c r="I825" s="11"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="8"/>
-      <c r="G826" s="9"/>
-      <c r="I826" s="9"/>
+      <c r="A826" s="10"/>
+      <c r="G826" s="11"/>
+      <c r="I826" s="11"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="8"/>
-      <c r="G827" s="9"/>
-      <c r="I827" s="9"/>
+      <c r="A827" s="10"/>
+      <c r="G827" s="11"/>
+      <c r="I827" s="11"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="8"/>
-      <c r="G828" s="9"/>
-      <c r="I828" s="9"/>
+      <c r="A828" s="10"/>
+      <c r="G828" s="11"/>
+      <c r="I828" s="11"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="8"/>
-      <c r="G829" s="9"/>
-      <c r="I829" s="9"/>
+      <c r="A829" s="10"/>
+      <c r="G829" s="11"/>
+      <c r="I829" s="11"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="8"/>
-      <c r="G830" s="9"/>
-      <c r="I830" s="9"/>
+      <c r="A830" s="10"/>
+      <c r="G830" s="11"/>
+      <c r="I830" s="11"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="8"/>
-      <c r="G831" s="9"/>
-      <c r="I831" s="9"/>
+      <c r="A831" s="10"/>
+      <c r="G831" s="11"/>
+      <c r="I831" s="11"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="8"/>
-      <c r="G832" s="9"/>
-      <c r="I832" s="9"/>
+      <c r="A832" s="10"/>
+      <c r="G832" s="11"/>
+      <c r="I832" s="11"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="8"/>
-      <c r="G833" s="9"/>
-      <c r="I833" s="9"/>
+      <c r="A833" s="10"/>
+      <c r="G833" s="11"/>
+      <c r="I833" s="11"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="8"/>
-      <c r="G834" s="9"/>
-      <c r="I834" s="9"/>
+      <c r="A834" s="10"/>
+      <c r="G834" s="11"/>
+      <c r="I834" s="11"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="8"/>
-      <c r="G835" s="9"/>
-      <c r="I835" s="9"/>
+      <c r="A835" s="10"/>
+      <c r="G835" s="11"/>
+      <c r="I835" s="11"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="8"/>
-      <c r="G836" s="9"/>
-      <c r="I836" s="9"/>
+      <c r="A836" s="10"/>
+      <c r="G836" s="11"/>
+      <c r="I836" s="11"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="8"/>
-      <c r="G837" s="9"/>
-      <c r="I837" s="9"/>
+      <c r="A837" s="10"/>
+      <c r="G837" s="11"/>
+      <c r="I837" s="11"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="8"/>
-      <c r="G838" s="9"/>
-      <c r="I838" s="9"/>
+      <c r="A838" s="10"/>
+      <c r="G838" s="11"/>
+      <c r="I838" s="11"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="8"/>
-      <c r="G839" s="9"/>
-      <c r="I839" s="9"/>
+      <c r="A839" s="10"/>
+      <c r="G839" s="11"/>
+      <c r="I839" s="11"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="8"/>
-      <c r="G840" s="9"/>
-      <c r="I840" s="9"/>
+      <c r="A840" s="10"/>
+      <c r="G840" s="11"/>
+      <c r="I840" s="11"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="8"/>
-      <c r="G841" s="9"/>
-      <c r="I841" s="9"/>
+      <c r="A841" s="10"/>
+      <c r="G841" s="11"/>
+      <c r="I841" s="11"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="8"/>
-      <c r="G842" s="9"/>
-      <c r="I842" s="9"/>
+      <c r="A842" s="10"/>
+      <c r="G842" s="11"/>
+      <c r="I842" s="11"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="8"/>
-      <c r="G843" s="9"/>
-      <c r="I843" s="9"/>
+      <c r="A843" s="10"/>
+      <c r="G843" s="11"/>
+      <c r="I843" s="11"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="8"/>
-      <c r="G844" s="9"/>
-      <c r="I844" s="9"/>
+      <c r="A844" s="10"/>
+      <c r="G844" s="11"/>
+      <c r="I844" s="11"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="8"/>
-      <c r="G845" s="9"/>
-      <c r="I845" s="9"/>
+      <c r="A845" s="10"/>
+      <c r="G845" s="11"/>
+      <c r="I845" s="11"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="8"/>
-      <c r="G846" s="9"/>
-      <c r="I846" s="9"/>
+      <c r="A846" s="10"/>
+      <c r="G846" s="11"/>
+      <c r="I846" s="11"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="8"/>
-      <c r="G847" s="9"/>
-      <c r="I847" s="9"/>
+      <c r="A847" s="10"/>
+      <c r="G847" s="11"/>
+      <c r="I847" s="11"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="8"/>
-      <c r="G848" s="9"/>
-      <c r="I848" s="9"/>
+      <c r="A848" s="10"/>
+      <c r="G848" s="11"/>
+      <c r="I848" s="11"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="8"/>
-      <c r="G849" s="9"/>
-      <c r="I849" s="9"/>
+      <c r="A849" s="10"/>
+      <c r="G849" s="11"/>
+      <c r="I849" s="11"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="8"/>
-      <c r="G850" s="9"/>
-      <c r="I850" s="9"/>
+      <c r="A850" s="10"/>
+      <c r="G850" s="11"/>
+      <c r="I850" s="11"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="8"/>
-      <c r="G851" s="9"/>
-      <c r="I851" s="9"/>
+      <c r="A851" s="10"/>
+      <c r="G851" s="11"/>
+      <c r="I851" s="11"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="8"/>
-      <c r="G852" s="9"/>
-      <c r="I852" s="9"/>
+      <c r="A852" s="10"/>
+      <c r="G852" s="11"/>
+      <c r="I852" s="11"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="8"/>
-      <c r="G853" s="9"/>
-      <c r="I853" s="9"/>
+      <c r="A853" s="10"/>
+      <c r="G853" s="11"/>
+      <c r="I853" s="11"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="8"/>
-      <c r="G854" s="9"/>
-      <c r="I854" s="9"/>
+      <c r="A854" s="10"/>
+      <c r="G854" s="11"/>
+      <c r="I854" s="11"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="8"/>
-      <c r="G855" s="9"/>
-      <c r="I855" s="9"/>
+      <c r="A855" s="10"/>
+      <c r="G855" s="11"/>
+      <c r="I855" s="11"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="8"/>
-      <c r="G856" s="9"/>
-      <c r="I856" s="9"/>
+      <c r="A856" s="10"/>
+      <c r="G856" s="11"/>
+      <c r="I856" s="11"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="8"/>
-      <c r="G857" s="9"/>
-      <c r="I857" s="9"/>
+      <c r="A857" s="10"/>
+      <c r="G857" s="11"/>
+      <c r="I857" s="11"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="8"/>
-      <c r="G858" s="9"/>
-      <c r="I858" s="9"/>
+      <c r="A858" s="10"/>
+      <c r="G858" s="11"/>
+      <c r="I858" s="11"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="8"/>
-      <c r="G859" s="9"/>
-      <c r="I859" s="9"/>
+      <c r="A859" s="10"/>
+      <c r="G859" s="11"/>
+      <c r="I859" s="11"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="8"/>
-      <c r="G860" s="9"/>
-      <c r="I860" s="9"/>
+      <c r="A860" s="10"/>
+      <c r="G860" s="11"/>
+      <c r="I860" s="11"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="8"/>
-      <c r="G861" s="9"/>
-      <c r="I861" s="9"/>
+      <c r="A861" s="10"/>
+      <c r="G861" s="11"/>
+      <c r="I861" s="11"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="8"/>
-      <c r="G862" s="9"/>
-      <c r="I862" s="9"/>
+      <c r="A862" s="10"/>
+      <c r="G862" s="11"/>
+      <c r="I862" s="11"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="8"/>
-      <c r="G863" s="9"/>
-      <c r="I863" s="9"/>
+      <c r="A863" s="10"/>
+      <c r="G863" s="11"/>
+      <c r="I863" s="11"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="8"/>
-      <c r="G864" s="9"/>
-      <c r="I864" s="9"/>
+      <c r="A864" s="10"/>
+      <c r="G864" s="11"/>
+      <c r="I864" s="11"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="8"/>
-      <c r="G865" s="9"/>
-      <c r="I865" s="9"/>
+      <c r="A865" s="10"/>
+      <c r="G865" s="11"/>
+      <c r="I865" s="11"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="8"/>
-      <c r="G866" s="9"/>
-      <c r="I866" s="9"/>
+      <c r="A866" s="10"/>
+      <c r="G866" s="11"/>
+      <c r="I866" s="11"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="8"/>
-      <c r="G867" s="9"/>
-      <c r="I867" s="9"/>
+      <c r="A867" s="10"/>
+      <c r="G867" s="11"/>
+      <c r="I867" s="11"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="8"/>
-      <c r="G868" s="9"/>
-      <c r="I868" s="9"/>
+      <c r="A868" s="10"/>
+      <c r="G868" s="11"/>
+      <c r="I868" s="11"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="8"/>
-      <c r="G869" s="9"/>
-      <c r="I869" s="9"/>
+      <c r="A869" s="10"/>
+      <c r="G869" s="11"/>
+      <c r="I869" s="11"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="8"/>
-      <c r="G870" s="9"/>
-      <c r="I870" s="9"/>
+      <c r="A870" s="10"/>
+      <c r="G870" s="11"/>
+      <c r="I870" s="11"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="8"/>
-      <c r="G871" s="9"/>
-      <c r="I871" s="9"/>
+      <c r="A871" s="10"/>
+      <c r="G871" s="11"/>
+      <c r="I871" s="11"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="8"/>
-      <c r="G872" s="9"/>
-      <c r="I872" s="9"/>
+      <c r="A872" s="10"/>
+      <c r="G872" s="11"/>
+      <c r="I872" s="11"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="8"/>
-      <c r="G873" s="9"/>
-      <c r="I873" s="9"/>
+      <c r="A873" s="10"/>
+      <c r="G873" s="11"/>
+      <c r="I873" s="11"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="8"/>
-      <c r="G874" s="9"/>
-      <c r="I874" s="9"/>
+      <c r="A874" s="10"/>
+      <c r="G874" s="11"/>
+      <c r="I874" s="11"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="8"/>
-      <c r="G875" s="9"/>
-      <c r="I875" s="9"/>
+      <c r="A875" s="10"/>
+      <c r="G875" s="11"/>
+      <c r="I875" s="11"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="8"/>
-      <c r="G876" s="9"/>
-      <c r="I876" s="9"/>
+      <c r="A876" s="10"/>
+      <c r="G876" s="11"/>
+      <c r="I876" s="11"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="8"/>
-      <c r="G877" s="9"/>
-      <c r="I877" s="9"/>
+      <c r="A877" s="10"/>
+      <c r="G877" s="11"/>
+      <c r="I877" s="11"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="8"/>
-      <c r="G878" s="9"/>
-      <c r="I878" s="9"/>
+      <c r="A878" s="10"/>
+      <c r="G878" s="11"/>
+      <c r="I878" s="11"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="8"/>
-      <c r="G879" s="9"/>
-      <c r="I879" s="9"/>
+      <c r="A879" s="10"/>
+      <c r="G879" s="11"/>
+      <c r="I879" s="11"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="8"/>
-      <c r="G880" s="9"/>
-      <c r="I880" s="9"/>
+      <c r="A880" s="10"/>
+      <c r="G880" s="11"/>
+      <c r="I880" s="11"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="8"/>
-      <c r="G881" s="9"/>
-      <c r="I881" s="9"/>
+      <c r="A881" s="10"/>
+      <c r="G881" s="11"/>
+      <c r="I881" s="11"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="8"/>
-      <c r="G882" s="9"/>
-      <c r="I882" s="9"/>
+      <c r="A882" s="10"/>
+      <c r="G882" s="11"/>
+      <c r="I882" s="11"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="8"/>
-      <c r="G883" s="9"/>
-      <c r="I883" s="9"/>
+      <c r="A883" s="10"/>
+      <c r="G883" s="11"/>
+      <c r="I883" s="11"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="8"/>
-      <c r="G884" s="9"/>
-      <c r="I884" s="9"/>
+      <c r="A884" s="10"/>
+      <c r="G884" s="11"/>
+      <c r="I884" s="11"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="8"/>
-      <c r="G885" s="9"/>
-      <c r="I885" s="9"/>
+      <c r="A885" s="10"/>
+      <c r="G885" s="11"/>
+      <c r="I885" s="11"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="8"/>
-      <c r="G886" s="9"/>
-      <c r="I886" s="9"/>
+      <c r="A886" s="10"/>
+      <c r="G886" s="11"/>
+      <c r="I886" s="11"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="8"/>
-      <c r="G887" s="9"/>
-      <c r="I887" s="9"/>
+      <c r="A887" s="10"/>
+      <c r="G887" s="11"/>
+      <c r="I887" s="11"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="8"/>
-      <c r="G888" s="9"/>
-      <c r="I888" s="9"/>
+      <c r="A888" s="10"/>
+      <c r="G888" s="11"/>
+      <c r="I888" s="11"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="8"/>
-      <c r="G889" s="9"/>
-      <c r="I889" s="9"/>
+      <c r="A889" s="10"/>
+      <c r="G889" s="11"/>
+      <c r="I889" s="11"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="8"/>
-      <c r="G890" s="9"/>
-      <c r="I890" s="9"/>
+      <c r="A890" s="10"/>
+      <c r="G890" s="11"/>
+      <c r="I890" s="11"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="8"/>
-      <c r="G891" s="9"/>
-      <c r="I891" s="9"/>
+      <c r="A891" s="10"/>
+      <c r="G891" s="11"/>
+      <c r="I891" s="11"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="8"/>
-      <c r="G892" s="9"/>
-      <c r="I892" s="9"/>
+      <c r="A892" s="10"/>
+      <c r="G892" s="11"/>
+      <c r="I892" s="11"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="8"/>
-      <c r="G893" s="9"/>
-      <c r="I893" s="9"/>
+      <c r="A893" s="10"/>
+      <c r="G893" s="11"/>
+      <c r="I893" s="11"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="8"/>
-      <c r="G894" s="9"/>
-      <c r="I894" s="9"/>
+      <c r="A894" s="10"/>
+      <c r="G894" s="11"/>
+      <c r="I894" s="11"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="8"/>
-      <c r="G895" s="9"/>
-      <c r="I895" s="9"/>
+      <c r="A895" s="10"/>
+      <c r="G895" s="11"/>
+      <c r="I895" s="11"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="8"/>
-      <c r="G896" s="9"/>
-      <c r="I896" s="9"/>
+      <c r="A896" s="10"/>
+      <c r="G896" s="11"/>
+      <c r="I896" s="11"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="8"/>
-      <c r="G897" s="9"/>
-      <c r="I897" s="9"/>
+      <c r="A897" s="10"/>
+      <c r="G897" s="11"/>
+      <c r="I897" s="11"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="8"/>
-      <c r="G898" s="9"/>
-      <c r="I898" s="9"/>
+      <c r="A898" s="10"/>
+      <c r="G898" s="11"/>
+      <c r="I898" s="11"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="8"/>
-      <c r="G899" s="9"/>
-      <c r="I899" s="9"/>
+      <c r="A899" s="10"/>
+      <c r="G899" s="11"/>
+      <c r="I899" s="11"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="8"/>
-      <c r="G900" s="9"/>
-      <c r="I900" s="9"/>
+      <c r="A900" s="10"/>
+      <c r="G900" s="11"/>
+      <c r="I900" s="11"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="8"/>
-      <c r="G901" s="9"/>
-      <c r="I901" s="9"/>
+      <c r="A901" s="10"/>
+      <c r="G901" s="11"/>
+      <c r="I901" s="11"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="8"/>
-      <c r="G902" s="9"/>
-      <c r="I902" s="9"/>
+      <c r="A902" s="10"/>
+      <c r="G902" s="11"/>
+      <c r="I902" s="11"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="8"/>
-      <c r="G903" s="9"/>
-      <c r="I903" s="9"/>
+      <c r="A903" s="10"/>
+      <c r="G903" s="11"/>
+      <c r="I903" s="11"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="8"/>
-      <c r="G904" s="9"/>
-      <c r="I904" s="9"/>
+      <c r="A904" s="10"/>
+      <c r="G904" s="11"/>
+      <c r="I904" s="11"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="8"/>
-      <c r="G905" s="9"/>
-      <c r="I905" s="9"/>
+      <c r="A905" s="10"/>
+      <c r="G905" s="11"/>
+      <c r="I905" s="11"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="8"/>
-      <c r="G906" s="9"/>
-      <c r="I906" s="9"/>
+      <c r="A906" s="10"/>
+      <c r="G906" s="11"/>
+      <c r="I906" s="11"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="8"/>
-      <c r="G907" s="9"/>
-      <c r="I907" s="9"/>
+      <c r="A907" s="10"/>
+      <c r="G907" s="11"/>
+      <c r="I907" s="11"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="8"/>
-      <c r="G908" s="9"/>
-      <c r="I908" s="9"/>
+      <c r="A908" s="10"/>
+      <c r="G908" s="11"/>
+      <c r="I908" s="11"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="8"/>
-      <c r="G909" s="9"/>
-      <c r="I909" s="9"/>
+      <c r="A909" s="10"/>
+      <c r="G909" s="11"/>
+      <c r="I909" s="11"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="8"/>
-      <c r="G910" s="9"/>
-      <c r="I910" s="9"/>
+      <c r="A910" s="10"/>
+      <c r="G910" s="11"/>
+      <c r="I910" s="11"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="8"/>
-      <c r="G911" s="9"/>
-      <c r="I911" s="9"/>
+      <c r="A911" s="10"/>
+      <c r="G911" s="11"/>
+      <c r="I911" s="11"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="8"/>
-      <c r="G912" s="9"/>
-      <c r="I912" s="9"/>
+      <c r="A912" s="10"/>
+      <c r="G912" s="11"/>
+      <c r="I912" s="11"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="8"/>
-      <c r="G913" s="9"/>
-      <c r="I913" s="9"/>
+      <c r="A913" s="10"/>
+      <c r="G913" s="11"/>
+      <c r="I913" s="11"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="8"/>
-      <c r="G914" s="9"/>
-      <c r="I914" s="9"/>
+      <c r="A914" s="10"/>
+      <c r="G914" s="11"/>
+      <c r="I914" s="11"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="8"/>
-      <c r="G915" s="9"/>
-      <c r="I915" s="9"/>
+      <c r="A915" s="10"/>
+      <c r="G915" s="11"/>
+      <c r="I915" s="11"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="8"/>
-      <c r="G916" s="9"/>
-      <c r="I916" s="9"/>
+      <c r="A916" s="10"/>
+      <c r="G916" s="11"/>
+      <c r="I916" s="11"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="8"/>
-      <c r="G917" s="9"/>
-      <c r="I917" s="9"/>
+      <c r="A917" s="10"/>
+      <c r="G917" s="11"/>
+      <c r="I917" s="11"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="8"/>
-      <c r="G918" s="9"/>
-      <c r="I918" s="9"/>
+      <c r="A918" s="10"/>
+      <c r="G918" s="11"/>
+      <c r="I918" s="11"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="8"/>
-      <c r="G919" s="9"/>
-      <c r="I919" s="9"/>
+      <c r="A919" s="10"/>
+      <c r="G919" s="11"/>
+      <c r="I919" s="11"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="8"/>
-      <c r="G920" s="9"/>
-      <c r="I920" s="9"/>
+      <c r="A920" s="10"/>
+      <c r="G920" s="11"/>
+      <c r="I920" s="11"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="8"/>
-      <c r="G921" s="9"/>
-      <c r="I921" s="9"/>
+      <c r="A921" s="10"/>
+      <c r="G921" s="11"/>
+      <c r="I921" s="11"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="8"/>
-      <c r="G922" s="9"/>
-      <c r="I922" s="9"/>
+      <c r="A922" s="10"/>
+      <c r="G922" s="11"/>
+      <c r="I922" s="11"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="8"/>
-      <c r="G923" s="9"/>
-      <c r="I923" s="9"/>
+      <c r="A923" s="10"/>
+      <c r="G923" s="11"/>
+      <c r="I923" s="11"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="8"/>
-      <c r="G924" s="9"/>
-      <c r="I924" s="9"/>
+      <c r="A924" s="10"/>
+      <c r="G924" s="11"/>
+      <c r="I924" s="11"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="8"/>
-      <c r="G925" s="9"/>
-      <c r="I925" s="9"/>
+      <c r="A925" s="10"/>
+      <c r="G925" s="11"/>
+      <c r="I925" s="11"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="8"/>
-      <c r="G926" s="9"/>
-      <c r="I926" s="9"/>
+      <c r="A926" s="10"/>
+      <c r="G926" s="11"/>
+      <c r="I926" s="11"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="8"/>
-      <c r="G927" s="9"/>
-      <c r="I927" s="9"/>
+      <c r="A927" s="10"/>
+      <c r="G927" s="11"/>
+      <c r="I927" s="11"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="8"/>
-      <c r="G928" s="9"/>
-      <c r="I928" s="9"/>
+      <c r="A928" s="10"/>
+      <c r="G928" s="11"/>
+      <c r="I928" s="11"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="8"/>
-      <c r="G929" s="9"/>
-      <c r="I929" s="9"/>
+      <c r="A929" s="10"/>
+      <c r="G929" s="11"/>
+      <c r="I929" s="11"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="8"/>
-      <c r="G930" s="9"/>
-      <c r="I930" s="9"/>
+      <c r="A930" s="10"/>
+      <c r="G930" s="11"/>
+      <c r="I930" s="11"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="8"/>
-      <c r="G931" s="9"/>
-      <c r="I931" s="9"/>
+      <c r="A931" s="10"/>
+      <c r="G931" s="11"/>
+      <c r="I931" s="11"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="8"/>
-      <c r="G932" s="9"/>
-      <c r="I932" s="9"/>
+      <c r="A932" s="10"/>
+      <c r="G932" s="11"/>
+      <c r="I932" s="11"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="8"/>
-      <c r="G933" s="9"/>
-      <c r="I933" s="9"/>
+      <c r="A933" s="10"/>
+      <c r="G933" s="11"/>
+      <c r="I933" s="11"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="8"/>
-      <c r="G934" s="9"/>
-      <c r="I934" s="9"/>
+      <c r="A934" s="10"/>
+      <c r="G934" s="11"/>
+      <c r="I934" s="11"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="8"/>
-      <c r="G935" s="9"/>
-      <c r="I935" s="9"/>
+      <c r="A935" s="10"/>
+      <c r="G935" s="11"/>
+      <c r="I935" s="11"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="8"/>
-      <c r="G936" s="9"/>
-      <c r="I936" s="9"/>
+      <c r="A936" s="10"/>
+      <c r="G936" s="11"/>
+      <c r="I936" s="11"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="8"/>
-      <c r="G937" s="9"/>
-      <c r="I937" s="9"/>
+      <c r="A937" s="10"/>
+      <c r="G937" s="11"/>
+      <c r="I937" s="11"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="8"/>
-      <c r="G938" s="9"/>
-      <c r="I938" s="9"/>
+      <c r="A938" s="10"/>
+      <c r="G938" s="11"/>
+      <c r="I938" s="11"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="8"/>
-      <c r="G939" s="9"/>
-      <c r="I939" s="9"/>
+      <c r="A939" s="10"/>
+      <c r="G939" s="11"/>
+      <c r="I939" s="11"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="8"/>
-      <c r="G940" s="9"/>
-      <c r="I940" s="9"/>
+      <c r="A940" s="10"/>
+      <c r="G940" s="11"/>
+      <c r="I940" s="11"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="8"/>
-      <c r="G941" s="9"/>
-      <c r="I941" s="9"/>
+      <c r="A941" s="10"/>
+      <c r="G941" s="11"/>
+      <c r="I941" s="11"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="8"/>
-      <c r="G942" s="9"/>
-      <c r="I942" s="9"/>
+      <c r="A942" s="10"/>
+      <c r="G942" s="11"/>
+      <c r="I942" s="11"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="8"/>
-      <c r="G943" s="9"/>
-      <c r="I943" s="9"/>
+      <c r="A943" s="10"/>
+      <c r="G943" s="11"/>
+      <c r="I943" s="11"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="8"/>
-      <c r="G944" s="9"/>
-      <c r="I944" s="9"/>
+      <c r="A944" s="10"/>
+      <c r="G944" s="11"/>
+      <c r="I944" s="11"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="8"/>
-      <c r="G945" s="9"/>
-      <c r="I945" s="9"/>
+      <c r="A945" s="10"/>
+      <c r="G945" s="11"/>
+      <c r="I945" s="11"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="8"/>
-      <c r="G946" s="9"/>
-      <c r="I946" s="9"/>
+      <c r="A946" s="10"/>
+      <c r="G946" s="11"/>
+      <c r="I946" s="11"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="8"/>
-      <c r="G947" s="9"/>
-      <c r="I947" s="9"/>
+      <c r="A947" s="10"/>
+      <c r="G947" s="11"/>
+      <c r="I947" s="11"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="8"/>
-      <c r="G948" s="9"/>
-      <c r="I948" s="9"/>
+      <c r="A948" s="10"/>
+      <c r="G948" s="11"/>
+      <c r="I948" s="11"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="8"/>
-      <c r="G949" s="9"/>
-      <c r="I949" s="9"/>
+      <c r="A949" s="10"/>
+      <c r="G949" s="11"/>
+      <c r="I949" s="11"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="8"/>
-      <c r="G950" s="9"/>
-      <c r="I950" s="9"/>
+      <c r="A950" s="10"/>
+      <c r="G950" s="11"/>
+      <c r="I950" s="11"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="8"/>
-      <c r="G951" s="9"/>
-      <c r="I951" s="9"/>
+      <c r="A951" s="10"/>
+      <c r="G951" s="11"/>
+      <c r="I951" s="11"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="8"/>
-      <c r="G952" s="9"/>
-      <c r="I952" s="9"/>
+      <c r="A952" s="10"/>
+      <c r="G952" s="11"/>
+      <c r="I952" s="11"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="8"/>
-      <c r="G953" s="9"/>
-      <c r="I953" s="9"/>
+      <c r="A953" s="10"/>
+      <c r="G953" s="11"/>
+      <c r="I953" s="11"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="8"/>
-      <c r="G954" s="9"/>
-      <c r="I954" s="9"/>
+      <c r="A954" s="10"/>
+      <c r="G954" s="11"/>
+      <c r="I954" s="11"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="8"/>
-      <c r="G955" s="9"/>
-      <c r="I955" s="9"/>
+      <c r="A955" s="10"/>
+      <c r="G955" s="11"/>
+      <c r="I955" s="11"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="8"/>
-      <c r="G956" s="9"/>
-      <c r="I956" s="9"/>
+      <c r="A956" s="10"/>
+      <c r="G956" s="11"/>
+      <c r="I956" s="11"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="8"/>
-      <c r="G957" s="9"/>
-      <c r="I957" s="9"/>
+      <c r="A957" s="10"/>
+      <c r="G957" s="11"/>
+      <c r="I957" s="11"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="8"/>
-      <c r="G958" s="9"/>
-      <c r="I958" s="9"/>
+      <c r="A958" s="10"/>
+      <c r="G958" s="11"/>
+      <c r="I958" s="11"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="8"/>
-      <c r="G959" s="9"/>
-      <c r="I959" s="9"/>
+      <c r="A959" s="10"/>
+      <c r="G959" s="11"/>
+      <c r="I959" s="11"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="8"/>
-      <c r="G960" s="9"/>
-      <c r="I960" s="9"/>
+      <c r="A960" s="10"/>
+      <c r="G960" s="11"/>
+      <c r="I960" s="11"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="8"/>
-      <c r="G961" s="9"/>
-      <c r="I961" s="9"/>
+      <c r="A961" s="10"/>
+      <c r="G961" s="11"/>
+      <c r="I961" s="11"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="8"/>
-      <c r="G962" s="9"/>
-      <c r="I962" s="9"/>
+      <c r="A962" s="10"/>
+      <c r="G962" s="11"/>
+      <c r="I962" s="11"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="8"/>
-      <c r="G963" s="9"/>
-      <c r="I963" s="9"/>
+      <c r="A963" s="10"/>
+      <c r="G963" s="11"/>
+      <c r="I963" s="11"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="8"/>
-      <c r="G964" s="9"/>
-      <c r="I964" s="9"/>
+      <c r="A964" s="10"/>
+      <c r="G964" s="11"/>
+      <c r="I964" s="11"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="8"/>
-      <c r="G965" s="9"/>
-      <c r="I965" s="9"/>
+      <c r="A965" s="10"/>
+      <c r="G965" s="11"/>
+      <c r="I965" s="11"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="8"/>
-      <c r="G966" s="9"/>
-      <c r="I966" s="9"/>
+      <c r="A966" s="10"/>
+      <c r="G966" s="11"/>
+      <c r="I966" s="11"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="8"/>
-      <c r="G967" s="9"/>
-      <c r="I967" s="9"/>
+      <c r="A967" s="10"/>
+      <c r="G967" s="11"/>
+      <c r="I967" s="11"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="8"/>
-      <c r="G968" s="9"/>
-      <c r="I968" s="9"/>
+      <c r="A968" s="10"/>
+      <c r="G968" s="11"/>
+      <c r="I968" s="11"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="8"/>
-      <c r="G969" s="9"/>
-      <c r="I969" s="9"/>
+      <c r="A969" s="10"/>
+      <c r="G969" s="11"/>
+      <c r="I969" s="11"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="8"/>
-      <c r="G970" s="9"/>
-      <c r="I970" s="9"/>
+      <c r="A970" s="10"/>
+      <c r="G970" s="11"/>
+      <c r="I970" s="11"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="8"/>
-      <c r="G971" s="9"/>
-      <c r="I971" s="9"/>
+      <c r="A971" s="10"/>
+      <c r="G971" s="11"/>
+      <c r="I971" s="11"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="8"/>
-      <c r="G972" s="9"/>
-      <c r="I972" s="9"/>
+      <c r="A972" s="10"/>
+      <c r="G972" s="11"/>
+      <c r="I972" s="11"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="8"/>
-      <c r="G973" s="9"/>
-      <c r="I973" s="9"/>
+      <c r="A973" s="10"/>
+      <c r="G973" s="11"/>
+      <c r="I973" s="11"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="8"/>
-      <c r="G974" s="9"/>
-      <c r="I974" s="9"/>
+      <c r="A974" s="10"/>
+      <c r="G974" s="11"/>
+      <c r="I974" s="11"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="8"/>
-      <c r="G975" s="9"/>
-      <c r="I975" s="9"/>
+      <c r="A975" s="10"/>
+      <c r="G975" s="11"/>
+      <c r="I975" s="11"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="8"/>
-      <c r="G976" s="9"/>
-      <c r="I976" s="9"/>
+      <c r="A976" s="10"/>
+      <c r="G976" s="11"/>
+      <c r="I976" s="11"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="8"/>
-      <c r="G977" s="9"/>
-      <c r="I977" s="9"/>
+      <c r="A977" s="10"/>
+      <c r="G977" s="11"/>
+      <c r="I977" s="11"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="8"/>
-      <c r="G978" s="9"/>
-      <c r="I978" s="9"/>
+      <c r="A978" s="10"/>
+      <c r="G978" s="11"/>
+      <c r="I978" s="11"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="8"/>
-      <c r="G979" s="9"/>
-      <c r="I979" s="9"/>
+      <c r="A979" s="10"/>
+      <c r="G979" s="11"/>
+      <c r="I979" s="11"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="8"/>
-      <c r="G980" s="9"/>
-      <c r="I980" s="9"/>
+      <c r="A980" s="10"/>
+      <c r="G980" s="11"/>
+      <c r="I980" s="11"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="8"/>
-      <c r="G981" s="9"/>
-      <c r="I981" s="9"/>
+      <c r="A981" s="10"/>
+      <c r="G981" s="11"/>
+      <c r="I981" s="11"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="8"/>
-      <c r="G982" s="9"/>
-      <c r="I982" s="9"/>
+      <c r="A982" s="10"/>
+      <c r="G982" s="11"/>
+      <c r="I982" s="11"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="8"/>
-      <c r="G983" s="9"/>
-      <c r="I983" s="9"/>
+      <c r="A983" s="10"/>
+      <c r="G983" s="11"/>
+      <c r="I983" s="11"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="8"/>
-      <c r="G984" s="9"/>
-      <c r="I984" s="9"/>
+      <c r="A984" s="10"/>
+      <c r="G984" s="11"/>
+      <c r="I984" s="11"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="8"/>
-      <c r="G985" s="9"/>
-      <c r="I985" s="9"/>
+      <c r="A985" s="10"/>
+      <c r="G985" s="11"/>
+      <c r="I985" s="11"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="8"/>
-      <c r="G986" s="9"/>
-      <c r="I986" s="9"/>
+      <c r="A986" s="10"/>
+      <c r="G986" s="11"/>
+      <c r="I986" s="11"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="8"/>
-      <c r="G987" s="9"/>
-      <c r="I987" s="9"/>
+      <c r="A987" s="10"/>
+      <c r="G987" s="11"/>
+      <c r="I987" s="11"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="8"/>
-      <c r="G988" s="9"/>
-      <c r="I988" s="9"/>
+      <c r="A988" s="10"/>
+      <c r="G988" s="11"/>
+      <c r="I988" s="11"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="8"/>
-      <c r="G989" s="9"/>
-      <c r="I989" s="9"/>
+      <c r="A989" s="10"/>
+      <c r="G989" s="11"/>
+      <c r="I989" s="11"/>
     </row>
     <row r="990">
-      <c r="A990" s="8"/>
-      <c r="G990" s="9"/>
-      <c r="I990" s="9"/>
+      <c r="A990" s="10"/>
+      <c r="G990" s="11"/>
+      <c r="I990" s="11"/>
     </row>
     <row r="991">
-      <c r="A991" s="8"/>
-      <c r="G991" s="9"/>
-      <c r="I991" s="9"/>
+      <c r="A991" s="10"/>
+      <c r="G991" s="11"/>
+      <c r="I991" s="11"/>
     </row>
     <row r="992">
-      <c r="A992" s="8"/>
-      <c r="G992" s="9"/>
-      <c r="I992" s="9"/>
+      <c r="A992" s="10"/>
+      <c r="G992" s="11"/>
+      <c r="I992" s="11"/>
     </row>
     <row r="993">
-      <c r="A993" s="8"/>
-      <c r="G993" s="9"/>
-      <c r="I993" s="9"/>
+      <c r="A993" s="10"/>
+      <c r="G993" s="11"/>
+      <c r="I993" s="11"/>
     </row>
     <row r="994">
-      <c r="A994" s="8"/>
-      <c r="G994" s="9"/>
-      <c r="I994" s="9"/>
+      <c r="A994" s="10"/>
+      <c r="G994" s="11"/>
+      <c r="I994" s="11"/>
     </row>
     <row r="995">
-      <c r="A995" s="8"/>
-      <c r="G995" s="9"/>
-      <c r="I995" s="9"/>
+      <c r="A995" s="10"/>
+      <c r="G995" s="11"/>
+      <c r="I995" s="11"/>
     </row>
     <row r="996">
-      <c r="A996" s="8"/>
-      <c r="G996" s="9"/>
-      <c r="I996" s="9"/>
+      <c r="A996" s="10"/>
+      <c r="G996" s="11"/>
+      <c r="I996" s="11"/>
     </row>
     <row r="997">
-      <c r="A997" s="8"/>
-      <c r="G997" s="9"/>
-      <c r="I997" s="9"/>
+      <c r="A997" s="10"/>
+      <c r="G997" s="11"/>
+      <c r="I997" s="11"/>
     </row>
     <row r="998">
-      <c r="A998" s="8"/>
-      <c r="G998" s="9"/>
-      <c r="I998" s="9"/>
+      <c r="A998" s="10"/>
+      <c r="G998" s="11"/>
+      <c r="I998" s="11"/>
     </row>
     <row r="999">
-      <c r="A999" s="8"/>
-      <c r="G999" s="9"/>
-      <c r="I999" s="9"/>
+      <c r="A999" s="10"/>
+      <c r="G999" s="11"/>
+      <c r="I999" s="11"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="8"/>
-      <c r="G1000" s="9"/>
-      <c r="I1000" s="9"/>
+      <c r="A1000" s="10"/>
+      <c r="G1000" s="11"/>
+      <c r="I1000" s="11"/>
     </row>
   </sheetData>
   <printOptions/>

--- a/TNR_PREJDD/PREJDD.ST.MAG.xlsx
+++ b/TNR_PREJDD/PREJDD.ST.MAG.xlsx
@@ -9,15 +9,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mg7op8ws/q6bzUMax1O2uPB8BpsOA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="vfpEgmLTmivpQ9AtRgr+tZCzm9hiPXrA9W68JoaquRs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>Version de Mainta pour laquelle le JDD de référence est validé</t>
+  </si>
+  <si>
+    <t>24/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout rubrique MAG.ID_NUMCORP </t>
+  </si>
+  <si>
+    <t>X3i</t>
+  </si>
+  <si>
+    <t>V13.0.2</t>
   </si>
   <si>
     <t>CAS DE TEST (MAG)</t>
@@ -68,6 +80,9 @@
   </si>
   <si>
     <t>DT_DERCLA</t>
+  </si>
+  <si>
+    <t>ID_NUMCORP</t>
   </si>
 </sst>
 </file>
@@ -105,6 +120,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -113,10 +132,6 @@
       <b/>
       <sz val="10.0"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -152,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -168,11 +183,22 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -189,14 +215,29 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -458,11 +499,21 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -1567,5028 +1618,5031 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="F1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="A4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="A5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="A14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="A22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="A23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="A31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="A32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="15"/>
+      <c r="G35" s="16"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="A36" s="15"/>
+      <c r="G36" s="16"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="A37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="A38" s="15"/>
+      <c r="G38" s="16"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="G39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="A39" s="15"/>
+      <c r="G39" s="16"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="G40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="A40" s="15"/>
+      <c r="G40" s="16"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="G41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="A41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="G42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="A42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="G43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="A43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="G44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="A44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="I44" s="16"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="G45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="A45" s="15"/>
+      <c r="G45" s="16"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="G46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="15"/>
+      <c r="G46" s="16"/>
+      <c r="I46" s="16"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="G47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="A47" s="15"/>
+      <c r="G47" s="16"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="G48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="A48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="I48" s="16"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="G49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="A49" s="15"/>
+      <c r="G49" s="16"/>
+      <c r="I49" s="16"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="G50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="A50" s="15"/>
+      <c r="G50" s="16"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="G51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="A51" s="15"/>
+      <c r="G51" s="16"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="G52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="A52" s="15"/>
+      <c r="G52" s="16"/>
+      <c r="I52" s="16"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="G53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="A53" s="15"/>
+      <c r="G53" s="16"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="G54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="A54" s="15"/>
+      <c r="G54" s="16"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="G55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="A55" s="15"/>
+      <c r="G55" s="16"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="G56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="A56" s="15"/>
+      <c r="G56" s="16"/>
+      <c r="I56" s="16"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="G57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="A57" s="15"/>
+      <c r="G57" s="16"/>
+      <c r="I57" s="16"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="G58" s="11"/>
-      <c r="I58" s="11"/>
+      <c r="A58" s="15"/>
+      <c r="G58" s="16"/>
+      <c r="I58" s="16"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="10"/>
-      <c r="G59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="A59" s="15"/>
+      <c r="G59" s="16"/>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="G60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="A60" s="15"/>
+      <c r="G60" s="16"/>
+      <c r="I60" s="16"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="G61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="A61" s="15"/>
+      <c r="G61" s="16"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="10"/>
-      <c r="G62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="A62" s="15"/>
+      <c r="G62" s="16"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="G63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="A63" s="15"/>
+      <c r="G63" s="16"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="10"/>
-      <c r="G64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="A64" s="15"/>
+      <c r="G64" s="16"/>
+      <c r="I64" s="16"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="G65" s="11"/>
-      <c r="I65" s="11"/>
+      <c r="A65" s="15"/>
+      <c r="G65" s="16"/>
+      <c r="I65" s="16"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="10"/>
-      <c r="G66" s="11"/>
-      <c r="I66" s="11"/>
+      <c r="A66" s="15"/>
+      <c r="G66" s="16"/>
+      <c r="I66" s="16"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="G67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="A67" s="15"/>
+      <c r="G67" s="16"/>
+      <c r="I67" s="16"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="10"/>
-      <c r="G68" s="11"/>
-      <c r="I68" s="11"/>
+      <c r="A68" s="15"/>
+      <c r="G68" s="16"/>
+      <c r="I68" s="16"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="10"/>
-      <c r="G69" s="11"/>
-      <c r="I69" s="11"/>
+      <c r="A69" s="15"/>
+      <c r="G69" s="16"/>
+      <c r="I69" s="16"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="10"/>
-      <c r="G70" s="11"/>
-      <c r="I70" s="11"/>
+      <c r="A70" s="15"/>
+      <c r="G70" s="16"/>
+      <c r="I70" s="16"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="10"/>
-      <c r="G71" s="11"/>
-      <c r="I71" s="11"/>
+      <c r="A71" s="15"/>
+      <c r="G71" s="16"/>
+      <c r="I71" s="16"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="10"/>
-      <c r="G72" s="11"/>
-      <c r="I72" s="11"/>
+      <c r="A72" s="15"/>
+      <c r="G72" s="16"/>
+      <c r="I72" s="16"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="10"/>
-      <c r="G73" s="11"/>
-      <c r="I73" s="11"/>
+      <c r="A73" s="15"/>
+      <c r="G73" s="16"/>
+      <c r="I73" s="16"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="10"/>
-      <c r="G74" s="11"/>
-      <c r="I74" s="11"/>
+      <c r="A74" s="15"/>
+      <c r="G74" s="16"/>
+      <c r="I74" s="16"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="10"/>
-      <c r="G75" s="11"/>
-      <c r="I75" s="11"/>
+      <c r="A75" s="15"/>
+      <c r="G75" s="16"/>
+      <c r="I75" s="16"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="10"/>
-      <c r="G76" s="11"/>
-      <c r="I76" s="11"/>
+      <c r="A76" s="15"/>
+      <c r="G76" s="16"/>
+      <c r="I76" s="16"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="10"/>
-      <c r="G77" s="11"/>
-      <c r="I77" s="11"/>
+      <c r="A77" s="15"/>
+      <c r="G77" s="16"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="10"/>
-      <c r="G78" s="11"/>
-      <c r="I78" s="11"/>
+      <c r="A78" s="15"/>
+      <c r="G78" s="16"/>
+      <c r="I78" s="16"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="10"/>
-      <c r="G79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="A79" s="15"/>
+      <c r="G79" s="16"/>
+      <c r="I79" s="16"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="10"/>
-      <c r="G80" s="11"/>
-      <c r="I80" s="11"/>
+      <c r="A80" s="15"/>
+      <c r="G80" s="16"/>
+      <c r="I80" s="16"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="10"/>
-      <c r="G81" s="11"/>
-      <c r="I81" s="11"/>
+      <c r="A81" s="15"/>
+      <c r="G81" s="16"/>
+      <c r="I81" s="16"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="10"/>
-      <c r="G82" s="11"/>
-      <c r="I82" s="11"/>
+      <c r="A82" s="15"/>
+      <c r="G82" s="16"/>
+      <c r="I82" s="16"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="10"/>
-      <c r="G83" s="11"/>
-      <c r="I83" s="11"/>
+      <c r="A83" s="15"/>
+      <c r="G83" s="16"/>
+      <c r="I83" s="16"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="10"/>
-      <c r="G84" s="11"/>
-      <c r="I84" s="11"/>
+      <c r="A84" s="15"/>
+      <c r="G84" s="16"/>
+      <c r="I84" s="16"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="10"/>
-      <c r="G85" s="11"/>
-      <c r="I85" s="11"/>
+      <c r="A85" s="15"/>
+      <c r="G85" s="16"/>
+      <c r="I85" s="16"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="10"/>
-      <c r="G86" s="11"/>
-      <c r="I86" s="11"/>
+      <c r="A86" s="15"/>
+      <c r="G86" s="16"/>
+      <c r="I86" s="16"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="10"/>
-      <c r="G87" s="11"/>
-      <c r="I87" s="11"/>
+      <c r="A87" s="15"/>
+      <c r="G87" s="16"/>
+      <c r="I87" s="16"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="10"/>
-      <c r="G88" s="11"/>
-      <c r="I88" s="11"/>
+      <c r="A88" s="15"/>
+      <c r="G88" s="16"/>
+      <c r="I88" s="16"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="10"/>
-      <c r="G89" s="11"/>
-      <c r="I89" s="11"/>
+      <c r="A89" s="15"/>
+      <c r="G89" s="16"/>
+      <c r="I89" s="16"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="10"/>
-      <c r="G90" s="11"/>
-      <c r="I90" s="11"/>
+      <c r="A90" s="15"/>
+      <c r="G90" s="16"/>
+      <c r="I90" s="16"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="10"/>
-      <c r="G91" s="11"/>
-      <c r="I91" s="11"/>
+      <c r="A91" s="15"/>
+      <c r="G91" s="16"/>
+      <c r="I91" s="16"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="10"/>
-      <c r="G92" s="11"/>
-      <c r="I92" s="11"/>
+      <c r="A92" s="15"/>
+      <c r="G92" s="16"/>
+      <c r="I92" s="16"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="10"/>
-      <c r="G93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="A93" s="15"/>
+      <c r="G93" s="16"/>
+      <c r="I93" s="16"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="10"/>
-      <c r="G94" s="11"/>
-      <c r="I94" s="11"/>
+      <c r="A94" s="15"/>
+      <c r="G94" s="16"/>
+      <c r="I94" s="16"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="10"/>
-      <c r="G95" s="11"/>
-      <c r="I95" s="11"/>
+      <c r="A95" s="15"/>
+      <c r="G95" s="16"/>
+      <c r="I95" s="16"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="10"/>
-      <c r="G96" s="11"/>
-      <c r="I96" s="11"/>
+      <c r="A96" s="15"/>
+      <c r="G96" s="16"/>
+      <c r="I96" s="16"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="10"/>
-      <c r="G97" s="11"/>
-      <c r="I97" s="11"/>
+      <c r="A97" s="15"/>
+      <c r="G97" s="16"/>
+      <c r="I97" s="16"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="10"/>
-      <c r="G98" s="11"/>
-      <c r="I98" s="11"/>
+      <c r="A98" s="15"/>
+      <c r="G98" s="16"/>
+      <c r="I98" s="16"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="10"/>
-      <c r="G99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="A99" s="15"/>
+      <c r="G99" s="16"/>
+      <c r="I99" s="16"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="10"/>
-      <c r="G100" s="11"/>
-      <c r="I100" s="11"/>
+      <c r="A100" s="15"/>
+      <c r="G100" s="16"/>
+      <c r="I100" s="16"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="10"/>
-      <c r="G101" s="11"/>
-      <c r="I101" s="11"/>
+      <c r="A101" s="15"/>
+      <c r="G101" s="16"/>
+      <c r="I101" s="16"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="10"/>
-      <c r="G102" s="11"/>
-      <c r="I102" s="11"/>
+      <c r="A102" s="15"/>
+      <c r="G102" s="16"/>
+      <c r="I102" s="16"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="10"/>
-      <c r="G103" s="11"/>
-      <c r="I103" s="11"/>
+      <c r="A103" s="15"/>
+      <c r="G103" s="16"/>
+      <c r="I103" s="16"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="10"/>
-      <c r="G104" s="11"/>
-      <c r="I104" s="11"/>
+      <c r="A104" s="15"/>
+      <c r="G104" s="16"/>
+      <c r="I104" s="16"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="10"/>
-      <c r="G105" s="11"/>
-      <c r="I105" s="11"/>
+      <c r="A105" s="15"/>
+      <c r="G105" s="16"/>
+      <c r="I105" s="16"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="10"/>
-      <c r="G106" s="11"/>
-      <c r="I106" s="11"/>
+      <c r="A106" s="15"/>
+      <c r="G106" s="16"/>
+      <c r="I106" s="16"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="10"/>
-      <c r="G107" s="11"/>
-      <c r="I107" s="11"/>
+      <c r="A107" s="15"/>
+      <c r="G107" s="16"/>
+      <c r="I107" s="16"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="10"/>
-      <c r="G108" s="11"/>
-      <c r="I108" s="11"/>
+      <c r="A108" s="15"/>
+      <c r="G108" s="16"/>
+      <c r="I108" s="16"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="10"/>
-      <c r="G109" s="11"/>
-      <c r="I109" s="11"/>
+      <c r="A109" s="15"/>
+      <c r="G109" s="16"/>
+      <c r="I109" s="16"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="10"/>
-      <c r="G110" s="11"/>
-      <c r="I110" s="11"/>
+      <c r="A110" s="15"/>
+      <c r="G110" s="16"/>
+      <c r="I110" s="16"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="10"/>
-      <c r="G111" s="11"/>
-      <c r="I111" s="11"/>
+      <c r="A111" s="15"/>
+      <c r="G111" s="16"/>
+      <c r="I111" s="16"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="10"/>
-      <c r="G112" s="11"/>
-      <c r="I112" s="11"/>
+      <c r="A112" s="15"/>
+      <c r="G112" s="16"/>
+      <c r="I112" s="16"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="10"/>
-      <c r="G113" s="11"/>
-      <c r="I113" s="11"/>
+      <c r="A113" s="15"/>
+      <c r="G113" s="16"/>
+      <c r="I113" s="16"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="10"/>
-      <c r="G114" s="11"/>
-      <c r="I114" s="11"/>
+      <c r="A114" s="15"/>
+      <c r="G114" s="16"/>
+      <c r="I114" s="16"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="10"/>
-      <c r="G115" s="11"/>
-      <c r="I115" s="11"/>
+      <c r="A115" s="15"/>
+      <c r="G115" s="16"/>
+      <c r="I115" s="16"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="10"/>
-      <c r="G116" s="11"/>
-      <c r="I116" s="11"/>
+      <c r="A116" s="15"/>
+      <c r="G116" s="16"/>
+      <c r="I116" s="16"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="10"/>
-      <c r="G117" s="11"/>
-      <c r="I117" s="11"/>
+      <c r="A117" s="15"/>
+      <c r="G117" s="16"/>
+      <c r="I117" s="16"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="10"/>
-      <c r="G118" s="11"/>
-      <c r="I118" s="11"/>
+      <c r="A118" s="15"/>
+      <c r="G118" s="16"/>
+      <c r="I118" s="16"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="10"/>
-      <c r="G119" s="11"/>
-      <c r="I119" s="11"/>
+      <c r="A119" s="15"/>
+      <c r="G119" s="16"/>
+      <c r="I119" s="16"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="10"/>
-      <c r="G120" s="11"/>
-      <c r="I120" s="11"/>
+      <c r="A120" s="15"/>
+      <c r="G120" s="16"/>
+      <c r="I120" s="16"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="10"/>
-      <c r="G121" s="11"/>
-      <c r="I121" s="11"/>
+      <c r="A121" s="15"/>
+      <c r="G121" s="16"/>
+      <c r="I121" s="16"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="10"/>
-      <c r="G122" s="11"/>
-      <c r="I122" s="11"/>
+      <c r="A122" s="15"/>
+      <c r="G122" s="16"/>
+      <c r="I122" s="16"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="10"/>
-      <c r="G123" s="11"/>
-      <c r="I123" s="11"/>
+      <c r="A123" s="15"/>
+      <c r="G123" s="16"/>
+      <c r="I123" s="16"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="10"/>
-      <c r="G124" s="11"/>
-      <c r="I124" s="11"/>
+      <c r="A124" s="15"/>
+      <c r="G124" s="16"/>
+      <c r="I124" s="16"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="10"/>
-      <c r="G125" s="11"/>
-      <c r="I125" s="11"/>
+      <c r="A125" s="15"/>
+      <c r="G125" s="16"/>
+      <c r="I125" s="16"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="10"/>
-      <c r="G126" s="11"/>
-      <c r="I126" s="11"/>
+      <c r="A126" s="15"/>
+      <c r="G126" s="16"/>
+      <c r="I126" s="16"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="10"/>
-      <c r="G127" s="11"/>
-      <c r="I127" s="11"/>
+      <c r="A127" s="15"/>
+      <c r="G127" s="16"/>
+      <c r="I127" s="16"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="10"/>
-      <c r="G128" s="11"/>
-      <c r="I128" s="11"/>
+      <c r="A128" s="15"/>
+      <c r="G128" s="16"/>
+      <c r="I128" s="16"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="10"/>
-      <c r="G129" s="11"/>
-      <c r="I129" s="11"/>
+      <c r="A129" s="15"/>
+      <c r="G129" s="16"/>
+      <c r="I129" s="16"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="10"/>
-      <c r="G130" s="11"/>
-      <c r="I130" s="11"/>
+      <c r="A130" s="15"/>
+      <c r="G130" s="16"/>
+      <c r="I130" s="16"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="10"/>
-      <c r="G131" s="11"/>
-      <c r="I131" s="11"/>
+      <c r="A131" s="15"/>
+      <c r="G131" s="16"/>
+      <c r="I131" s="16"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="10"/>
-      <c r="G132" s="11"/>
-      <c r="I132" s="11"/>
+      <c r="A132" s="15"/>
+      <c r="G132" s="16"/>
+      <c r="I132" s="16"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="10"/>
-      <c r="G133" s="11"/>
-      <c r="I133" s="11"/>
+      <c r="A133" s="15"/>
+      <c r="G133" s="16"/>
+      <c r="I133" s="16"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="10"/>
-      <c r="G134" s="11"/>
-      <c r="I134" s="11"/>
+      <c r="A134" s="15"/>
+      <c r="G134" s="16"/>
+      <c r="I134" s="16"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="10"/>
-      <c r="G135" s="11"/>
-      <c r="I135" s="11"/>
+      <c r="A135" s="15"/>
+      <c r="G135" s="16"/>
+      <c r="I135" s="16"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="10"/>
-      <c r="G136" s="11"/>
-      <c r="I136" s="11"/>
+      <c r="A136" s="15"/>
+      <c r="G136" s="16"/>
+      <c r="I136" s="16"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="10"/>
-      <c r="G137" s="11"/>
-      <c r="I137" s="11"/>
+      <c r="A137" s="15"/>
+      <c r="G137" s="16"/>
+      <c r="I137" s="16"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="10"/>
-      <c r="G138" s="11"/>
-      <c r="I138" s="11"/>
+      <c r="A138" s="15"/>
+      <c r="G138" s="16"/>
+      <c r="I138" s="16"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="10"/>
-      <c r="G139" s="11"/>
-      <c r="I139" s="11"/>
+      <c r="A139" s="15"/>
+      <c r="G139" s="16"/>
+      <c r="I139" s="16"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="10"/>
-      <c r="G140" s="11"/>
-      <c r="I140" s="11"/>
+      <c r="A140" s="15"/>
+      <c r="G140" s="16"/>
+      <c r="I140" s="16"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="10"/>
-      <c r="G141" s="11"/>
-      <c r="I141" s="11"/>
+      <c r="A141" s="15"/>
+      <c r="G141" s="16"/>
+      <c r="I141" s="16"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="10"/>
-      <c r="G142" s="11"/>
-      <c r="I142" s="11"/>
+      <c r="A142" s="15"/>
+      <c r="G142" s="16"/>
+      <c r="I142" s="16"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="10"/>
-      <c r="G143" s="11"/>
-      <c r="I143" s="11"/>
+      <c r="A143" s="15"/>
+      <c r="G143" s="16"/>
+      <c r="I143" s="16"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="10"/>
-      <c r="G144" s="11"/>
-      <c r="I144" s="11"/>
+      <c r="A144" s="15"/>
+      <c r="G144" s="16"/>
+      <c r="I144" s="16"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="10"/>
-      <c r="G145" s="11"/>
-      <c r="I145" s="11"/>
+      <c r="A145" s="15"/>
+      <c r="G145" s="16"/>
+      <c r="I145" s="16"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="10"/>
-      <c r="G146" s="11"/>
-      <c r="I146" s="11"/>
+      <c r="A146" s="15"/>
+      <c r="G146" s="16"/>
+      <c r="I146" s="16"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="10"/>
-      <c r="G147" s="11"/>
-      <c r="I147" s="11"/>
+      <c r="A147" s="15"/>
+      <c r="G147" s="16"/>
+      <c r="I147" s="16"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="10"/>
-      <c r="G148" s="11"/>
-      <c r="I148" s="11"/>
+      <c r="A148" s="15"/>
+      <c r="G148" s="16"/>
+      <c r="I148" s="16"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="10"/>
-      <c r="G149" s="11"/>
-      <c r="I149" s="11"/>
+      <c r="A149" s="15"/>
+      <c r="G149" s="16"/>
+      <c r="I149" s="16"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="10"/>
-      <c r="G150" s="11"/>
-      <c r="I150" s="11"/>
+      <c r="A150" s="15"/>
+      <c r="G150" s="16"/>
+      <c r="I150" s="16"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="10"/>
-      <c r="G151" s="11"/>
-      <c r="I151" s="11"/>
+      <c r="A151" s="15"/>
+      <c r="G151" s="16"/>
+      <c r="I151" s="16"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="10"/>
-      <c r="G152" s="11"/>
-      <c r="I152" s="11"/>
+      <c r="A152" s="15"/>
+      <c r="G152" s="16"/>
+      <c r="I152" s="16"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="10"/>
-      <c r="G153" s="11"/>
-      <c r="I153" s="11"/>
+      <c r="A153" s="15"/>
+      <c r="G153" s="16"/>
+      <c r="I153" s="16"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="10"/>
-      <c r="G154" s="11"/>
-      <c r="I154" s="11"/>
+      <c r="A154" s="15"/>
+      <c r="G154" s="16"/>
+      <c r="I154" s="16"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="10"/>
-      <c r="G155" s="11"/>
-      <c r="I155" s="11"/>
+      <c r="A155" s="15"/>
+      <c r="G155" s="16"/>
+      <c r="I155" s="16"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="10"/>
-      <c r="G156" s="11"/>
-      <c r="I156" s="11"/>
+      <c r="A156" s="15"/>
+      <c r="G156" s="16"/>
+      <c r="I156" s="16"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="10"/>
-      <c r="G157" s="11"/>
-      <c r="I157" s="11"/>
+      <c r="A157" s="15"/>
+      <c r="G157" s="16"/>
+      <c r="I157" s="16"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="10"/>
-      <c r="G158" s="11"/>
-      <c r="I158" s="11"/>
+      <c r="A158" s="15"/>
+      <c r="G158" s="16"/>
+      <c r="I158" s="16"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="10"/>
-      <c r="G159" s="11"/>
-      <c r="I159" s="11"/>
+      <c r="A159" s="15"/>
+      <c r="G159" s="16"/>
+      <c r="I159" s="16"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="10"/>
-      <c r="G160" s="11"/>
-      <c r="I160" s="11"/>
+      <c r="A160" s="15"/>
+      <c r="G160" s="16"/>
+      <c r="I160" s="16"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="10"/>
-      <c r="G161" s="11"/>
-      <c r="I161" s="11"/>
+      <c r="A161" s="15"/>
+      <c r="G161" s="16"/>
+      <c r="I161" s="16"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="10"/>
-      <c r="G162" s="11"/>
-      <c r="I162" s="11"/>
+      <c r="A162" s="15"/>
+      <c r="G162" s="16"/>
+      <c r="I162" s="16"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="10"/>
-      <c r="G163" s="11"/>
-      <c r="I163" s="11"/>
+      <c r="A163" s="15"/>
+      <c r="G163" s="16"/>
+      <c r="I163" s="16"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="10"/>
-      <c r="G164" s="11"/>
-      <c r="I164" s="11"/>
+      <c r="A164" s="15"/>
+      <c r="G164" s="16"/>
+      <c r="I164" s="16"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="10"/>
-      <c r="G165" s="11"/>
-      <c r="I165" s="11"/>
+      <c r="A165" s="15"/>
+      <c r="G165" s="16"/>
+      <c r="I165" s="16"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="10"/>
-      <c r="G166" s="11"/>
-      <c r="I166" s="11"/>
+      <c r="A166" s="15"/>
+      <c r="G166" s="16"/>
+      <c r="I166" s="16"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="10"/>
-      <c r="G167" s="11"/>
-      <c r="I167" s="11"/>
+      <c r="A167" s="15"/>
+      <c r="G167" s="16"/>
+      <c r="I167" s="16"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="10"/>
-      <c r="G168" s="11"/>
-      <c r="I168" s="11"/>
+      <c r="A168" s="15"/>
+      <c r="G168" s="16"/>
+      <c r="I168" s="16"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="10"/>
-      <c r="G169" s="11"/>
-      <c r="I169" s="11"/>
+      <c r="A169" s="15"/>
+      <c r="G169" s="16"/>
+      <c r="I169" s="16"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="10"/>
-      <c r="G170" s="11"/>
-      <c r="I170" s="11"/>
+      <c r="A170" s="15"/>
+      <c r="G170" s="16"/>
+      <c r="I170" s="16"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="10"/>
-      <c r="G171" s="11"/>
-      <c r="I171" s="11"/>
+      <c r="A171" s="15"/>
+      <c r="G171" s="16"/>
+      <c r="I171" s="16"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="10"/>
-      <c r="G172" s="11"/>
-      <c r="I172" s="11"/>
+      <c r="A172" s="15"/>
+      <c r="G172" s="16"/>
+      <c r="I172" s="16"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="10"/>
-      <c r="G173" s="11"/>
-      <c r="I173" s="11"/>
+      <c r="A173" s="15"/>
+      <c r="G173" s="16"/>
+      <c r="I173" s="16"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="10"/>
-      <c r="G174" s="11"/>
-      <c r="I174" s="11"/>
+      <c r="A174" s="15"/>
+      <c r="G174" s="16"/>
+      <c r="I174" s="16"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="10"/>
-      <c r="G175" s="11"/>
-      <c r="I175" s="11"/>
+      <c r="A175" s="15"/>
+      <c r="G175" s="16"/>
+      <c r="I175" s="16"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="10"/>
-      <c r="G176" s="11"/>
-      <c r="I176" s="11"/>
+      <c r="A176" s="15"/>
+      <c r="G176" s="16"/>
+      <c r="I176" s="16"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="10"/>
-      <c r="G177" s="11"/>
-      <c r="I177" s="11"/>
+      <c r="A177" s="15"/>
+      <c r="G177" s="16"/>
+      <c r="I177" s="16"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="10"/>
-      <c r="G178" s="11"/>
-      <c r="I178" s="11"/>
+      <c r="A178" s="15"/>
+      <c r="G178" s="16"/>
+      <c r="I178" s="16"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="10"/>
-      <c r="G179" s="11"/>
-      <c r="I179" s="11"/>
+      <c r="A179" s="15"/>
+      <c r="G179" s="16"/>
+      <c r="I179" s="16"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="10"/>
-      <c r="G180" s="11"/>
-      <c r="I180" s="11"/>
+      <c r="A180" s="15"/>
+      <c r="G180" s="16"/>
+      <c r="I180" s="16"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="10"/>
-      <c r="G181" s="11"/>
-      <c r="I181" s="11"/>
+      <c r="A181" s="15"/>
+      <c r="G181" s="16"/>
+      <c r="I181" s="16"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="10"/>
-      <c r="G182" s="11"/>
-      <c r="I182" s="11"/>
+      <c r="A182" s="15"/>
+      <c r="G182" s="16"/>
+      <c r="I182" s="16"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="10"/>
-      <c r="G183" s="11"/>
-      <c r="I183" s="11"/>
+      <c r="A183" s="15"/>
+      <c r="G183" s="16"/>
+      <c r="I183" s="16"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="10"/>
-      <c r="G184" s="11"/>
-      <c r="I184" s="11"/>
+      <c r="A184" s="15"/>
+      <c r="G184" s="16"/>
+      <c r="I184" s="16"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="10"/>
-      <c r="G185" s="11"/>
-      <c r="I185" s="11"/>
+      <c r="A185" s="15"/>
+      <c r="G185" s="16"/>
+      <c r="I185" s="16"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="10"/>
-      <c r="G186" s="11"/>
-      <c r="I186" s="11"/>
+      <c r="A186" s="15"/>
+      <c r="G186" s="16"/>
+      <c r="I186" s="16"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="10"/>
-      <c r="G187" s="11"/>
-      <c r="I187" s="11"/>
+      <c r="A187" s="15"/>
+      <c r="G187" s="16"/>
+      <c r="I187" s="16"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="10"/>
-      <c r="G188" s="11"/>
-      <c r="I188" s="11"/>
+      <c r="A188" s="15"/>
+      <c r="G188" s="16"/>
+      <c r="I188" s="16"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="10"/>
-      <c r="G189" s="11"/>
-      <c r="I189" s="11"/>
+      <c r="A189" s="15"/>
+      <c r="G189" s="16"/>
+      <c r="I189" s="16"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="10"/>
-      <c r="G190" s="11"/>
-      <c r="I190" s="11"/>
+      <c r="A190" s="15"/>
+      <c r="G190" s="16"/>
+      <c r="I190" s="16"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="10"/>
-      <c r="G191" s="11"/>
-      <c r="I191" s="11"/>
+      <c r="A191" s="15"/>
+      <c r="G191" s="16"/>
+      <c r="I191" s="16"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="10"/>
-      <c r="G192" s="11"/>
-      <c r="I192" s="11"/>
+      <c r="A192" s="15"/>
+      <c r="G192" s="16"/>
+      <c r="I192" s="16"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="10"/>
-      <c r="G193" s="11"/>
-      <c r="I193" s="11"/>
+      <c r="A193" s="15"/>
+      <c r="G193" s="16"/>
+      <c r="I193" s="16"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="10"/>
-      <c r="G194" s="11"/>
-      <c r="I194" s="11"/>
+      <c r="A194" s="15"/>
+      <c r="G194" s="16"/>
+      <c r="I194" s="16"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="10"/>
-      <c r="G195" s="11"/>
-      <c r="I195" s="11"/>
+      <c r="A195" s="15"/>
+      <c r="G195" s="16"/>
+      <c r="I195" s="16"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="10"/>
-      <c r="G196" s="11"/>
-      <c r="I196" s="11"/>
+      <c r="A196" s="15"/>
+      <c r="G196" s="16"/>
+      <c r="I196" s="16"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="10"/>
-      <c r="G197" s="11"/>
-      <c r="I197" s="11"/>
+      <c r="A197" s="15"/>
+      <c r="G197" s="16"/>
+      <c r="I197" s="16"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="10"/>
-      <c r="G198" s="11"/>
-      <c r="I198" s="11"/>
+      <c r="A198" s="15"/>
+      <c r="G198" s="16"/>
+      <c r="I198" s="16"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="10"/>
-      <c r="G199" s="11"/>
-      <c r="I199" s="11"/>
+      <c r="A199" s="15"/>
+      <c r="G199" s="16"/>
+      <c r="I199" s="16"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="10"/>
-      <c r="G200" s="11"/>
-      <c r="I200" s="11"/>
+      <c r="A200" s="15"/>
+      <c r="G200" s="16"/>
+      <c r="I200" s="16"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="10"/>
-      <c r="G201" s="11"/>
-      <c r="I201" s="11"/>
+      <c r="A201" s="15"/>
+      <c r="G201" s="16"/>
+      <c r="I201" s="16"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="10"/>
-      <c r="G202" s="11"/>
-      <c r="I202" s="11"/>
+      <c r="A202" s="15"/>
+      <c r="G202" s="16"/>
+      <c r="I202" s="16"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="10"/>
-      <c r="G203" s="11"/>
-      <c r="I203" s="11"/>
+      <c r="A203" s="15"/>
+      <c r="G203" s="16"/>
+      <c r="I203" s="16"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="10"/>
-      <c r="G204" s="11"/>
-      <c r="I204" s="11"/>
+      <c r="A204" s="15"/>
+      <c r="G204" s="16"/>
+      <c r="I204" s="16"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="10"/>
-      <c r="G205" s="11"/>
-      <c r="I205" s="11"/>
+      <c r="A205" s="15"/>
+      <c r="G205" s="16"/>
+      <c r="I205" s="16"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="10"/>
-      <c r="G206" s="11"/>
-      <c r="I206" s="11"/>
+      <c r="A206" s="15"/>
+      <c r="G206" s="16"/>
+      <c r="I206" s="16"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="10"/>
-      <c r="G207" s="11"/>
-      <c r="I207" s="11"/>
+      <c r="A207" s="15"/>
+      <c r="G207" s="16"/>
+      <c r="I207" s="16"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="10"/>
-      <c r="G208" s="11"/>
-      <c r="I208" s="11"/>
+      <c r="A208" s="15"/>
+      <c r="G208" s="16"/>
+      <c r="I208" s="16"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="10"/>
-      <c r="G209" s="11"/>
-      <c r="I209" s="11"/>
+      <c r="A209" s="15"/>
+      <c r="G209" s="16"/>
+      <c r="I209" s="16"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="10"/>
-      <c r="G210" s="11"/>
-      <c r="I210" s="11"/>
+      <c r="A210" s="15"/>
+      <c r="G210" s="16"/>
+      <c r="I210" s="16"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="10"/>
-      <c r="G211" s="11"/>
-      <c r="I211" s="11"/>
+      <c r="A211" s="15"/>
+      <c r="G211" s="16"/>
+      <c r="I211" s="16"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="10"/>
-      <c r="G212" s="11"/>
-      <c r="I212" s="11"/>
+      <c r="A212" s="15"/>
+      <c r="G212" s="16"/>
+      <c r="I212" s="16"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="10"/>
-      <c r="G213" s="11"/>
-      <c r="I213" s="11"/>
+      <c r="A213" s="15"/>
+      <c r="G213" s="16"/>
+      <c r="I213" s="16"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="10"/>
-      <c r="G214" s="11"/>
-      <c r="I214" s="11"/>
+      <c r="A214" s="15"/>
+      <c r="G214" s="16"/>
+      <c r="I214" s="16"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="10"/>
-      <c r="G215" s="11"/>
-      <c r="I215" s="11"/>
+      <c r="A215" s="15"/>
+      <c r="G215" s="16"/>
+      <c r="I215" s="16"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="10"/>
-      <c r="G216" s="11"/>
-      <c r="I216" s="11"/>
+      <c r="A216" s="15"/>
+      <c r="G216" s="16"/>
+      <c r="I216" s="16"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="10"/>
-      <c r="G217" s="11"/>
-      <c r="I217" s="11"/>
+      <c r="A217" s="15"/>
+      <c r="G217" s="16"/>
+      <c r="I217" s="16"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="10"/>
-      <c r="G218" s="11"/>
-      <c r="I218" s="11"/>
+      <c r="A218" s="15"/>
+      <c r="G218" s="16"/>
+      <c r="I218" s="16"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="10"/>
-      <c r="G219" s="11"/>
-      <c r="I219" s="11"/>
+      <c r="A219" s="15"/>
+      <c r="G219" s="16"/>
+      <c r="I219" s="16"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="10"/>
-      <c r="G220" s="11"/>
-      <c r="I220" s="11"/>
+      <c r="A220" s="15"/>
+      <c r="G220" s="16"/>
+      <c r="I220" s="16"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="10"/>
-      <c r="G221" s="11"/>
-      <c r="I221" s="11"/>
+      <c r="A221" s="15"/>
+      <c r="G221" s="16"/>
+      <c r="I221" s="16"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="10"/>
-      <c r="G222" s="11"/>
-      <c r="I222" s="11"/>
+      <c r="A222" s="15"/>
+      <c r="G222" s="16"/>
+      <c r="I222" s="16"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="10"/>
-      <c r="G223" s="11"/>
-      <c r="I223" s="11"/>
+      <c r="A223" s="15"/>
+      <c r="G223" s="16"/>
+      <c r="I223" s="16"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="10"/>
-      <c r="G224" s="11"/>
-      <c r="I224" s="11"/>
+      <c r="A224" s="15"/>
+      <c r="G224" s="16"/>
+      <c r="I224" s="16"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="10"/>
-      <c r="G225" s="11"/>
-      <c r="I225" s="11"/>
+      <c r="A225" s="15"/>
+      <c r="G225" s="16"/>
+      <c r="I225" s="16"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="10"/>
-      <c r="G226" s="11"/>
-      <c r="I226" s="11"/>
+      <c r="A226" s="15"/>
+      <c r="G226" s="16"/>
+      <c r="I226" s="16"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="10"/>
-      <c r="G227" s="11"/>
-      <c r="I227" s="11"/>
+      <c r="A227" s="15"/>
+      <c r="G227" s="16"/>
+      <c r="I227" s="16"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="10"/>
-      <c r="G228" s="11"/>
-      <c r="I228" s="11"/>
+      <c r="A228" s="15"/>
+      <c r="G228" s="16"/>
+      <c r="I228" s="16"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="10"/>
-      <c r="G229" s="11"/>
-      <c r="I229" s="11"/>
+      <c r="A229" s="15"/>
+      <c r="G229" s="16"/>
+      <c r="I229" s="16"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="10"/>
-      <c r="G230" s="11"/>
-      <c r="I230" s="11"/>
+      <c r="A230" s="15"/>
+      <c r="G230" s="16"/>
+      <c r="I230" s="16"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="10"/>
-      <c r="G231" s="11"/>
-      <c r="I231" s="11"/>
+      <c r="A231" s="15"/>
+      <c r="G231" s="16"/>
+      <c r="I231" s="16"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="10"/>
-      <c r="G232" s="11"/>
-      <c r="I232" s="11"/>
+      <c r="A232" s="15"/>
+      <c r="G232" s="16"/>
+      <c r="I232" s="16"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="10"/>
-      <c r="G233" s="11"/>
-      <c r="I233" s="11"/>
+      <c r="A233" s="15"/>
+      <c r="G233" s="16"/>
+      <c r="I233" s="16"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="10"/>
-      <c r="G234" s="11"/>
-      <c r="I234" s="11"/>
+      <c r="A234" s="15"/>
+      <c r="G234" s="16"/>
+      <c r="I234" s="16"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="10"/>
-      <c r="G235" s="11"/>
-      <c r="I235" s="11"/>
+      <c r="A235" s="15"/>
+      <c r="G235" s="16"/>
+      <c r="I235" s="16"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="10"/>
-      <c r="G236" s="11"/>
-      <c r="I236" s="11"/>
+      <c r="A236" s="15"/>
+      <c r="G236" s="16"/>
+      <c r="I236" s="16"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="10"/>
-      <c r="G237" s="11"/>
-      <c r="I237" s="11"/>
+      <c r="A237" s="15"/>
+      <c r="G237" s="16"/>
+      <c r="I237" s="16"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="10"/>
-      <c r="G238" s="11"/>
-      <c r="I238" s="11"/>
+      <c r="A238" s="15"/>
+      <c r="G238" s="16"/>
+      <c r="I238" s="16"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="10"/>
-      <c r="G239" s="11"/>
-      <c r="I239" s="11"/>
+      <c r="A239" s="15"/>
+      <c r="G239" s="16"/>
+      <c r="I239" s="16"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="10"/>
-      <c r="G240" s="11"/>
-      <c r="I240" s="11"/>
+      <c r="A240" s="15"/>
+      <c r="G240" s="16"/>
+      <c r="I240" s="16"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="10"/>
-      <c r="G241" s="11"/>
-      <c r="I241" s="11"/>
+      <c r="A241" s="15"/>
+      <c r="G241" s="16"/>
+      <c r="I241" s="16"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="10"/>
-      <c r="G242" s="11"/>
-      <c r="I242" s="11"/>
+      <c r="A242" s="15"/>
+      <c r="G242" s="16"/>
+      <c r="I242" s="16"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="10"/>
-      <c r="G243" s="11"/>
-      <c r="I243" s="11"/>
+      <c r="A243" s="15"/>
+      <c r="G243" s="16"/>
+      <c r="I243" s="16"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="10"/>
-      <c r="G244" s="11"/>
-      <c r="I244" s="11"/>
+      <c r="A244" s="15"/>
+      <c r="G244" s="16"/>
+      <c r="I244" s="16"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="10"/>
-      <c r="G245" s="11"/>
-      <c r="I245" s="11"/>
+      <c r="A245" s="15"/>
+      <c r="G245" s="16"/>
+      <c r="I245" s="16"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="10"/>
-      <c r="G246" s="11"/>
-      <c r="I246" s="11"/>
+      <c r="A246" s="15"/>
+      <c r="G246" s="16"/>
+      <c r="I246" s="16"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="10"/>
-      <c r="G247" s="11"/>
-      <c r="I247" s="11"/>
+      <c r="A247" s="15"/>
+      <c r="G247" s="16"/>
+      <c r="I247" s="16"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="10"/>
-      <c r="G248" s="11"/>
-      <c r="I248" s="11"/>
+      <c r="A248" s="15"/>
+      <c r="G248" s="16"/>
+      <c r="I248" s="16"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="10"/>
-      <c r="G249" s="11"/>
-      <c r="I249" s="11"/>
+      <c r="A249" s="15"/>
+      <c r="G249" s="16"/>
+      <c r="I249" s="16"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="10"/>
-      <c r="G250" s="11"/>
-      <c r="I250" s="11"/>
+      <c r="A250" s="15"/>
+      <c r="G250" s="16"/>
+      <c r="I250" s="16"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="10"/>
-      <c r="G251" s="11"/>
-      <c r="I251" s="11"/>
+      <c r="A251" s="15"/>
+      <c r="G251" s="16"/>
+      <c r="I251" s="16"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="10"/>
-      <c r="G252" s="11"/>
-      <c r="I252" s="11"/>
+      <c r="A252" s="15"/>
+      <c r="G252" s="16"/>
+      <c r="I252" s="16"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="10"/>
-      <c r="G253" s="11"/>
-      <c r="I253" s="11"/>
+      <c r="A253" s="15"/>
+      <c r="G253" s="16"/>
+      <c r="I253" s="16"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="10"/>
-      <c r="G254" s="11"/>
-      <c r="I254" s="11"/>
+      <c r="A254" s="15"/>
+      <c r="G254" s="16"/>
+      <c r="I254" s="16"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="10"/>
-      <c r="G255" s="11"/>
-      <c r="I255" s="11"/>
+      <c r="A255" s="15"/>
+      <c r="G255" s="16"/>
+      <c r="I255" s="16"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="10"/>
-      <c r="G256" s="11"/>
-      <c r="I256" s="11"/>
+      <c r="A256" s="15"/>
+      <c r="G256" s="16"/>
+      <c r="I256" s="16"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="10"/>
-      <c r="G257" s="11"/>
-      <c r="I257" s="11"/>
+      <c r="A257" s="15"/>
+      <c r="G257" s="16"/>
+      <c r="I257" s="16"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="10"/>
-      <c r="G258" s="11"/>
-      <c r="I258" s="11"/>
+      <c r="A258" s="15"/>
+      <c r="G258" s="16"/>
+      <c r="I258" s="16"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="10"/>
-      <c r="G259" s="11"/>
-      <c r="I259" s="11"/>
+      <c r="A259" s="15"/>
+      <c r="G259" s="16"/>
+      <c r="I259" s="16"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="10"/>
-      <c r="G260" s="11"/>
-      <c r="I260" s="11"/>
+      <c r="A260" s="15"/>
+      <c r="G260" s="16"/>
+      <c r="I260" s="16"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="10"/>
-      <c r="G261" s="11"/>
-      <c r="I261" s="11"/>
+      <c r="A261" s="15"/>
+      <c r="G261" s="16"/>
+      <c r="I261" s="16"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="10"/>
-      <c r="G262" s="11"/>
-      <c r="I262" s="11"/>
+      <c r="A262" s="15"/>
+      <c r="G262" s="16"/>
+      <c r="I262" s="16"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="10"/>
-      <c r="G263" s="11"/>
-      <c r="I263" s="11"/>
+      <c r="A263" s="15"/>
+      <c r="G263" s="16"/>
+      <c r="I263" s="16"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="10"/>
-      <c r="G264" s="11"/>
-      <c r="I264" s="11"/>
+      <c r="A264" s="15"/>
+      <c r="G264" s="16"/>
+      <c r="I264" s="16"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="10"/>
-      <c r="G265" s="11"/>
-      <c r="I265" s="11"/>
+      <c r="A265" s="15"/>
+      <c r="G265" s="16"/>
+      <c r="I265" s="16"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="10"/>
-      <c r="G266" s="11"/>
-      <c r="I266" s="11"/>
+      <c r="A266" s="15"/>
+      <c r="G266" s="16"/>
+      <c r="I266" s="16"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="10"/>
-      <c r="G267" s="11"/>
-      <c r="I267" s="11"/>
+      <c r="A267" s="15"/>
+      <c r="G267" s="16"/>
+      <c r="I267" s="16"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="10"/>
-      <c r="G268" s="11"/>
-      <c r="I268" s="11"/>
+      <c r="A268" s="15"/>
+      <c r="G268" s="16"/>
+      <c r="I268" s="16"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="10"/>
-      <c r="G269" s="11"/>
-      <c r="I269" s="11"/>
+      <c r="A269" s="15"/>
+      <c r="G269" s="16"/>
+      <c r="I269" s="16"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="10"/>
-      <c r="G270" s="11"/>
-      <c r="I270" s="11"/>
+      <c r="A270" s="15"/>
+      <c r="G270" s="16"/>
+      <c r="I270" s="16"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="10"/>
-      <c r="G271" s="11"/>
-      <c r="I271" s="11"/>
+      <c r="A271" s="15"/>
+      <c r="G271" s="16"/>
+      <c r="I271" s="16"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="10"/>
-      <c r="G272" s="11"/>
-      <c r="I272" s="11"/>
+      <c r="A272" s="15"/>
+      <c r="G272" s="16"/>
+      <c r="I272" s="16"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="10"/>
-      <c r="G273" s="11"/>
-      <c r="I273" s="11"/>
+      <c r="A273" s="15"/>
+      <c r="G273" s="16"/>
+      <c r="I273" s="16"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="10"/>
-      <c r="G274" s="11"/>
-      <c r="I274" s="11"/>
+      <c r="A274" s="15"/>
+      <c r="G274" s="16"/>
+      <c r="I274" s="16"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="10"/>
-      <c r="G275" s="11"/>
-      <c r="I275" s="11"/>
+      <c r="A275" s="15"/>
+      <c r="G275" s="16"/>
+      <c r="I275" s="16"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="10"/>
-      <c r="G276" s="11"/>
-      <c r="I276" s="11"/>
+      <c r="A276" s="15"/>
+      <c r="G276" s="16"/>
+      <c r="I276" s="16"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="10"/>
-      <c r="G277" s="11"/>
-      <c r="I277" s="11"/>
+      <c r="A277" s="15"/>
+      <c r="G277" s="16"/>
+      <c r="I277" s="16"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="10"/>
-      <c r="G278" s="11"/>
-      <c r="I278" s="11"/>
+      <c r="A278" s="15"/>
+      <c r="G278" s="16"/>
+      <c r="I278" s="16"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="10"/>
-      <c r="G279" s="11"/>
-      <c r="I279" s="11"/>
+      <c r="A279" s="15"/>
+      <c r="G279" s="16"/>
+      <c r="I279" s="16"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="10"/>
-      <c r="G280" s="11"/>
-      <c r="I280" s="11"/>
+      <c r="A280" s="15"/>
+      <c r="G280" s="16"/>
+      <c r="I280" s="16"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="10"/>
-      <c r="G281" s="11"/>
-      <c r="I281" s="11"/>
+      <c r="A281" s="15"/>
+      <c r="G281" s="16"/>
+      <c r="I281" s="16"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="10"/>
-      <c r="G282" s="11"/>
-      <c r="I282" s="11"/>
+      <c r="A282" s="15"/>
+      <c r="G282" s="16"/>
+      <c r="I282" s="16"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="10"/>
-      <c r="G283" s="11"/>
-      <c r="I283" s="11"/>
+      <c r="A283" s="15"/>
+      <c r="G283" s="16"/>
+      <c r="I283" s="16"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="10"/>
-      <c r="G284" s="11"/>
-      <c r="I284" s="11"/>
+      <c r="A284" s="15"/>
+      <c r="G284" s="16"/>
+      <c r="I284" s="16"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="10"/>
-      <c r="G285" s="11"/>
-      <c r="I285" s="11"/>
+      <c r="A285" s="15"/>
+      <c r="G285" s="16"/>
+      <c r="I285" s="16"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="10"/>
-      <c r="G286" s="11"/>
-      <c r="I286" s="11"/>
+      <c r="A286" s="15"/>
+      <c r="G286" s="16"/>
+      <c r="I286" s="16"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="10"/>
-      <c r="G287" s="11"/>
-      <c r="I287" s="11"/>
+      <c r="A287" s="15"/>
+      <c r="G287" s="16"/>
+      <c r="I287" s="16"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="10"/>
-      <c r="G288" s="11"/>
-      <c r="I288" s="11"/>
+      <c r="A288" s="15"/>
+      <c r="G288" s="16"/>
+      <c r="I288" s="16"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="10"/>
-      <c r="G289" s="11"/>
-      <c r="I289" s="11"/>
+      <c r="A289" s="15"/>
+      <c r="G289" s="16"/>
+      <c r="I289" s="16"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="10"/>
-      <c r="G290" s="11"/>
-      <c r="I290" s="11"/>
+      <c r="A290" s="15"/>
+      <c r="G290" s="16"/>
+      <c r="I290" s="16"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="10"/>
-      <c r="G291" s="11"/>
-      <c r="I291" s="11"/>
+      <c r="A291" s="15"/>
+      <c r="G291" s="16"/>
+      <c r="I291" s="16"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="10"/>
-      <c r="G292" s="11"/>
-      <c r="I292" s="11"/>
+      <c r="A292" s="15"/>
+      <c r="G292" s="16"/>
+      <c r="I292" s="16"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="10"/>
-      <c r="G293" s="11"/>
-      <c r="I293" s="11"/>
+      <c r="A293" s="15"/>
+      <c r="G293" s="16"/>
+      <c r="I293" s="16"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="10"/>
-      <c r="G294" s="11"/>
-      <c r="I294" s="11"/>
+      <c r="A294" s="15"/>
+      <c r="G294" s="16"/>
+      <c r="I294" s="16"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="10"/>
-      <c r="G295" s="11"/>
-      <c r="I295" s="11"/>
+      <c r="A295" s="15"/>
+      <c r="G295" s="16"/>
+      <c r="I295" s="16"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="10"/>
-      <c r="G296" s="11"/>
-      <c r="I296" s="11"/>
+      <c r="A296" s="15"/>
+      <c r="G296" s="16"/>
+      <c r="I296" s="16"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="10"/>
-      <c r="G297" s="11"/>
-      <c r="I297" s="11"/>
+      <c r="A297" s="15"/>
+      <c r="G297" s="16"/>
+      <c r="I297" s="16"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="10"/>
-      <c r="G298" s="11"/>
-      <c r="I298" s="11"/>
+      <c r="A298" s="15"/>
+      <c r="G298" s="16"/>
+      <c r="I298" s="16"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="10"/>
-      <c r="G299" s="11"/>
-      <c r="I299" s="11"/>
+      <c r="A299" s="15"/>
+      <c r="G299" s="16"/>
+      <c r="I299" s="16"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="10"/>
-      <c r="G300" s="11"/>
-      <c r="I300" s="11"/>
+      <c r="A300" s="15"/>
+      <c r="G300" s="16"/>
+      <c r="I300" s="16"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="10"/>
-      <c r="G301" s="11"/>
-      <c r="I301" s="11"/>
+      <c r="A301" s="15"/>
+      <c r="G301" s="16"/>
+      <c r="I301" s="16"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="10"/>
-      <c r="G302" s="11"/>
-      <c r="I302" s="11"/>
+      <c r="A302" s="15"/>
+      <c r="G302" s="16"/>
+      <c r="I302" s="16"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="10"/>
-      <c r="G303" s="11"/>
-      <c r="I303" s="11"/>
+      <c r="A303" s="15"/>
+      <c r="G303" s="16"/>
+      <c r="I303" s="16"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="10"/>
-      <c r="G304" s="11"/>
-      <c r="I304" s="11"/>
+      <c r="A304" s="15"/>
+      <c r="G304" s="16"/>
+      <c r="I304" s="16"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="10"/>
-      <c r="G305" s="11"/>
-      <c r="I305" s="11"/>
+      <c r="A305" s="15"/>
+      <c r="G305" s="16"/>
+      <c r="I305" s="16"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="10"/>
-      <c r="G306" s="11"/>
-      <c r="I306" s="11"/>
+      <c r="A306" s="15"/>
+      <c r="G306" s="16"/>
+      <c r="I306" s="16"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="10"/>
-      <c r="G307" s="11"/>
-      <c r="I307" s="11"/>
+      <c r="A307" s="15"/>
+      <c r="G307" s="16"/>
+      <c r="I307" s="16"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="10"/>
-      <c r="G308" s="11"/>
-      <c r="I308" s="11"/>
+      <c r="A308" s="15"/>
+      <c r="G308" s="16"/>
+      <c r="I308" s="16"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="10"/>
-      <c r="G309" s="11"/>
-      <c r="I309" s="11"/>
+      <c r="A309" s="15"/>
+      <c r="G309" s="16"/>
+      <c r="I309" s="16"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="10"/>
-      <c r="G310" s="11"/>
-      <c r="I310" s="11"/>
+      <c r="A310" s="15"/>
+      <c r="G310" s="16"/>
+      <c r="I310" s="16"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="10"/>
-      <c r="G311" s="11"/>
-      <c r="I311" s="11"/>
+      <c r="A311" s="15"/>
+      <c r="G311" s="16"/>
+      <c r="I311" s="16"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="10"/>
-      <c r="G312" s="11"/>
-      <c r="I312" s="11"/>
+      <c r="A312" s="15"/>
+      <c r="G312" s="16"/>
+      <c r="I312" s="16"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="10"/>
-      <c r="G313" s="11"/>
-      <c r="I313" s="11"/>
+      <c r="A313" s="15"/>
+      <c r="G313" s="16"/>
+      <c r="I313" s="16"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="10"/>
-      <c r="G314" s="11"/>
-      <c r="I314" s="11"/>
+      <c r="A314" s="15"/>
+      <c r="G314" s="16"/>
+      <c r="I314" s="16"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="10"/>
-      <c r="G315" s="11"/>
-      <c r="I315" s="11"/>
+      <c r="A315" s="15"/>
+      <c r="G315" s="16"/>
+      <c r="I315" s="16"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="10"/>
-      <c r="G316" s="11"/>
-      <c r="I316" s="11"/>
+      <c r="A316" s="15"/>
+      <c r="G316" s="16"/>
+      <c r="I316" s="16"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="10"/>
-      <c r="G317" s="11"/>
-      <c r="I317" s="11"/>
+      <c r="A317" s="15"/>
+      <c r="G317" s="16"/>
+      <c r="I317" s="16"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="10"/>
-      <c r="G318" s="11"/>
-      <c r="I318" s="11"/>
+      <c r="A318" s="15"/>
+      <c r="G318" s="16"/>
+      <c r="I318" s="16"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="10"/>
-      <c r="G319" s="11"/>
-      <c r="I319" s="11"/>
+      <c r="A319" s="15"/>
+      <c r="G319" s="16"/>
+      <c r="I319" s="16"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="10"/>
-      <c r="G320" s="11"/>
-      <c r="I320" s="11"/>
+      <c r="A320" s="15"/>
+      <c r="G320" s="16"/>
+      <c r="I320" s="16"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="10"/>
-      <c r="G321" s="11"/>
-      <c r="I321" s="11"/>
+      <c r="A321" s="15"/>
+      <c r="G321" s="16"/>
+      <c r="I321" s="16"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="10"/>
-      <c r="G322" s="11"/>
-      <c r="I322" s="11"/>
+      <c r="A322" s="15"/>
+      <c r="G322" s="16"/>
+      <c r="I322" s="16"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="10"/>
-      <c r="G323" s="11"/>
-      <c r="I323" s="11"/>
+      <c r="A323" s="15"/>
+      <c r="G323" s="16"/>
+      <c r="I323" s="16"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="10"/>
-      <c r="G324" s="11"/>
-      <c r="I324" s="11"/>
+      <c r="A324" s="15"/>
+      <c r="G324" s="16"/>
+      <c r="I324" s="16"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="10"/>
-      <c r="G325" s="11"/>
-      <c r="I325" s="11"/>
+      <c r="A325" s="15"/>
+      <c r="G325" s="16"/>
+      <c r="I325" s="16"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="10"/>
-      <c r="G326" s="11"/>
-      <c r="I326" s="11"/>
+      <c r="A326" s="15"/>
+      <c r="G326" s="16"/>
+      <c r="I326" s="16"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="10"/>
-      <c r="G327" s="11"/>
-      <c r="I327" s="11"/>
+      <c r="A327" s="15"/>
+      <c r="G327" s="16"/>
+      <c r="I327" s="16"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="10"/>
-      <c r="G328" s="11"/>
-      <c r="I328" s="11"/>
+      <c r="A328" s="15"/>
+      <c r="G328" s="16"/>
+      <c r="I328" s="16"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="10"/>
-      <c r="G329" s="11"/>
-      <c r="I329" s="11"/>
+      <c r="A329" s="15"/>
+      <c r="G329" s="16"/>
+      <c r="I329" s="16"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="10"/>
-      <c r="G330" s="11"/>
-      <c r="I330" s="11"/>
+      <c r="A330" s="15"/>
+      <c r="G330" s="16"/>
+      <c r="I330" s="16"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="10"/>
-      <c r="G331" s="11"/>
-      <c r="I331" s="11"/>
+      <c r="A331" s="15"/>
+      <c r="G331" s="16"/>
+      <c r="I331" s="16"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="10"/>
-      <c r="G332" s="11"/>
-      <c r="I332" s="11"/>
+      <c r="A332" s="15"/>
+      <c r="G332" s="16"/>
+      <c r="I332" s="16"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="10"/>
-      <c r="G333" s="11"/>
-      <c r="I333" s="11"/>
+      <c r="A333" s="15"/>
+      <c r="G333" s="16"/>
+      <c r="I333" s="16"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="10"/>
-      <c r="G334" s="11"/>
-      <c r="I334" s="11"/>
+      <c r="A334" s="15"/>
+      <c r="G334" s="16"/>
+      <c r="I334" s="16"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="10"/>
-      <c r="G335" s="11"/>
-      <c r="I335" s="11"/>
+      <c r="A335" s="15"/>
+      <c r="G335" s="16"/>
+      <c r="I335" s="16"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="10"/>
-      <c r="G336" s="11"/>
-      <c r="I336" s="11"/>
+      <c r="A336" s="15"/>
+      <c r="G336" s="16"/>
+      <c r="I336" s="16"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="10"/>
-      <c r="G337" s="11"/>
-      <c r="I337" s="11"/>
+      <c r="A337" s="15"/>
+      <c r="G337" s="16"/>
+      <c r="I337" s="16"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="10"/>
-      <c r="G338" s="11"/>
-      <c r="I338" s="11"/>
+      <c r="A338" s="15"/>
+      <c r="G338" s="16"/>
+      <c r="I338" s="16"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="10"/>
-      <c r="G339" s="11"/>
-      <c r="I339" s="11"/>
+      <c r="A339" s="15"/>
+      <c r="G339" s="16"/>
+      <c r="I339" s="16"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="10"/>
-      <c r="G340" s="11"/>
-      <c r="I340" s="11"/>
+      <c r="A340" s="15"/>
+      <c r="G340" s="16"/>
+      <c r="I340" s="16"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="10"/>
-      <c r="G341" s="11"/>
-      <c r="I341" s="11"/>
+      <c r="A341" s="15"/>
+      <c r="G341" s="16"/>
+      <c r="I341" s="16"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="10"/>
-      <c r="G342" s="11"/>
-      <c r="I342" s="11"/>
+      <c r="A342" s="15"/>
+      <c r="G342" s="16"/>
+      <c r="I342" s="16"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="10"/>
-      <c r="G343" s="11"/>
-      <c r="I343" s="11"/>
+      <c r="A343" s="15"/>
+      <c r="G343" s="16"/>
+      <c r="I343" s="16"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="10"/>
-      <c r="G344" s="11"/>
-      <c r="I344" s="11"/>
+      <c r="A344" s="15"/>
+      <c r="G344" s="16"/>
+      <c r="I344" s="16"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="10"/>
-      <c r="G345" s="11"/>
-      <c r="I345" s="11"/>
+      <c r="A345" s="15"/>
+      <c r="G345" s="16"/>
+      <c r="I345" s="16"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="10"/>
-      <c r="G346" s="11"/>
-      <c r="I346" s="11"/>
+      <c r="A346" s="15"/>
+      <c r="G346" s="16"/>
+      <c r="I346" s="16"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="10"/>
-      <c r="G347" s="11"/>
-      <c r="I347" s="11"/>
+      <c r="A347" s="15"/>
+      <c r="G347" s="16"/>
+      <c r="I347" s="16"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="10"/>
-      <c r="G348" s="11"/>
-      <c r="I348" s="11"/>
+      <c r="A348" s="15"/>
+      <c r="G348" s="16"/>
+      <c r="I348" s="16"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="10"/>
-      <c r="G349" s="11"/>
-      <c r="I349" s="11"/>
+      <c r="A349" s="15"/>
+      <c r="G349" s="16"/>
+      <c r="I349" s="16"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="10"/>
-      <c r="G350" s="11"/>
-      <c r="I350" s="11"/>
+      <c r="A350" s="15"/>
+      <c r="G350" s="16"/>
+      <c r="I350" s="16"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="10"/>
-      <c r="G351" s="11"/>
-      <c r="I351" s="11"/>
+      <c r="A351" s="15"/>
+      <c r="G351" s="16"/>
+      <c r="I351" s="16"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="10"/>
-      <c r="G352" s="11"/>
-      <c r="I352" s="11"/>
+      <c r="A352" s="15"/>
+      <c r="G352" s="16"/>
+      <c r="I352" s="16"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="10"/>
-      <c r="G353" s="11"/>
-      <c r="I353" s="11"/>
+      <c r="A353" s="15"/>
+      <c r="G353" s="16"/>
+      <c r="I353" s="16"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="10"/>
-      <c r="G354" s="11"/>
-      <c r="I354" s="11"/>
+      <c r="A354" s="15"/>
+      <c r="G354" s="16"/>
+      <c r="I354" s="16"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="10"/>
-      <c r="G355" s="11"/>
-      <c r="I355" s="11"/>
+      <c r="A355" s="15"/>
+      <c r="G355" s="16"/>
+      <c r="I355" s="16"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="10"/>
-      <c r="G356" s="11"/>
-      <c r="I356" s="11"/>
+      <c r="A356" s="15"/>
+      <c r="G356" s="16"/>
+      <c r="I356" s="16"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="10"/>
-      <c r="G357" s="11"/>
-      <c r="I357" s="11"/>
+      <c r="A357" s="15"/>
+      <c r="G357" s="16"/>
+      <c r="I357" s="16"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="10"/>
-      <c r="G358" s="11"/>
-      <c r="I358" s="11"/>
+      <c r="A358" s="15"/>
+      <c r="G358" s="16"/>
+      <c r="I358" s="16"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="10"/>
-      <c r="G359" s="11"/>
-      <c r="I359" s="11"/>
+      <c r="A359" s="15"/>
+      <c r="G359" s="16"/>
+      <c r="I359" s="16"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="10"/>
-      <c r="G360" s="11"/>
-      <c r="I360" s="11"/>
+      <c r="A360" s="15"/>
+      <c r="G360" s="16"/>
+      <c r="I360" s="16"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="10"/>
-      <c r="G361" s="11"/>
-      <c r="I361" s="11"/>
+      <c r="A361" s="15"/>
+      <c r="G361" s="16"/>
+      <c r="I361" s="16"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="10"/>
-      <c r="G362" s="11"/>
-      <c r="I362" s="11"/>
+      <c r="A362" s="15"/>
+      <c r="G362" s="16"/>
+      <c r="I362" s="16"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="10"/>
-      <c r="G363" s="11"/>
-      <c r="I363" s="11"/>
+      <c r="A363" s="15"/>
+      <c r="G363" s="16"/>
+      <c r="I363" s="16"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="10"/>
-      <c r="G364" s="11"/>
-      <c r="I364" s="11"/>
+      <c r="A364" s="15"/>
+      <c r="G364" s="16"/>
+      <c r="I364" s="16"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="10"/>
-      <c r="G365" s="11"/>
-      <c r="I365" s="11"/>
+      <c r="A365" s="15"/>
+      <c r="G365" s="16"/>
+      <c r="I365" s="16"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="10"/>
-      <c r="G366" s="11"/>
-      <c r="I366" s="11"/>
+      <c r="A366" s="15"/>
+      <c r="G366" s="16"/>
+      <c r="I366" s="16"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="10"/>
-      <c r="G367" s="11"/>
-      <c r="I367" s="11"/>
+      <c r="A367" s="15"/>
+      <c r="G367" s="16"/>
+      <c r="I367" s="16"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="10"/>
-      <c r="G368" s="11"/>
-      <c r="I368" s="11"/>
+      <c r="A368" s="15"/>
+      <c r="G368" s="16"/>
+      <c r="I368" s="16"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="10"/>
-      <c r="G369" s="11"/>
-      <c r="I369" s="11"/>
+      <c r="A369" s="15"/>
+      <c r="G369" s="16"/>
+      <c r="I369" s="16"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="10"/>
-      <c r="G370" s="11"/>
-      <c r="I370" s="11"/>
+      <c r="A370" s="15"/>
+      <c r="G370" s="16"/>
+      <c r="I370" s="16"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="10"/>
-      <c r="G371" s="11"/>
-      <c r="I371" s="11"/>
+      <c r="A371" s="15"/>
+      <c r="G371" s="16"/>
+      <c r="I371" s="16"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="10"/>
-      <c r="G372" s="11"/>
-      <c r="I372" s="11"/>
+      <c r="A372" s="15"/>
+      <c r="G372" s="16"/>
+      <c r="I372" s="16"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="10"/>
-      <c r="G373" s="11"/>
-      <c r="I373" s="11"/>
+      <c r="A373" s="15"/>
+      <c r="G373" s="16"/>
+      <c r="I373" s="16"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="10"/>
-      <c r="G374" s="11"/>
-      <c r="I374" s="11"/>
+      <c r="A374" s="15"/>
+      <c r="G374" s="16"/>
+      <c r="I374" s="16"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="10"/>
-      <c r="G375" s="11"/>
-      <c r="I375" s="11"/>
+      <c r="A375" s="15"/>
+      <c r="G375" s="16"/>
+      <c r="I375" s="16"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="10"/>
-      <c r="G376" s="11"/>
-      <c r="I376" s="11"/>
+      <c r="A376" s="15"/>
+      <c r="G376" s="16"/>
+      <c r="I376" s="16"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="10"/>
-      <c r="G377" s="11"/>
-      <c r="I377" s="11"/>
+      <c r="A377" s="15"/>
+      <c r="G377" s="16"/>
+      <c r="I377" s="16"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="10"/>
-      <c r="G378" s="11"/>
-      <c r="I378" s="11"/>
+      <c r="A378" s="15"/>
+      <c r="G378" s="16"/>
+      <c r="I378" s="16"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="10"/>
-      <c r="G379" s="11"/>
-      <c r="I379" s="11"/>
+      <c r="A379" s="15"/>
+      <c r="G379" s="16"/>
+      <c r="I379" s="16"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="10"/>
-      <c r="G380" s="11"/>
-      <c r="I380" s="11"/>
+      <c r="A380" s="15"/>
+      <c r="G380" s="16"/>
+      <c r="I380" s="16"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="10"/>
-      <c r="G381" s="11"/>
-      <c r="I381" s="11"/>
+      <c r="A381" s="15"/>
+      <c r="G381" s="16"/>
+      <c r="I381" s="16"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="10"/>
-      <c r="G382" s="11"/>
-      <c r="I382" s="11"/>
+      <c r="A382" s="15"/>
+      <c r="G382" s="16"/>
+      <c r="I382" s="16"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="10"/>
-      <c r="G383" s="11"/>
-      <c r="I383" s="11"/>
+      <c r="A383" s="15"/>
+      <c r="G383" s="16"/>
+      <c r="I383" s="16"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="10"/>
-      <c r="G384" s="11"/>
-      <c r="I384" s="11"/>
+      <c r="A384" s="15"/>
+      <c r="G384" s="16"/>
+      <c r="I384" s="16"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="10"/>
-      <c r="G385" s="11"/>
-      <c r="I385" s="11"/>
+      <c r="A385" s="15"/>
+      <c r="G385" s="16"/>
+      <c r="I385" s="16"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="10"/>
-      <c r="G386" s="11"/>
-      <c r="I386" s="11"/>
+      <c r="A386" s="15"/>
+      <c r="G386" s="16"/>
+      <c r="I386" s="16"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="10"/>
-      <c r="G387" s="11"/>
-      <c r="I387" s="11"/>
+      <c r="A387" s="15"/>
+      <c r="G387" s="16"/>
+      <c r="I387" s="16"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="10"/>
-      <c r="G388" s="11"/>
-      <c r="I388" s="11"/>
+      <c r="A388" s="15"/>
+      <c r="G388" s="16"/>
+      <c r="I388" s="16"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="10"/>
-      <c r="G389" s="11"/>
-      <c r="I389" s="11"/>
+      <c r="A389" s="15"/>
+      <c r="G389" s="16"/>
+      <c r="I389" s="16"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="10"/>
-      <c r="G390" s="11"/>
-      <c r="I390" s="11"/>
+      <c r="A390" s="15"/>
+      <c r="G390" s="16"/>
+      <c r="I390" s="16"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="10"/>
-      <c r="G391" s="11"/>
-      <c r="I391" s="11"/>
+      <c r="A391" s="15"/>
+      <c r="G391" s="16"/>
+      <c r="I391" s="16"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="10"/>
-      <c r="G392" s="11"/>
-      <c r="I392" s="11"/>
+      <c r="A392" s="15"/>
+      <c r="G392" s="16"/>
+      <c r="I392" s="16"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="10"/>
-      <c r="G393" s="11"/>
-      <c r="I393" s="11"/>
+      <c r="A393" s="15"/>
+      <c r="G393" s="16"/>
+      <c r="I393" s="16"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="10"/>
-      <c r="G394" s="11"/>
-      <c r="I394" s="11"/>
+      <c r="A394" s="15"/>
+      <c r="G394" s="16"/>
+      <c r="I394" s="16"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="10"/>
-      <c r="G395" s="11"/>
-      <c r="I395" s="11"/>
+      <c r="A395" s="15"/>
+      <c r="G395" s="16"/>
+      <c r="I395" s="16"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="10"/>
-      <c r="G396" s="11"/>
-      <c r="I396" s="11"/>
+      <c r="A396" s="15"/>
+      <c r="G396" s="16"/>
+      <c r="I396" s="16"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="10"/>
-      <c r="G397" s="11"/>
-      <c r="I397" s="11"/>
+      <c r="A397" s="15"/>
+      <c r="G397" s="16"/>
+      <c r="I397" s="16"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="10"/>
-      <c r="G398" s="11"/>
-      <c r="I398" s="11"/>
+      <c r="A398" s="15"/>
+      <c r="G398" s="16"/>
+      <c r="I398" s="16"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="10"/>
-      <c r="G399" s="11"/>
-      <c r="I399" s="11"/>
+      <c r="A399" s="15"/>
+      <c r="G399" s="16"/>
+      <c r="I399" s="16"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="10"/>
-      <c r="G400" s="11"/>
-      <c r="I400" s="11"/>
+      <c r="A400" s="15"/>
+      <c r="G400" s="16"/>
+      <c r="I400" s="16"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="10"/>
-      <c r="G401" s="11"/>
-      <c r="I401" s="11"/>
+      <c r="A401" s="15"/>
+      <c r="G401" s="16"/>
+      <c r="I401" s="16"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="10"/>
-      <c r="G402" s="11"/>
-      <c r="I402" s="11"/>
+      <c r="A402" s="15"/>
+      <c r="G402" s="16"/>
+      <c r="I402" s="16"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="10"/>
-      <c r="G403" s="11"/>
-      <c r="I403" s="11"/>
+      <c r="A403" s="15"/>
+      <c r="G403" s="16"/>
+      <c r="I403" s="16"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="10"/>
-      <c r="G404" s="11"/>
-      <c r="I404" s="11"/>
+      <c r="A404" s="15"/>
+      <c r="G404" s="16"/>
+      <c r="I404" s="16"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="10"/>
-      <c r="G405" s="11"/>
-      <c r="I405" s="11"/>
+      <c r="A405" s="15"/>
+      <c r="G405" s="16"/>
+      <c r="I405" s="16"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="10"/>
-      <c r="G406" s="11"/>
-      <c r="I406" s="11"/>
+      <c r="A406" s="15"/>
+      <c r="G406" s="16"/>
+      <c r="I406" s="16"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="10"/>
-      <c r="G407" s="11"/>
-      <c r="I407" s="11"/>
+      <c r="A407" s="15"/>
+      <c r="G407" s="16"/>
+      <c r="I407" s="16"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="10"/>
-      <c r="G408" s="11"/>
-      <c r="I408" s="11"/>
+      <c r="A408" s="15"/>
+      <c r="G408" s="16"/>
+      <c r="I408" s="16"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="10"/>
-      <c r="G409" s="11"/>
-      <c r="I409" s="11"/>
+      <c r="A409" s="15"/>
+      <c r="G409" s="16"/>
+      <c r="I409" s="16"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="10"/>
-      <c r="G410" s="11"/>
-      <c r="I410" s="11"/>
+      <c r="A410" s="15"/>
+      <c r="G410" s="16"/>
+      <c r="I410" s="16"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="10"/>
-      <c r="G411" s="11"/>
-      <c r="I411" s="11"/>
+      <c r="A411" s="15"/>
+      <c r="G411" s="16"/>
+      <c r="I411" s="16"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="10"/>
-      <c r="G412" s="11"/>
-      <c r="I412" s="11"/>
+      <c r="A412" s="15"/>
+      <c r="G412" s="16"/>
+      <c r="I412" s="16"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="10"/>
-      <c r="G413" s="11"/>
-      <c r="I413" s="11"/>
+      <c r="A413" s="15"/>
+      <c r="G413" s="16"/>
+      <c r="I413" s="16"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="10"/>
-      <c r="G414" s="11"/>
-      <c r="I414" s="11"/>
+      <c r="A414" s="15"/>
+      <c r="G414" s="16"/>
+      <c r="I414" s="16"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="10"/>
-      <c r="G415" s="11"/>
-      <c r="I415" s="11"/>
+      <c r="A415" s="15"/>
+      <c r="G415" s="16"/>
+      <c r="I415" s="16"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="10"/>
-      <c r="G416" s="11"/>
-      <c r="I416" s="11"/>
+      <c r="A416" s="15"/>
+      <c r="G416" s="16"/>
+      <c r="I416" s="16"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="10"/>
-      <c r="G417" s="11"/>
-      <c r="I417" s="11"/>
+      <c r="A417" s="15"/>
+      <c r="G417" s="16"/>
+      <c r="I417" s="16"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="10"/>
-      <c r="G418" s="11"/>
-      <c r="I418" s="11"/>
+      <c r="A418" s="15"/>
+      <c r="G418" s="16"/>
+      <c r="I418" s="16"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="10"/>
-      <c r="G419" s="11"/>
-      <c r="I419" s="11"/>
+      <c r="A419" s="15"/>
+      <c r="G419" s="16"/>
+      <c r="I419" s="16"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="10"/>
-      <c r="G420" s="11"/>
-      <c r="I420" s="11"/>
+      <c r="A420" s="15"/>
+      <c r="G420" s="16"/>
+      <c r="I420" s="16"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="10"/>
-      <c r="G421" s="11"/>
-      <c r="I421" s="11"/>
+      <c r="A421" s="15"/>
+      <c r="G421" s="16"/>
+      <c r="I421" s="16"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="10"/>
-      <c r="G422" s="11"/>
-      <c r="I422" s="11"/>
+      <c r="A422" s="15"/>
+      <c r="G422" s="16"/>
+      <c r="I422" s="16"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="10"/>
-      <c r="G423" s="11"/>
-      <c r="I423" s="11"/>
+      <c r="A423" s="15"/>
+      <c r="G423" s="16"/>
+      <c r="I423" s="16"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="10"/>
-      <c r="G424" s="11"/>
-      <c r="I424" s="11"/>
+      <c r="A424" s="15"/>
+      <c r="G424" s="16"/>
+      <c r="I424" s="16"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="10"/>
-      <c r="G425" s="11"/>
-      <c r="I425" s="11"/>
+      <c r="A425" s="15"/>
+      <c r="G425" s="16"/>
+      <c r="I425" s="16"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="10"/>
-      <c r="G426" s="11"/>
-      <c r="I426" s="11"/>
+      <c r="A426" s="15"/>
+      <c r="G426" s="16"/>
+      <c r="I426" s="16"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="10"/>
-      <c r="G427" s="11"/>
-      <c r="I427" s="11"/>
+      <c r="A427" s="15"/>
+      <c r="G427" s="16"/>
+      <c r="I427" s="16"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="10"/>
-      <c r="G428" s="11"/>
-      <c r="I428" s="11"/>
+      <c r="A428" s="15"/>
+      <c r="G428" s="16"/>
+      <c r="I428" s="16"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="10"/>
-      <c r="G429" s="11"/>
-      <c r="I429" s="11"/>
+      <c r="A429" s="15"/>
+      <c r="G429" s="16"/>
+      <c r="I429" s="16"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="10"/>
-      <c r="G430" s="11"/>
-      <c r="I430" s="11"/>
+      <c r="A430" s="15"/>
+      <c r="G430" s="16"/>
+      <c r="I430" s="16"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="10"/>
-      <c r="G431" s="11"/>
-      <c r="I431" s="11"/>
+      <c r="A431" s="15"/>
+      <c r="G431" s="16"/>
+      <c r="I431" s="16"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="10"/>
-      <c r="G432" s="11"/>
-      <c r="I432" s="11"/>
+      <c r="A432" s="15"/>
+      <c r="G432" s="16"/>
+      <c r="I432" s="16"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="10"/>
-      <c r="G433" s="11"/>
-      <c r="I433" s="11"/>
+      <c r="A433" s="15"/>
+      <c r="G433" s="16"/>
+      <c r="I433" s="16"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="10"/>
-      <c r="G434" s="11"/>
-      <c r="I434" s="11"/>
+      <c r="A434" s="15"/>
+      <c r="G434" s="16"/>
+      <c r="I434" s="16"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="10"/>
-      <c r="G435" s="11"/>
-      <c r="I435" s="11"/>
+      <c r="A435" s="15"/>
+      <c r="G435" s="16"/>
+      <c r="I435" s="16"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="10"/>
-      <c r="G436" s="11"/>
-      <c r="I436" s="11"/>
+      <c r="A436" s="15"/>
+      <c r="G436" s="16"/>
+      <c r="I436" s="16"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="10"/>
-      <c r="G437" s="11"/>
-      <c r="I437" s="11"/>
+      <c r="A437" s="15"/>
+      <c r="G437" s="16"/>
+      <c r="I437" s="16"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="10"/>
-      <c r="G438" s="11"/>
-      <c r="I438" s="11"/>
+      <c r="A438" s="15"/>
+      <c r="G438" s="16"/>
+      <c r="I438" s="16"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="10"/>
-      <c r="G439" s="11"/>
-      <c r="I439" s="11"/>
+      <c r="A439" s="15"/>
+      <c r="G439" s="16"/>
+      <c r="I439" s="16"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="10"/>
-      <c r="G440" s="11"/>
-      <c r="I440" s="11"/>
+      <c r="A440" s="15"/>
+      <c r="G440" s="16"/>
+      <c r="I440" s="16"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="10"/>
-      <c r="G441" s="11"/>
-      <c r="I441" s="11"/>
+      <c r="A441" s="15"/>
+      <c r="G441" s="16"/>
+      <c r="I441" s="16"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="10"/>
-      <c r="G442" s="11"/>
-      <c r="I442" s="11"/>
+      <c r="A442" s="15"/>
+      <c r="G442" s="16"/>
+      <c r="I442" s="16"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="10"/>
-      <c r="G443" s="11"/>
-      <c r="I443" s="11"/>
+      <c r="A443" s="15"/>
+      <c r="G443" s="16"/>
+      <c r="I443" s="16"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="10"/>
-      <c r="G444" s="11"/>
-      <c r="I444" s="11"/>
+      <c r="A444" s="15"/>
+      <c r="G444" s="16"/>
+      <c r="I444" s="16"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="10"/>
-      <c r="G445" s="11"/>
-      <c r="I445" s="11"/>
+      <c r="A445" s="15"/>
+      <c r="G445" s="16"/>
+      <c r="I445" s="16"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="10"/>
-      <c r="G446" s="11"/>
-      <c r="I446" s="11"/>
+      <c r="A446" s="15"/>
+      <c r="G446" s="16"/>
+      <c r="I446" s="16"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="10"/>
-      <c r="G447" s="11"/>
-      <c r="I447" s="11"/>
+      <c r="A447" s="15"/>
+      <c r="G447" s="16"/>
+      <c r="I447" s="16"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="10"/>
-      <c r="G448" s="11"/>
-      <c r="I448" s="11"/>
+      <c r="A448" s="15"/>
+      <c r="G448" s="16"/>
+      <c r="I448" s="16"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="10"/>
-      <c r="G449" s="11"/>
-      <c r="I449" s="11"/>
+      <c r="A449" s="15"/>
+      <c r="G449" s="16"/>
+      <c r="I449" s="16"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="10"/>
-      <c r="G450" s="11"/>
-      <c r="I450" s="11"/>
+      <c r="A450" s="15"/>
+      <c r="G450" s="16"/>
+      <c r="I450" s="16"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="10"/>
-      <c r="G451" s="11"/>
-      <c r="I451" s="11"/>
+      <c r="A451" s="15"/>
+      <c r="G451" s="16"/>
+      <c r="I451" s="16"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="10"/>
-      <c r="G452" s="11"/>
-      <c r="I452" s="11"/>
+      <c r="A452" s="15"/>
+      <c r="G452" s="16"/>
+      <c r="I452" s="16"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="10"/>
-      <c r="G453" s="11"/>
-      <c r="I453" s="11"/>
+      <c r="A453" s="15"/>
+      <c r="G453" s="16"/>
+      <c r="I453" s="16"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="10"/>
-      <c r="G454" s="11"/>
-      <c r="I454" s="11"/>
+      <c r="A454" s="15"/>
+      <c r="G454" s="16"/>
+      <c r="I454" s="16"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="10"/>
-      <c r="G455" s="11"/>
-      <c r="I455" s="11"/>
+      <c r="A455" s="15"/>
+      <c r="G455" s="16"/>
+      <c r="I455" s="16"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="10"/>
-      <c r="G456" s="11"/>
-      <c r="I456" s="11"/>
+      <c r="A456" s="15"/>
+      <c r="G456" s="16"/>
+      <c r="I456" s="16"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="10"/>
-      <c r="G457" s="11"/>
-      <c r="I457" s="11"/>
+      <c r="A457" s="15"/>
+      <c r="G457" s="16"/>
+      <c r="I457" s="16"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="10"/>
-      <c r="G458" s="11"/>
-      <c r="I458" s="11"/>
+      <c r="A458" s="15"/>
+      <c r="G458" s="16"/>
+      <c r="I458" s="16"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="10"/>
-      <c r="G459" s="11"/>
-      <c r="I459" s="11"/>
+      <c r="A459" s="15"/>
+      <c r="G459" s="16"/>
+      <c r="I459" s="16"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="10"/>
-      <c r="G460" s="11"/>
-      <c r="I460" s="11"/>
+      <c r="A460" s="15"/>
+      <c r="G460" s="16"/>
+      <c r="I460" s="16"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="10"/>
-      <c r="G461" s="11"/>
-      <c r="I461" s="11"/>
+      <c r="A461" s="15"/>
+      <c r="G461" s="16"/>
+      <c r="I461" s="16"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="10"/>
-      <c r="G462" s="11"/>
-      <c r="I462" s="11"/>
+      <c r="A462" s="15"/>
+      <c r="G462" s="16"/>
+      <c r="I462" s="16"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="10"/>
-      <c r="G463" s="11"/>
-      <c r="I463" s="11"/>
+      <c r="A463" s="15"/>
+      <c r="G463" s="16"/>
+      <c r="I463" s="16"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="10"/>
-      <c r="G464" s="11"/>
-      <c r="I464" s="11"/>
+      <c r="A464" s="15"/>
+      <c r="G464" s="16"/>
+      <c r="I464" s="16"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="10"/>
-      <c r="G465" s="11"/>
-      <c r="I465" s="11"/>
+      <c r="A465" s="15"/>
+      <c r="G465" s="16"/>
+      <c r="I465" s="16"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="10"/>
-      <c r="G466" s="11"/>
-      <c r="I466" s="11"/>
+      <c r="A466" s="15"/>
+      <c r="G466" s="16"/>
+      <c r="I466" s="16"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="10"/>
-      <c r="G467" s="11"/>
-      <c r="I467" s="11"/>
+      <c r="A467" s="15"/>
+      <c r="G467" s="16"/>
+      <c r="I467" s="16"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="10"/>
-      <c r="G468" s="11"/>
-      <c r="I468" s="11"/>
+      <c r="A468" s="15"/>
+      <c r="G468" s="16"/>
+      <c r="I468" s="16"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="10"/>
-      <c r="G469" s="11"/>
-      <c r="I469" s="11"/>
+      <c r="A469" s="15"/>
+      <c r="G469" s="16"/>
+      <c r="I469" s="16"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="10"/>
-      <c r="G470" s="11"/>
-      <c r="I470" s="11"/>
+      <c r="A470" s="15"/>
+      <c r="G470" s="16"/>
+      <c r="I470" s="16"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="10"/>
-      <c r="G471" s="11"/>
-      <c r="I471" s="11"/>
+      <c r="A471" s="15"/>
+      <c r="G471" s="16"/>
+      <c r="I471" s="16"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="10"/>
-      <c r="G472" s="11"/>
-      <c r="I472" s="11"/>
+      <c r="A472" s="15"/>
+      <c r="G472" s="16"/>
+      <c r="I472" s="16"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="10"/>
-      <c r="G473" s="11"/>
-      <c r="I473" s="11"/>
+      <c r="A473" s="15"/>
+      <c r="G473" s="16"/>
+      <c r="I473" s="16"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="10"/>
-      <c r="G474" s="11"/>
-      <c r="I474" s="11"/>
+      <c r="A474" s="15"/>
+      <c r="G474" s="16"/>
+      <c r="I474" s="16"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="10"/>
-      <c r="G475" s="11"/>
-      <c r="I475" s="11"/>
+      <c r="A475" s="15"/>
+      <c r="G475" s="16"/>
+      <c r="I475" s="16"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="10"/>
-      <c r="G476" s="11"/>
-      <c r="I476" s="11"/>
+      <c r="A476" s="15"/>
+      <c r="G476" s="16"/>
+      <c r="I476" s="16"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="10"/>
-      <c r="G477" s="11"/>
-      <c r="I477" s="11"/>
+      <c r="A477" s="15"/>
+      <c r="G477" s="16"/>
+      <c r="I477" s="16"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="10"/>
-      <c r="G478" s="11"/>
-      <c r="I478" s="11"/>
+      <c r="A478" s="15"/>
+      <c r="G478" s="16"/>
+      <c r="I478" s="16"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="10"/>
-      <c r="G479" s="11"/>
-      <c r="I479" s="11"/>
+      <c r="A479" s="15"/>
+      <c r="G479" s="16"/>
+      <c r="I479" s="16"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="10"/>
-      <c r="G480" s="11"/>
-      <c r="I480" s="11"/>
+      <c r="A480" s="15"/>
+      <c r="G480" s="16"/>
+      <c r="I480" s="16"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="10"/>
-      <c r="G481" s="11"/>
-      <c r="I481" s="11"/>
+      <c r="A481" s="15"/>
+      <c r="G481" s="16"/>
+      <c r="I481" s="16"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="10"/>
-      <c r="G482" s="11"/>
-      <c r="I482" s="11"/>
+      <c r="A482" s="15"/>
+      <c r="G482" s="16"/>
+      <c r="I482" s="16"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="10"/>
-      <c r="G483" s="11"/>
-      <c r="I483" s="11"/>
+      <c r="A483" s="15"/>
+      <c r="G483" s="16"/>
+      <c r="I483" s="16"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="10"/>
-      <c r="G484" s="11"/>
-      <c r="I484" s="11"/>
+      <c r="A484" s="15"/>
+      <c r="G484" s="16"/>
+      <c r="I484" s="16"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="10"/>
-      <c r="G485" s="11"/>
-      <c r="I485" s="11"/>
+      <c r="A485" s="15"/>
+      <c r="G485" s="16"/>
+      <c r="I485" s="16"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="10"/>
-      <c r="G486" s="11"/>
-      <c r="I486" s="11"/>
+      <c r="A486" s="15"/>
+      <c r="G486" s="16"/>
+      <c r="I486" s="16"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="10"/>
-      <c r="G487" s="11"/>
-      <c r="I487" s="11"/>
+      <c r="A487" s="15"/>
+      <c r="G487" s="16"/>
+      <c r="I487" s="16"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="10"/>
-      <c r="G488" s="11"/>
-      <c r="I488" s="11"/>
+      <c r="A488" s="15"/>
+      <c r="G488" s="16"/>
+      <c r="I488" s="16"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="10"/>
-      <c r="G489" s="11"/>
-      <c r="I489" s="11"/>
+      <c r="A489" s="15"/>
+      <c r="G489" s="16"/>
+      <c r="I489" s="16"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="10"/>
-      <c r="G490" s="11"/>
-      <c r="I490" s="11"/>
+      <c r="A490" s="15"/>
+      <c r="G490" s="16"/>
+      <c r="I490" s="16"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="10"/>
-      <c r="G491" s="11"/>
-      <c r="I491" s="11"/>
+      <c r="A491" s="15"/>
+      <c r="G491" s="16"/>
+      <c r="I491" s="16"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="10"/>
-      <c r="G492" s="11"/>
-      <c r="I492" s="11"/>
+      <c r="A492" s="15"/>
+      <c r="G492" s="16"/>
+      <c r="I492" s="16"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="10"/>
-      <c r="G493" s="11"/>
-      <c r="I493" s="11"/>
+      <c r="A493" s="15"/>
+      <c r="G493" s="16"/>
+      <c r="I493" s="16"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="10"/>
-      <c r="G494" s="11"/>
-      <c r="I494" s="11"/>
+      <c r="A494" s="15"/>
+      <c r="G494" s="16"/>
+      <c r="I494" s="16"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="10"/>
-      <c r="G495" s="11"/>
-      <c r="I495" s="11"/>
+      <c r="A495" s="15"/>
+      <c r="G495" s="16"/>
+      <c r="I495" s="16"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="10"/>
-      <c r="G496" s="11"/>
-      <c r="I496" s="11"/>
+      <c r="A496" s="15"/>
+      <c r="G496" s="16"/>
+      <c r="I496" s="16"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="10"/>
-      <c r="G497" s="11"/>
-      <c r="I497" s="11"/>
+      <c r="A497" s="15"/>
+      <c r="G497" s="16"/>
+      <c r="I497" s="16"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="10"/>
-      <c r="G498" s="11"/>
-      <c r="I498" s="11"/>
+      <c r="A498" s="15"/>
+      <c r="G498" s="16"/>
+      <c r="I498" s="16"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="10"/>
-      <c r="G499" s="11"/>
-      <c r="I499" s="11"/>
+      <c r="A499" s="15"/>
+      <c r="G499" s="16"/>
+      <c r="I499" s="16"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="10"/>
-      <c r="G500" s="11"/>
-      <c r="I500" s="11"/>
+      <c r="A500" s="15"/>
+      <c r="G500" s="16"/>
+      <c r="I500" s="16"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="10"/>
-      <c r="G501" s="11"/>
-      <c r="I501" s="11"/>
+      <c r="A501" s="15"/>
+      <c r="G501" s="16"/>
+      <c r="I501" s="16"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="10"/>
-      <c r="G502" s="11"/>
-      <c r="I502" s="11"/>
+      <c r="A502" s="15"/>
+      <c r="G502" s="16"/>
+      <c r="I502" s="16"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="10"/>
-      <c r="G503" s="11"/>
-      <c r="I503" s="11"/>
+      <c r="A503" s="15"/>
+      <c r="G503" s="16"/>
+      <c r="I503" s="16"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="10"/>
-      <c r="G504" s="11"/>
-      <c r="I504" s="11"/>
+      <c r="A504" s="15"/>
+      <c r="G504" s="16"/>
+      <c r="I504" s="16"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="10"/>
-      <c r="G505" s="11"/>
-      <c r="I505" s="11"/>
+      <c r="A505" s="15"/>
+      <c r="G505" s="16"/>
+      <c r="I505" s="16"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="10"/>
-      <c r="G506" s="11"/>
-      <c r="I506" s="11"/>
+      <c r="A506" s="15"/>
+      <c r="G506" s="16"/>
+      <c r="I506" s="16"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="10"/>
-      <c r="G507" s="11"/>
-      <c r="I507" s="11"/>
+      <c r="A507" s="15"/>
+      <c r="G507" s="16"/>
+      <c r="I507" s="16"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="10"/>
-      <c r="G508" s="11"/>
-      <c r="I508" s="11"/>
+      <c r="A508" s="15"/>
+      <c r="G508" s="16"/>
+      <c r="I508" s="16"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="10"/>
-      <c r="G509" s="11"/>
-      <c r="I509" s="11"/>
+      <c r="A509" s="15"/>
+      <c r="G509" s="16"/>
+      <c r="I509" s="16"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="10"/>
-      <c r="G510" s="11"/>
-      <c r="I510" s="11"/>
+      <c r="A510" s="15"/>
+      <c r="G510" s="16"/>
+      <c r="I510" s="16"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="10"/>
-      <c r="G511" s="11"/>
-      <c r="I511" s="11"/>
+      <c r="A511" s="15"/>
+      <c r="G511" s="16"/>
+      <c r="I511" s="16"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="10"/>
-      <c r="G512" s="11"/>
-      <c r="I512" s="11"/>
+      <c r="A512" s="15"/>
+      <c r="G512" s="16"/>
+      <c r="I512" s="16"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="10"/>
-      <c r="G513" s="11"/>
-      <c r="I513" s="11"/>
+      <c r="A513" s="15"/>
+      <c r="G513" s="16"/>
+      <c r="I513" s="16"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="10"/>
-      <c r="G514" s="11"/>
-      <c r="I514" s="11"/>
+      <c r="A514" s="15"/>
+      <c r="G514" s="16"/>
+      <c r="I514" s="16"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="10"/>
-      <c r="G515" s="11"/>
-      <c r="I515" s="11"/>
+      <c r="A515" s="15"/>
+      <c r="G515" s="16"/>
+      <c r="I515" s="16"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="10"/>
-      <c r="G516" s="11"/>
-      <c r="I516" s="11"/>
+      <c r="A516" s="15"/>
+      <c r="G516" s="16"/>
+      <c r="I516" s="16"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="10"/>
-      <c r="G517" s="11"/>
-      <c r="I517" s="11"/>
+      <c r="A517" s="15"/>
+      <c r="G517" s="16"/>
+      <c r="I517" s="16"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="10"/>
-      <c r="G518" s="11"/>
-      <c r="I518" s="11"/>
+      <c r="A518" s="15"/>
+      <c r="G518" s="16"/>
+      <c r="I518" s="16"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="10"/>
-      <c r="G519" s="11"/>
-      <c r="I519" s="11"/>
+      <c r="A519" s="15"/>
+      <c r="G519" s="16"/>
+      <c r="I519" s="16"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="10"/>
-      <c r="G520" s="11"/>
-      <c r="I520" s="11"/>
+      <c r="A520" s="15"/>
+      <c r="G520" s="16"/>
+      <c r="I520" s="16"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="10"/>
-      <c r="G521" s="11"/>
-      <c r="I521" s="11"/>
+      <c r="A521" s="15"/>
+      <c r="G521" s="16"/>
+      <c r="I521" s="16"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="10"/>
-      <c r="G522" s="11"/>
-      <c r="I522" s="11"/>
+      <c r="A522" s="15"/>
+      <c r="G522" s="16"/>
+      <c r="I522" s="16"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="10"/>
-      <c r="G523" s="11"/>
-      <c r="I523" s="11"/>
+      <c r="A523" s="15"/>
+      <c r="G523" s="16"/>
+      <c r="I523" s="16"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="10"/>
-      <c r="G524" s="11"/>
-      <c r="I524" s="11"/>
+      <c r="A524" s="15"/>
+      <c r="G524" s="16"/>
+      <c r="I524" s="16"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="10"/>
-      <c r="G525" s="11"/>
-      <c r="I525" s="11"/>
+      <c r="A525" s="15"/>
+      <c r="G525" s="16"/>
+      <c r="I525" s="16"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="10"/>
-      <c r="G526" s="11"/>
-      <c r="I526" s="11"/>
+      <c r="A526" s="15"/>
+      <c r="G526" s="16"/>
+      <c r="I526" s="16"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="10"/>
-      <c r="G527" s="11"/>
-      <c r="I527" s="11"/>
+      <c r="A527" s="15"/>
+      <c r="G527" s="16"/>
+      <c r="I527" s="16"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="10"/>
-      <c r="G528" s="11"/>
-      <c r="I528" s="11"/>
+      <c r="A528" s="15"/>
+      <c r="G528" s="16"/>
+      <c r="I528" s="16"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="10"/>
-      <c r="G529" s="11"/>
-      <c r="I529" s="11"/>
+      <c r="A529" s="15"/>
+      <c r="G529" s="16"/>
+      <c r="I529" s="16"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="10"/>
-      <c r="G530" s="11"/>
-      <c r="I530" s="11"/>
+      <c r="A530" s="15"/>
+      <c r="G530" s="16"/>
+      <c r="I530" s="16"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="10"/>
-      <c r="G531" s="11"/>
-      <c r="I531" s="11"/>
+      <c r="A531" s="15"/>
+      <c r="G531" s="16"/>
+      <c r="I531" s="16"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="10"/>
-      <c r="G532" s="11"/>
-      <c r="I532" s="11"/>
+      <c r="A532" s="15"/>
+      <c r="G532" s="16"/>
+      <c r="I532" s="16"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="10"/>
-      <c r="G533" s="11"/>
-      <c r="I533" s="11"/>
+      <c r="A533" s="15"/>
+      <c r="G533" s="16"/>
+      <c r="I533" s="16"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="10"/>
-      <c r="G534" s="11"/>
-      <c r="I534" s="11"/>
+      <c r="A534" s="15"/>
+      <c r="G534" s="16"/>
+      <c r="I534" s="16"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="10"/>
-      <c r="G535" s="11"/>
-      <c r="I535" s="11"/>
+      <c r="A535" s="15"/>
+      <c r="G535" s="16"/>
+      <c r="I535" s="16"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="10"/>
-      <c r="G536" s="11"/>
-      <c r="I536" s="11"/>
+      <c r="A536" s="15"/>
+      <c r="G536" s="16"/>
+      <c r="I536" s="16"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="10"/>
-      <c r="G537" s="11"/>
-      <c r="I537" s="11"/>
+      <c r="A537" s="15"/>
+      <c r="G537" s="16"/>
+      <c r="I537" s="16"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="10"/>
-      <c r="G538" s="11"/>
-      <c r="I538" s="11"/>
+      <c r="A538" s="15"/>
+      <c r="G538" s="16"/>
+      <c r="I538" s="16"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="10"/>
-      <c r="G539" s="11"/>
-      <c r="I539" s="11"/>
+      <c r="A539" s="15"/>
+      <c r="G539" s="16"/>
+      <c r="I539" s="16"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="10"/>
-      <c r="G540" s="11"/>
-      <c r="I540" s="11"/>
+      <c r="A540" s="15"/>
+      <c r="G540" s="16"/>
+      <c r="I540" s="16"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="10"/>
-      <c r="G541" s="11"/>
-      <c r="I541" s="11"/>
+      <c r="A541" s="15"/>
+      <c r="G541" s="16"/>
+      <c r="I541" s="16"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="10"/>
-      <c r="G542" s="11"/>
-      <c r="I542" s="11"/>
+      <c r="A542" s="15"/>
+      <c r="G542" s="16"/>
+      <c r="I542" s="16"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="10"/>
-      <c r="G543" s="11"/>
-      <c r="I543" s="11"/>
+      <c r="A543" s="15"/>
+      <c r="G543" s="16"/>
+      <c r="I543" s="16"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="10"/>
-      <c r="G544" s="11"/>
-      <c r="I544" s="11"/>
+      <c r="A544" s="15"/>
+      <c r="G544" s="16"/>
+      <c r="I544" s="16"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="10"/>
-      <c r="G545" s="11"/>
-      <c r="I545" s="11"/>
+      <c r="A545" s="15"/>
+      <c r="G545" s="16"/>
+      <c r="I545" s="16"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="10"/>
-      <c r="G546" s="11"/>
-      <c r="I546" s="11"/>
+      <c r="A546" s="15"/>
+      <c r="G546" s="16"/>
+      <c r="I546" s="16"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="10"/>
-      <c r="G547" s="11"/>
-      <c r="I547" s="11"/>
+      <c r="A547" s="15"/>
+      <c r="G547" s="16"/>
+      <c r="I547" s="16"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="10"/>
-      <c r="G548" s="11"/>
-      <c r="I548" s="11"/>
+      <c r="A548" s="15"/>
+      <c r="G548" s="16"/>
+      <c r="I548" s="16"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="10"/>
-      <c r="G549" s="11"/>
-      <c r="I549" s="11"/>
+      <c r="A549" s="15"/>
+      <c r="G549" s="16"/>
+      <c r="I549" s="16"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="10"/>
-      <c r="G550" s="11"/>
-      <c r="I550" s="11"/>
+      <c r="A550" s="15"/>
+      <c r="G550" s="16"/>
+      <c r="I550" s="16"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="10"/>
-      <c r="G551" s="11"/>
-      <c r="I551" s="11"/>
+      <c r="A551" s="15"/>
+      <c r="G551" s="16"/>
+      <c r="I551" s="16"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="10"/>
-      <c r="G552" s="11"/>
-      <c r="I552" s="11"/>
+      <c r="A552" s="15"/>
+      <c r="G552" s="16"/>
+      <c r="I552" s="16"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="10"/>
-      <c r="G553" s="11"/>
-      <c r="I553" s="11"/>
+      <c r="A553" s="15"/>
+      <c r="G553" s="16"/>
+      <c r="I553" s="16"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="10"/>
-      <c r="G554" s="11"/>
-      <c r="I554" s="11"/>
+      <c r="A554" s="15"/>
+      <c r="G554" s="16"/>
+      <c r="I554" s="16"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="10"/>
-      <c r="G555" s="11"/>
-      <c r="I555" s="11"/>
+      <c r="A555" s="15"/>
+      <c r="G555" s="16"/>
+      <c r="I555" s="16"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="10"/>
-      <c r="G556" s="11"/>
-      <c r="I556" s="11"/>
+      <c r="A556" s="15"/>
+      <c r="G556" s="16"/>
+      <c r="I556" s="16"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="10"/>
-      <c r="G557" s="11"/>
-      <c r="I557" s="11"/>
+      <c r="A557" s="15"/>
+      <c r="G557" s="16"/>
+      <c r="I557" s="16"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="10"/>
-      <c r="G558" s="11"/>
-      <c r="I558" s="11"/>
+      <c r="A558" s="15"/>
+      <c r="G558" s="16"/>
+      <c r="I558" s="16"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="10"/>
-      <c r="G559" s="11"/>
-      <c r="I559" s="11"/>
+      <c r="A559" s="15"/>
+      <c r="G559" s="16"/>
+      <c r="I559" s="16"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="10"/>
-      <c r="G560" s="11"/>
-      <c r="I560" s="11"/>
+      <c r="A560" s="15"/>
+      <c r="G560" s="16"/>
+      <c r="I560" s="16"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="10"/>
-      <c r="G561" s="11"/>
-      <c r="I561" s="11"/>
+      <c r="A561" s="15"/>
+      <c r="G561" s="16"/>
+      <c r="I561" s="16"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="10"/>
-      <c r="G562" s="11"/>
-      <c r="I562" s="11"/>
+      <c r="A562" s="15"/>
+      <c r="G562" s="16"/>
+      <c r="I562" s="16"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="10"/>
-      <c r="G563" s="11"/>
-      <c r="I563" s="11"/>
+      <c r="A563" s="15"/>
+      <c r="G563" s="16"/>
+      <c r="I563" s="16"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="10"/>
-      <c r="G564" s="11"/>
-      <c r="I564" s="11"/>
+      <c r="A564" s="15"/>
+      <c r="G564" s="16"/>
+      <c r="I564" s="16"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="10"/>
-      <c r="G565" s="11"/>
-      <c r="I565" s="11"/>
+      <c r="A565" s="15"/>
+      <c r="G565" s="16"/>
+      <c r="I565" s="16"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="10"/>
-      <c r="G566" s="11"/>
-      <c r="I566" s="11"/>
+      <c r="A566" s="15"/>
+      <c r="G566" s="16"/>
+      <c r="I566" s="16"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="10"/>
-      <c r="G567" s="11"/>
-      <c r="I567" s="11"/>
+      <c r="A567" s="15"/>
+      <c r="G567" s="16"/>
+      <c r="I567" s="16"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="10"/>
-      <c r="G568" s="11"/>
-      <c r="I568" s="11"/>
+      <c r="A568" s="15"/>
+      <c r="G568" s="16"/>
+      <c r="I568" s="16"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="10"/>
-      <c r="G569" s="11"/>
-      <c r="I569" s="11"/>
+      <c r="A569" s="15"/>
+      <c r="G569" s="16"/>
+      <c r="I569" s="16"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="10"/>
-      <c r="G570" s="11"/>
-      <c r="I570" s="11"/>
+      <c r="A570" s="15"/>
+      <c r="G570" s="16"/>
+      <c r="I570" s="16"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="10"/>
-      <c r="G571" s="11"/>
-      <c r="I571" s="11"/>
+      <c r="A571" s="15"/>
+      <c r="G571" s="16"/>
+      <c r="I571" s="16"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="10"/>
-      <c r="G572" s="11"/>
-      <c r="I572" s="11"/>
+      <c r="A572" s="15"/>
+      <c r="G572" s="16"/>
+      <c r="I572" s="16"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="10"/>
-      <c r="G573" s="11"/>
-      <c r="I573" s="11"/>
+      <c r="A573" s="15"/>
+      <c r="G573" s="16"/>
+      <c r="I573" s="16"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="10"/>
-      <c r="G574" s="11"/>
-      <c r="I574" s="11"/>
+      <c r="A574" s="15"/>
+      <c r="G574" s="16"/>
+      <c r="I574" s="16"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="10"/>
-      <c r="G575" s="11"/>
-      <c r="I575" s="11"/>
+      <c r="A575" s="15"/>
+      <c r="G575" s="16"/>
+      <c r="I575" s="16"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="10"/>
-      <c r="G576" s="11"/>
-      <c r="I576" s="11"/>
+      <c r="A576" s="15"/>
+      <c r="G576" s="16"/>
+      <c r="I576" s="16"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="10"/>
-      <c r="G577" s="11"/>
-      <c r="I577" s="11"/>
+      <c r="A577" s="15"/>
+      <c r="G577" s="16"/>
+      <c r="I577" s="16"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="10"/>
-      <c r="G578" s="11"/>
-      <c r="I578" s="11"/>
+      <c r="A578" s="15"/>
+      <c r="G578" s="16"/>
+      <c r="I578" s="16"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="10"/>
-      <c r="G579" s="11"/>
-      <c r="I579" s="11"/>
+      <c r="A579" s="15"/>
+      <c r="G579" s="16"/>
+      <c r="I579" s="16"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="10"/>
-      <c r="G580" s="11"/>
-      <c r="I580" s="11"/>
+      <c r="A580" s="15"/>
+      <c r="G580" s="16"/>
+      <c r="I580" s="16"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="10"/>
-      <c r="G581" s="11"/>
-      <c r="I581" s="11"/>
+      <c r="A581" s="15"/>
+      <c r="G581" s="16"/>
+      <c r="I581" s="16"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="10"/>
-      <c r="G582" s="11"/>
-      <c r="I582" s="11"/>
+      <c r="A582" s="15"/>
+      <c r="G582" s="16"/>
+      <c r="I582" s="16"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="10"/>
-      <c r="G583" s="11"/>
-      <c r="I583" s="11"/>
+      <c r="A583" s="15"/>
+      <c r="G583" s="16"/>
+      <c r="I583" s="16"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="10"/>
-      <c r="G584" s="11"/>
-      <c r="I584" s="11"/>
+      <c r="A584" s="15"/>
+      <c r="G584" s="16"/>
+      <c r="I584" s="16"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="10"/>
-      <c r="G585" s="11"/>
-      <c r="I585" s="11"/>
+      <c r="A585" s="15"/>
+      <c r="G585" s="16"/>
+      <c r="I585" s="16"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="10"/>
-      <c r="G586" s="11"/>
-      <c r="I586" s="11"/>
+      <c r="A586" s="15"/>
+      <c r="G586" s="16"/>
+      <c r="I586" s="16"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="10"/>
-      <c r="G587" s="11"/>
-      <c r="I587" s="11"/>
+      <c r="A587" s="15"/>
+      <c r="G587" s="16"/>
+      <c r="I587" s="16"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="10"/>
-      <c r="G588" s="11"/>
-      <c r="I588" s="11"/>
+      <c r="A588" s="15"/>
+      <c r="G588" s="16"/>
+      <c r="I588" s="16"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="10"/>
-      <c r="G589" s="11"/>
-      <c r="I589" s="11"/>
+      <c r="A589" s="15"/>
+      <c r="G589" s="16"/>
+      <c r="I589" s="16"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="10"/>
-      <c r="G590" s="11"/>
-      <c r="I590" s="11"/>
+      <c r="A590" s="15"/>
+      <c r="G590" s="16"/>
+      <c r="I590" s="16"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="10"/>
-      <c r="G591" s="11"/>
-      <c r="I591" s="11"/>
+      <c r="A591" s="15"/>
+      <c r="G591" s="16"/>
+      <c r="I591" s="16"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="10"/>
-      <c r="G592" s="11"/>
-      <c r="I592" s="11"/>
+      <c r="A592" s="15"/>
+      <c r="G592" s="16"/>
+      <c r="I592" s="16"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="10"/>
-      <c r="G593" s="11"/>
-      <c r="I593" s="11"/>
+      <c r="A593" s="15"/>
+      <c r="G593" s="16"/>
+      <c r="I593" s="16"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="10"/>
-      <c r="G594" s="11"/>
-      <c r="I594" s="11"/>
+      <c r="A594" s="15"/>
+      <c r="G594" s="16"/>
+      <c r="I594" s="16"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="10"/>
-      <c r="G595" s="11"/>
-      <c r="I595" s="11"/>
+      <c r="A595" s="15"/>
+      <c r="G595" s="16"/>
+      <c r="I595" s="16"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="10"/>
-      <c r="G596" s="11"/>
-      <c r="I596" s="11"/>
+      <c r="A596" s="15"/>
+      <c r="G596" s="16"/>
+      <c r="I596" s="16"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="10"/>
-      <c r="G597" s="11"/>
-      <c r="I597" s="11"/>
+      <c r="A597" s="15"/>
+      <c r="G597" s="16"/>
+      <c r="I597" s="16"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="10"/>
-      <c r="G598" s="11"/>
-      <c r="I598" s="11"/>
+      <c r="A598" s="15"/>
+      <c r="G598" s="16"/>
+      <c r="I598" s="16"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="10"/>
-      <c r="G599" s="11"/>
-      <c r="I599" s="11"/>
+      <c r="A599" s="15"/>
+      <c r="G599" s="16"/>
+      <c r="I599" s="16"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="10"/>
-      <c r="G600" s="11"/>
-      <c r="I600" s="11"/>
+      <c r="A600" s="15"/>
+      <c r="G600" s="16"/>
+      <c r="I600" s="16"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="10"/>
-      <c r="G601" s="11"/>
-      <c r="I601" s="11"/>
+      <c r="A601" s="15"/>
+      <c r="G601" s="16"/>
+      <c r="I601" s="16"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="10"/>
-      <c r="G602" s="11"/>
-      <c r="I602" s="11"/>
+      <c r="A602" s="15"/>
+      <c r="G602" s="16"/>
+      <c r="I602" s="16"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="10"/>
-      <c r="G603" s="11"/>
-      <c r="I603" s="11"/>
+      <c r="A603" s="15"/>
+      <c r="G603" s="16"/>
+      <c r="I603" s="16"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="10"/>
-      <c r="G604" s="11"/>
-      <c r="I604" s="11"/>
+      <c r="A604" s="15"/>
+      <c r="G604" s="16"/>
+      <c r="I604" s="16"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="10"/>
-      <c r="G605" s="11"/>
-      <c r="I605" s="11"/>
+      <c r="A605" s="15"/>
+      <c r="G605" s="16"/>
+      <c r="I605" s="16"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="10"/>
-      <c r="G606" s="11"/>
-      <c r="I606" s="11"/>
+      <c r="A606" s="15"/>
+      <c r="G606" s="16"/>
+      <c r="I606" s="16"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="10"/>
-      <c r="G607" s="11"/>
-      <c r="I607" s="11"/>
+      <c r="A607" s="15"/>
+      <c r="G607" s="16"/>
+      <c r="I607" s="16"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="10"/>
-      <c r="G608" s="11"/>
-      <c r="I608" s="11"/>
+      <c r="A608" s="15"/>
+      <c r="G608" s="16"/>
+      <c r="I608" s="16"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="10"/>
-      <c r="G609" s="11"/>
-      <c r="I609" s="11"/>
+      <c r="A609" s="15"/>
+      <c r="G609" s="16"/>
+      <c r="I609" s="16"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="10"/>
-      <c r="G610" s="11"/>
-      <c r="I610" s="11"/>
+      <c r="A610" s="15"/>
+      <c r="G610" s="16"/>
+      <c r="I610" s="16"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="10"/>
-      <c r="G611" s="11"/>
-      <c r="I611" s="11"/>
+      <c r="A611" s="15"/>
+      <c r="G611" s="16"/>
+      <c r="I611" s="16"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="10"/>
-      <c r="G612" s="11"/>
-      <c r="I612" s="11"/>
+      <c r="A612" s="15"/>
+      <c r="G612" s="16"/>
+      <c r="I612" s="16"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="10"/>
-      <c r="G613" s="11"/>
-      <c r="I613" s="11"/>
+      <c r="A613" s="15"/>
+      <c r="G613" s="16"/>
+      <c r="I613" s="16"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="10"/>
-      <c r="G614" s="11"/>
-      <c r="I614" s="11"/>
+      <c r="A614" s="15"/>
+      <c r="G614" s="16"/>
+      <c r="I614" s="16"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="10"/>
-      <c r="G615" s="11"/>
-      <c r="I615" s="11"/>
+      <c r="A615" s="15"/>
+      <c r="G615" s="16"/>
+      <c r="I615" s="16"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="10"/>
-      <c r="G616" s="11"/>
-      <c r="I616" s="11"/>
+      <c r="A616" s="15"/>
+      <c r="G616" s="16"/>
+      <c r="I616" s="16"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="10"/>
-      <c r="G617" s="11"/>
-      <c r="I617" s="11"/>
+      <c r="A617" s="15"/>
+      <c r="G617" s="16"/>
+      <c r="I617" s="16"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="10"/>
-      <c r="G618" s="11"/>
-      <c r="I618" s="11"/>
+      <c r="A618" s="15"/>
+      <c r="G618" s="16"/>
+      <c r="I618" s="16"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="10"/>
-      <c r="G619" s="11"/>
-      <c r="I619" s="11"/>
+      <c r="A619" s="15"/>
+      <c r="G619" s="16"/>
+      <c r="I619" s="16"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="10"/>
-      <c r="G620" s="11"/>
-      <c r="I620" s="11"/>
+      <c r="A620" s="15"/>
+      <c r="G620" s="16"/>
+      <c r="I620" s="16"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="10"/>
-      <c r="G621" s="11"/>
-      <c r="I621" s="11"/>
+      <c r="A621" s="15"/>
+      <c r="G621" s="16"/>
+      <c r="I621" s="16"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="10"/>
-      <c r="G622" s="11"/>
-      <c r="I622" s="11"/>
+      <c r="A622" s="15"/>
+      <c r="G622" s="16"/>
+      <c r="I622" s="16"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="10"/>
-      <c r="G623" s="11"/>
-      <c r="I623" s="11"/>
+      <c r="A623" s="15"/>
+      <c r="G623" s="16"/>
+      <c r="I623" s="16"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="10"/>
-      <c r="G624" s="11"/>
-      <c r="I624" s="11"/>
+      <c r="A624" s="15"/>
+      <c r="G624" s="16"/>
+      <c r="I624" s="16"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="10"/>
-      <c r="G625" s="11"/>
-      <c r="I625" s="11"/>
+      <c r="A625" s="15"/>
+      <c r="G625" s="16"/>
+      <c r="I625" s="16"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="10"/>
-      <c r="G626" s="11"/>
-      <c r="I626" s="11"/>
+      <c r="A626" s="15"/>
+      <c r="G626" s="16"/>
+      <c r="I626" s="16"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="10"/>
-      <c r="G627" s="11"/>
-      <c r="I627" s="11"/>
+      <c r="A627" s="15"/>
+      <c r="G627" s="16"/>
+      <c r="I627" s="16"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="10"/>
-      <c r="G628" s="11"/>
-      <c r="I628" s="11"/>
+      <c r="A628" s="15"/>
+      <c r="G628" s="16"/>
+      <c r="I628" s="16"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="10"/>
-      <c r="G629" s="11"/>
-      <c r="I629" s="11"/>
+      <c r="A629" s="15"/>
+      <c r="G629" s="16"/>
+      <c r="I629" s="16"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="10"/>
-      <c r="G630" s="11"/>
-      <c r="I630" s="11"/>
+      <c r="A630" s="15"/>
+      <c r="G630" s="16"/>
+      <c r="I630" s="16"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="10"/>
-      <c r="G631" s="11"/>
-      <c r="I631" s="11"/>
+      <c r="A631" s="15"/>
+      <c r="G631" s="16"/>
+      <c r="I631" s="16"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="10"/>
-      <c r="G632" s="11"/>
-      <c r="I632" s="11"/>
+      <c r="A632" s="15"/>
+      <c r="G632" s="16"/>
+      <c r="I632" s="16"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="10"/>
-      <c r="G633" s="11"/>
-      <c r="I633" s="11"/>
+      <c r="A633" s="15"/>
+      <c r="G633" s="16"/>
+      <c r="I633" s="16"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="10"/>
-      <c r="G634" s="11"/>
-      <c r="I634" s="11"/>
+      <c r="A634" s="15"/>
+      <c r="G634" s="16"/>
+      <c r="I634" s="16"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="10"/>
-      <c r="G635" s="11"/>
-      <c r="I635" s="11"/>
+      <c r="A635" s="15"/>
+      <c r="G635" s="16"/>
+      <c r="I635" s="16"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="10"/>
-      <c r="G636" s="11"/>
-      <c r="I636" s="11"/>
+      <c r="A636" s="15"/>
+      <c r="G636" s="16"/>
+      <c r="I636" s="16"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="10"/>
-      <c r="G637" s="11"/>
-      <c r="I637" s="11"/>
+      <c r="A637" s="15"/>
+      <c r="G637" s="16"/>
+      <c r="I637" s="16"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="10"/>
-      <c r="G638" s="11"/>
-      <c r="I638" s="11"/>
+      <c r="A638" s="15"/>
+      <c r="G638" s="16"/>
+      <c r="I638" s="16"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="10"/>
-      <c r="G639" s="11"/>
-      <c r="I639" s="11"/>
+      <c r="A639" s="15"/>
+      <c r="G639" s="16"/>
+      <c r="I639" s="16"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="10"/>
-      <c r="G640" s="11"/>
-      <c r="I640" s="11"/>
+      <c r="A640" s="15"/>
+      <c r="G640" s="16"/>
+      <c r="I640" s="16"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="10"/>
-      <c r="G641" s="11"/>
-      <c r="I641" s="11"/>
+      <c r="A641" s="15"/>
+      <c r="G641" s="16"/>
+      <c r="I641" s="16"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="10"/>
-      <c r="G642" s="11"/>
-      <c r="I642" s="11"/>
+      <c r="A642" s="15"/>
+      <c r="G642" s="16"/>
+      <c r="I642" s="16"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="10"/>
-      <c r="G643" s="11"/>
-      <c r="I643" s="11"/>
+      <c r="A643" s="15"/>
+      <c r="G643" s="16"/>
+      <c r="I643" s="16"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="10"/>
-      <c r="G644" s="11"/>
-      <c r="I644" s="11"/>
+      <c r="A644" s="15"/>
+      <c r="G644" s="16"/>
+      <c r="I644" s="16"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="10"/>
-      <c r="G645" s="11"/>
-      <c r="I645" s="11"/>
+      <c r="A645" s="15"/>
+      <c r="G645" s="16"/>
+      <c r="I645" s="16"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="10"/>
-      <c r="G646" s="11"/>
-      <c r="I646" s="11"/>
+      <c r="A646" s="15"/>
+      <c r="G646" s="16"/>
+      <c r="I646" s="16"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="10"/>
-      <c r="G647" s="11"/>
-      <c r="I647" s="11"/>
+      <c r="A647" s="15"/>
+      <c r="G647" s="16"/>
+      <c r="I647" s="16"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="10"/>
-      <c r="G648" s="11"/>
-      <c r="I648" s="11"/>
+      <c r="A648" s="15"/>
+      <c r="G648" s="16"/>
+      <c r="I648" s="16"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="10"/>
-      <c r="G649" s="11"/>
-      <c r="I649" s="11"/>
+      <c r="A649" s="15"/>
+      <c r="G649" s="16"/>
+      <c r="I649" s="16"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="10"/>
-      <c r="G650" s="11"/>
-      <c r="I650" s="11"/>
+      <c r="A650" s="15"/>
+      <c r="G650" s="16"/>
+      <c r="I650" s="16"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="10"/>
-      <c r="G651" s="11"/>
-      <c r="I651" s="11"/>
+      <c r="A651" s="15"/>
+      <c r="G651" s="16"/>
+      <c r="I651" s="16"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="10"/>
-      <c r="G652" s="11"/>
-      <c r="I652" s="11"/>
+      <c r="A652" s="15"/>
+      <c r="G652" s="16"/>
+      <c r="I652" s="16"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="10"/>
-      <c r="G653" s="11"/>
-      <c r="I653" s="11"/>
+      <c r="A653" s="15"/>
+      <c r="G653" s="16"/>
+      <c r="I653" s="16"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="10"/>
-      <c r="G654" s="11"/>
-      <c r="I654" s="11"/>
+      <c r="A654" s="15"/>
+      <c r="G654" s="16"/>
+      <c r="I654" s="16"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="10"/>
-      <c r="G655" s="11"/>
-      <c r="I655" s="11"/>
+      <c r="A655" s="15"/>
+      <c r="G655" s="16"/>
+      <c r="I655" s="16"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="10"/>
-      <c r="G656" s="11"/>
-      <c r="I656" s="11"/>
+      <c r="A656" s="15"/>
+      <c r="G656" s="16"/>
+      <c r="I656" s="16"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="10"/>
-      <c r="G657" s="11"/>
-      <c r="I657" s="11"/>
+      <c r="A657" s="15"/>
+      <c r="G657" s="16"/>
+      <c r="I657" s="16"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="10"/>
-      <c r="G658" s="11"/>
-      <c r="I658" s="11"/>
+      <c r="A658" s="15"/>
+      <c r="G658" s="16"/>
+      <c r="I658" s="16"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="10"/>
-      <c r="G659" s="11"/>
-      <c r="I659" s="11"/>
+      <c r="A659" s="15"/>
+      <c r="G659" s="16"/>
+      <c r="I659" s="16"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="10"/>
-      <c r="G660" s="11"/>
-      <c r="I660" s="11"/>
+      <c r="A660" s="15"/>
+      <c r="G660" s="16"/>
+      <c r="I660" s="16"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="10"/>
-      <c r="G661" s="11"/>
-      <c r="I661" s="11"/>
+      <c r="A661" s="15"/>
+      <c r="G661" s="16"/>
+      <c r="I661" s="16"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="10"/>
-      <c r="G662" s="11"/>
-      <c r="I662" s="11"/>
+      <c r="A662" s="15"/>
+      <c r="G662" s="16"/>
+      <c r="I662" s="16"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="10"/>
-      <c r="G663" s="11"/>
-      <c r="I663" s="11"/>
+      <c r="A663" s="15"/>
+      <c r="G663" s="16"/>
+      <c r="I663" s="16"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="10"/>
-      <c r="G664" s="11"/>
-      <c r="I664" s="11"/>
+      <c r="A664" s="15"/>
+      <c r="G664" s="16"/>
+      <c r="I664" s="16"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="10"/>
-      <c r="G665" s="11"/>
-      <c r="I665" s="11"/>
+      <c r="A665" s="15"/>
+      <c r="G665" s="16"/>
+      <c r="I665" s="16"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="10"/>
-      <c r="G666" s="11"/>
-      <c r="I666" s="11"/>
+      <c r="A666" s="15"/>
+      <c r="G666" s="16"/>
+      <c r="I666" s="16"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="10"/>
-      <c r="G667" s="11"/>
-      <c r="I667" s="11"/>
+      <c r="A667" s="15"/>
+      <c r="G667" s="16"/>
+      <c r="I667" s="16"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="10"/>
-      <c r="G668" s="11"/>
-      <c r="I668" s="11"/>
+      <c r="A668" s="15"/>
+      <c r="G668" s="16"/>
+      <c r="I668" s="16"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="10"/>
-      <c r="G669" s="11"/>
-      <c r="I669" s="11"/>
+      <c r="A669" s="15"/>
+      <c r="G669" s="16"/>
+      <c r="I669" s="16"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="10"/>
-      <c r="G670" s="11"/>
-      <c r="I670" s="11"/>
+      <c r="A670" s="15"/>
+      <c r="G670" s="16"/>
+      <c r="I670" s="16"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="10"/>
-      <c r="G671" s="11"/>
-      <c r="I671" s="11"/>
+      <c r="A671" s="15"/>
+      <c r="G671" s="16"/>
+      <c r="I671" s="16"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="10"/>
-      <c r="G672" s="11"/>
-      <c r="I672" s="11"/>
+      <c r="A672" s="15"/>
+      <c r="G672" s="16"/>
+      <c r="I672" s="16"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="10"/>
-      <c r="G673" s="11"/>
-      <c r="I673" s="11"/>
+      <c r="A673" s="15"/>
+      <c r="G673" s="16"/>
+      <c r="I673" s="16"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="10"/>
-      <c r="G674" s="11"/>
-      <c r="I674" s="11"/>
+      <c r="A674" s="15"/>
+      <c r="G674" s="16"/>
+      <c r="I674" s="16"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="10"/>
-      <c r="G675" s="11"/>
-      <c r="I675" s="11"/>
+      <c r="A675" s="15"/>
+      <c r="G675" s="16"/>
+      <c r="I675" s="16"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="10"/>
-      <c r="G676" s="11"/>
-      <c r="I676" s="11"/>
+      <c r="A676" s="15"/>
+      <c r="G676" s="16"/>
+      <c r="I676" s="16"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="10"/>
-      <c r="G677" s="11"/>
-      <c r="I677" s="11"/>
+      <c r="A677" s="15"/>
+      <c r="G677" s="16"/>
+      <c r="I677" s="16"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="10"/>
-      <c r="G678" s="11"/>
-      <c r="I678" s="11"/>
+      <c r="A678" s="15"/>
+      <c r="G678" s="16"/>
+      <c r="I678" s="16"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="10"/>
-      <c r="G679" s="11"/>
-      <c r="I679" s="11"/>
+      <c r="A679" s="15"/>
+      <c r="G679" s="16"/>
+      <c r="I679" s="16"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="10"/>
-      <c r="G680" s="11"/>
-      <c r="I680" s="11"/>
+      <c r="A680" s="15"/>
+      <c r="G680" s="16"/>
+      <c r="I680" s="16"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="10"/>
-      <c r="G681" s="11"/>
-      <c r="I681" s="11"/>
+      <c r="A681" s="15"/>
+      <c r="G681" s="16"/>
+      <c r="I681" s="16"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="10"/>
-      <c r="G682" s="11"/>
-      <c r="I682" s="11"/>
+      <c r="A682" s="15"/>
+      <c r="G682" s="16"/>
+      <c r="I682" s="16"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="10"/>
-      <c r="G683" s="11"/>
-      <c r="I683" s="11"/>
+      <c r="A683" s="15"/>
+      <c r="G683" s="16"/>
+      <c r="I683" s="16"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="10"/>
-      <c r="G684" s="11"/>
-      <c r="I684" s="11"/>
+      <c r="A684" s="15"/>
+      <c r="G684" s="16"/>
+      <c r="I684" s="16"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="10"/>
-      <c r="G685" s="11"/>
-      <c r="I685" s="11"/>
+      <c r="A685" s="15"/>
+      <c r="G685" s="16"/>
+      <c r="I685" s="16"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="10"/>
-      <c r="G686" s="11"/>
-      <c r="I686" s="11"/>
+      <c r="A686" s="15"/>
+      <c r="G686" s="16"/>
+      <c r="I686" s="16"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="10"/>
-      <c r="G687" s="11"/>
-      <c r="I687" s="11"/>
+      <c r="A687" s="15"/>
+      <c r="G687" s="16"/>
+      <c r="I687" s="16"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="10"/>
-      <c r="G688" s="11"/>
-      <c r="I688" s="11"/>
+      <c r="A688" s="15"/>
+      <c r="G688" s="16"/>
+      <c r="I688" s="16"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="10"/>
-      <c r="G689" s="11"/>
-      <c r="I689" s="11"/>
+      <c r="A689" s="15"/>
+      <c r="G689" s="16"/>
+      <c r="I689" s="16"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="10"/>
-      <c r="G690" s="11"/>
-      <c r="I690" s="11"/>
+      <c r="A690" s="15"/>
+      <c r="G690" s="16"/>
+      <c r="I690" s="16"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="10"/>
-      <c r="G691" s="11"/>
-      <c r="I691" s="11"/>
+      <c r="A691" s="15"/>
+      <c r="G691" s="16"/>
+      <c r="I691" s="16"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="10"/>
-      <c r="G692" s="11"/>
-      <c r="I692" s="11"/>
+      <c r="A692" s="15"/>
+      <c r="G692" s="16"/>
+      <c r="I692" s="16"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="10"/>
-      <c r="G693" s="11"/>
-      <c r="I693" s="11"/>
+      <c r="A693" s="15"/>
+      <c r="G693" s="16"/>
+      <c r="I693" s="16"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="10"/>
-      <c r="G694" s="11"/>
-      <c r="I694" s="11"/>
+      <c r="A694" s="15"/>
+      <c r="G694" s="16"/>
+      <c r="I694" s="16"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="10"/>
-      <c r="G695" s="11"/>
-      <c r="I695" s="11"/>
+      <c r="A695" s="15"/>
+      <c r="G695" s="16"/>
+      <c r="I695" s="16"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="10"/>
-      <c r="G696" s="11"/>
-      <c r="I696" s="11"/>
+      <c r="A696" s="15"/>
+      <c r="G696" s="16"/>
+      <c r="I696" s="16"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="10"/>
-      <c r="G697" s="11"/>
-      <c r="I697" s="11"/>
+      <c r="A697" s="15"/>
+      <c r="G697" s="16"/>
+      <c r="I697" s="16"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="10"/>
-      <c r="G698" s="11"/>
-      <c r="I698" s="11"/>
+      <c r="A698" s="15"/>
+      <c r="G698" s="16"/>
+      <c r="I698" s="16"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="10"/>
-      <c r="G699" s="11"/>
-      <c r="I699" s="11"/>
+      <c r="A699" s="15"/>
+      <c r="G699" s="16"/>
+      <c r="I699" s="16"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="10"/>
-      <c r="G700" s="11"/>
-      <c r="I700" s="11"/>
+      <c r="A700" s="15"/>
+      <c r="G700" s="16"/>
+      <c r="I700" s="16"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="10"/>
-      <c r="G701" s="11"/>
-      <c r="I701" s="11"/>
+      <c r="A701" s="15"/>
+      <c r="G701" s="16"/>
+      <c r="I701" s="16"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="10"/>
-      <c r="G702" s="11"/>
-      <c r="I702" s="11"/>
+      <c r="A702" s="15"/>
+      <c r="G702" s="16"/>
+      <c r="I702" s="16"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="10"/>
-      <c r="G703" s="11"/>
-      <c r="I703" s="11"/>
+      <c r="A703" s="15"/>
+      <c r="G703" s="16"/>
+      <c r="I703" s="16"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="10"/>
-      <c r="G704" s="11"/>
-      <c r="I704" s="11"/>
+      <c r="A704" s="15"/>
+      <c r="G704" s="16"/>
+      <c r="I704" s="16"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="10"/>
-      <c r="G705" s="11"/>
-      <c r="I705" s="11"/>
+      <c r="A705" s="15"/>
+      <c r="G705" s="16"/>
+      <c r="I705" s="16"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="10"/>
-      <c r="G706" s="11"/>
-      <c r="I706" s="11"/>
+      <c r="A706" s="15"/>
+      <c r="G706" s="16"/>
+      <c r="I706" s="16"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="10"/>
-      <c r="G707" s="11"/>
-      <c r="I707" s="11"/>
+      <c r="A707" s="15"/>
+      <c r="G707" s="16"/>
+      <c r="I707" s="16"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="10"/>
-      <c r="G708" s="11"/>
-      <c r="I708" s="11"/>
+      <c r="A708" s="15"/>
+      <c r="G708" s="16"/>
+      <c r="I708" s="16"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="10"/>
-      <c r="G709" s="11"/>
-      <c r="I709" s="11"/>
+      <c r="A709" s="15"/>
+      <c r="G709" s="16"/>
+      <c r="I709" s="16"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="10"/>
-      <c r="G710" s="11"/>
-      <c r="I710" s="11"/>
+      <c r="A710" s="15"/>
+      <c r="G710" s="16"/>
+      <c r="I710" s="16"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="10"/>
-      <c r="G711" s="11"/>
-      <c r="I711" s="11"/>
+      <c r="A711" s="15"/>
+      <c r="G711" s="16"/>
+      <c r="I711" s="16"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="10"/>
-      <c r="G712" s="11"/>
-      <c r="I712" s="11"/>
+      <c r="A712" s="15"/>
+      <c r="G712" s="16"/>
+      <c r="I712" s="16"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="10"/>
-      <c r="G713" s="11"/>
-      <c r="I713" s="11"/>
+      <c r="A713" s="15"/>
+      <c r="G713" s="16"/>
+      <c r="I713" s="16"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="10"/>
-      <c r="G714" s="11"/>
-      <c r="I714" s="11"/>
+      <c r="A714" s="15"/>
+      <c r="G714" s="16"/>
+      <c r="I714" s="16"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="10"/>
-      <c r="G715" s="11"/>
-      <c r="I715" s="11"/>
+      <c r="A715" s="15"/>
+      <c r="G715" s="16"/>
+      <c r="I715" s="16"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="10"/>
-      <c r="G716" s="11"/>
-      <c r="I716" s="11"/>
+      <c r="A716" s="15"/>
+      <c r="G716" s="16"/>
+      <c r="I716" s="16"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="10"/>
-      <c r="G717" s="11"/>
-      <c r="I717" s="11"/>
+      <c r="A717" s="15"/>
+      <c r="G717" s="16"/>
+      <c r="I717" s="16"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="10"/>
-      <c r="G718" s="11"/>
-      <c r="I718" s="11"/>
+      <c r="A718" s="15"/>
+      <c r="G718" s="16"/>
+      <c r="I718" s="16"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="10"/>
-      <c r="G719" s="11"/>
-      <c r="I719" s="11"/>
+      <c r="A719" s="15"/>
+      <c r="G719" s="16"/>
+      <c r="I719" s="16"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="10"/>
-      <c r="G720" s="11"/>
-      <c r="I720" s="11"/>
+      <c r="A720" s="15"/>
+      <c r="G720" s="16"/>
+      <c r="I720" s="16"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="10"/>
-      <c r="G721" s="11"/>
-      <c r="I721" s="11"/>
+      <c r="A721" s="15"/>
+      <c r="G721" s="16"/>
+      <c r="I721" s="16"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="10"/>
-      <c r="G722" s="11"/>
-      <c r="I722" s="11"/>
+      <c r="A722" s="15"/>
+      <c r="G722" s="16"/>
+      <c r="I722" s="16"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="10"/>
-      <c r="G723" s="11"/>
-      <c r="I723" s="11"/>
+      <c r="A723" s="15"/>
+      <c r="G723" s="16"/>
+      <c r="I723" s="16"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="10"/>
-      <c r="G724" s="11"/>
-      <c r="I724" s="11"/>
+      <c r="A724" s="15"/>
+      <c r="G724" s="16"/>
+      <c r="I724" s="16"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="10"/>
-      <c r="G725" s="11"/>
-      <c r="I725" s="11"/>
+      <c r="A725" s="15"/>
+      <c r="G725" s="16"/>
+      <c r="I725" s="16"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="10"/>
-      <c r="G726" s="11"/>
-      <c r="I726" s="11"/>
+      <c r="A726" s="15"/>
+      <c r="G726" s="16"/>
+      <c r="I726" s="16"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="10"/>
-      <c r="G727" s="11"/>
-      <c r="I727" s="11"/>
+      <c r="A727" s="15"/>
+      <c r="G727" s="16"/>
+      <c r="I727" s="16"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="10"/>
-      <c r="G728" s="11"/>
-      <c r="I728" s="11"/>
+      <c r="A728" s="15"/>
+      <c r="G728" s="16"/>
+      <c r="I728" s="16"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="10"/>
-      <c r="G729" s="11"/>
-      <c r="I729" s="11"/>
+      <c r="A729" s="15"/>
+      <c r="G729" s="16"/>
+      <c r="I729" s="16"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="10"/>
-      <c r="G730" s="11"/>
-      <c r="I730" s="11"/>
+      <c r="A730" s="15"/>
+      <c r="G730" s="16"/>
+      <c r="I730" s="16"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="10"/>
-      <c r="G731" s="11"/>
-      <c r="I731" s="11"/>
+      <c r="A731" s="15"/>
+      <c r="G731" s="16"/>
+      <c r="I731" s="16"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="10"/>
-      <c r="G732" s="11"/>
-      <c r="I732" s="11"/>
+      <c r="A732" s="15"/>
+      <c r="G732" s="16"/>
+      <c r="I732" s="16"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="10"/>
-      <c r="G733" s="11"/>
-      <c r="I733" s="11"/>
+      <c r="A733" s="15"/>
+      <c r="G733" s="16"/>
+      <c r="I733" s="16"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="10"/>
-      <c r="G734" s="11"/>
-      <c r="I734" s="11"/>
+      <c r="A734" s="15"/>
+      <c r="G734" s="16"/>
+      <c r="I734" s="16"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="10"/>
-      <c r="G735" s="11"/>
-      <c r="I735" s="11"/>
+      <c r="A735" s="15"/>
+      <c r="G735" s="16"/>
+      <c r="I735" s="16"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="10"/>
-      <c r="G736" s="11"/>
-      <c r="I736" s="11"/>
+      <c r="A736" s="15"/>
+      <c r="G736" s="16"/>
+      <c r="I736" s="16"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="10"/>
-      <c r="G737" s="11"/>
-      <c r="I737" s="11"/>
+      <c r="A737" s="15"/>
+      <c r="G737" s="16"/>
+      <c r="I737" s="16"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="10"/>
-      <c r="G738" s="11"/>
-      <c r="I738" s="11"/>
+      <c r="A738" s="15"/>
+      <c r="G738" s="16"/>
+      <c r="I738" s="16"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="10"/>
-      <c r="G739" s="11"/>
-      <c r="I739" s="11"/>
+      <c r="A739" s="15"/>
+      <c r="G739" s="16"/>
+      <c r="I739" s="16"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="10"/>
-      <c r="G740" s="11"/>
-      <c r="I740" s="11"/>
+      <c r="A740" s="15"/>
+      <c r="G740" s="16"/>
+      <c r="I740" s="16"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="10"/>
-      <c r="G741" s="11"/>
-      <c r="I741" s="11"/>
+      <c r="A741" s="15"/>
+      <c r="G741" s="16"/>
+      <c r="I741" s="16"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="10"/>
-      <c r="G742" s="11"/>
-      <c r="I742" s="11"/>
+      <c r="A742" s="15"/>
+      <c r="G742" s="16"/>
+      <c r="I742" s="16"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="10"/>
-      <c r="G743" s="11"/>
-      <c r="I743" s="11"/>
+      <c r="A743" s="15"/>
+      <c r="G743" s="16"/>
+      <c r="I743" s="16"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="10"/>
-      <c r="G744" s="11"/>
-      <c r="I744" s="11"/>
+      <c r="A744" s="15"/>
+      <c r="G744" s="16"/>
+      <c r="I744" s="16"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="10"/>
-      <c r="G745" s="11"/>
-      <c r="I745" s="11"/>
+      <c r="A745" s="15"/>
+      <c r="G745" s="16"/>
+      <c r="I745" s="16"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="10"/>
-      <c r="G746" s="11"/>
-      <c r="I746" s="11"/>
+      <c r="A746" s="15"/>
+      <c r="G746" s="16"/>
+      <c r="I746" s="16"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="10"/>
-      <c r="G747" s="11"/>
-      <c r="I747" s="11"/>
+      <c r="A747" s="15"/>
+      <c r="G747" s="16"/>
+      <c r="I747" s="16"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="10"/>
-      <c r="G748" s="11"/>
-      <c r="I748" s="11"/>
+      <c r="A748" s="15"/>
+      <c r="G748" s="16"/>
+      <c r="I748" s="16"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="10"/>
-      <c r="G749" s="11"/>
-      <c r="I749" s="11"/>
+      <c r="A749" s="15"/>
+      <c r="G749" s="16"/>
+      <c r="I749" s="16"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="10"/>
-      <c r="G750" s="11"/>
-      <c r="I750" s="11"/>
+      <c r="A750" s="15"/>
+      <c r="G750" s="16"/>
+      <c r="I750" s="16"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="10"/>
-      <c r="G751" s="11"/>
-      <c r="I751" s="11"/>
+      <c r="A751" s="15"/>
+      <c r="G751" s="16"/>
+      <c r="I751" s="16"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="10"/>
-      <c r="G752" s="11"/>
-      <c r="I752" s="11"/>
+      <c r="A752" s="15"/>
+      <c r="G752" s="16"/>
+      <c r="I752" s="16"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="10"/>
-      <c r="G753" s="11"/>
-      <c r="I753" s="11"/>
+      <c r="A753" s="15"/>
+      <c r="G753" s="16"/>
+      <c r="I753" s="16"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="10"/>
-      <c r="G754" s="11"/>
-      <c r="I754" s="11"/>
+      <c r="A754" s="15"/>
+      <c r="G754" s="16"/>
+      <c r="I754" s="16"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="10"/>
-      <c r="G755" s="11"/>
-      <c r="I755" s="11"/>
+      <c r="A755" s="15"/>
+      <c r="G755" s="16"/>
+      <c r="I755" s="16"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="10"/>
-      <c r="G756" s="11"/>
-      <c r="I756" s="11"/>
+      <c r="A756" s="15"/>
+      <c r="G756" s="16"/>
+      <c r="I756" s="16"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="10"/>
-      <c r="G757" s="11"/>
-      <c r="I757" s="11"/>
+      <c r="A757" s="15"/>
+      <c r="G757" s="16"/>
+      <c r="I757" s="16"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="10"/>
-      <c r="G758" s="11"/>
-      <c r="I758" s="11"/>
+      <c r="A758" s="15"/>
+      <c r="G758" s="16"/>
+      <c r="I758" s="16"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="10"/>
-      <c r="G759" s="11"/>
-      <c r="I759" s="11"/>
+      <c r="A759" s="15"/>
+      <c r="G759" s="16"/>
+      <c r="I759" s="16"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="10"/>
-      <c r="G760" s="11"/>
-      <c r="I760" s="11"/>
+      <c r="A760" s="15"/>
+      <c r="G760" s="16"/>
+      <c r="I760" s="16"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="10"/>
-      <c r="G761" s="11"/>
-      <c r="I761" s="11"/>
+      <c r="A761" s="15"/>
+      <c r="G761" s="16"/>
+      <c r="I761" s="16"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="10"/>
-      <c r="G762" s="11"/>
-      <c r="I762" s="11"/>
+      <c r="A762" s="15"/>
+      <c r="G762" s="16"/>
+      <c r="I762" s="16"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="10"/>
-      <c r="G763" s="11"/>
-      <c r="I763" s="11"/>
+      <c r="A763" s="15"/>
+      <c r="G763" s="16"/>
+      <c r="I763" s="16"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="10"/>
-      <c r="G764" s="11"/>
-      <c r="I764" s="11"/>
+      <c r="A764" s="15"/>
+      <c r="G764" s="16"/>
+      <c r="I764" s="16"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="10"/>
-      <c r="G765" s="11"/>
-      <c r="I765" s="11"/>
+      <c r="A765" s="15"/>
+      <c r="G765" s="16"/>
+      <c r="I765" s="16"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="10"/>
-      <c r="G766" s="11"/>
-      <c r="I766" s="11"/>
+      <c r="A766" s="15"/>
+      <c r="G766" s="16"/>
+      <c r="I766" s="16"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="10"/>
-      <c r="G767" s="11"/>
-      <c r="I767" s="11"/>
+      <c r="A767" s="15"/>
+      <c r="G767" s="16"/>
+      <c r="I767" s="16"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="10"/>
-      <c r="G768" s="11"/>
-      <c r="I768" s="11"/>
+      <c r="A768" s="15"/>
+      <c r="G768" s="16"/>
+      <c r="I768" s="16"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="10"/>
-      <c r="G769" s="11"/>
-      <c r="I769" s="11"/>
+      <c r="A769" s="15"/>
+      <c r="G769" s="16"/>
+      <c r="I769" s="16"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="10"/>
-      <c r="G770" s="11"/>
-      <c r="I770" s="11"/>
+      <c r="A770" s="15"/>
+      <c r="G770" s="16"/>
+      <c r="I770" s="16"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="10"/>
-      <c r="G771" s="11"/>
-      <c r="I771" s="11"/>
+      <c r="A771" s="15"/>
+      <c r="G771" s="16"/>
+      <c r="I771" s="16"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="10"/>
-      <c r="G772" s="11"/>
-      <c r="I772" s="11"/>
+      <c r="A772" s="15"/>
+      <c r="G772" s="16"/>
+      <c r="I772" s="16"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="10"/>
-      <c r="G773" s="11"/>
-      <c r="I773" s="11"/>
+      <c r="A773" s="15"/>
+      <c r="G773" s="16"/>
+      <c r="I773" s="16"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="10"/>
-      <c r="G774" s="11"/>
-      <c r="I774" s="11"/>
+      <c r="A774" s="15"/>
+      <c r="G774" s="16"/>
+      <c r="I774" s="16"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="10"/>
-      <c r="G775" s="11"/>
-      <c r="I775" s="11"/>
+      <c r="A775" s="15"/>
+      <c r="G775" s="16"/>
+      <c r="I775" s="16"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="10"/>
-      <c r="G776" s="11"/>
-      <c r="I776" s="11"/>
+      <c r="A776" s="15"/>
+      <c r="G776" s="16"/>
+      <c r="I776" s="16"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="10"/>
-      <c r="G777" s="11"/>
-      <c r="I777" s="11"/>
+      <c r="A777" s="15"/>
+      <c r="G777" s="16"/>
+      <c r="I777" s="16"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="10"/>
-      <c r="G778" s="11"/>
-      <c r="I778" s="11"/>
+      <c r="A778" s="15"/>
+      <c r="G778" s="16"/>
+      <c r="I778" s="16"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="10"/>
-      <c r="G779" s="11"/>
-      <c r="I779" s="11"/>
+      <c r="A779" s="15"/>
+      <c r="G779" s="16"/>
+      <c r="I779" s="16"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="10"/>
-      <c r="G780" s="11"/>
-      <c r="I780" s="11"/>
+      <c r="A780" s="15"/>
+      <c r="G780" s="16"/>
+      <c r="I780" s="16"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="10"/>
-      <c r="G781" s="11"/>
-      <c r="I781" s="11"/>
+      <c r="A781" s="15"/>
+      <c r="G781" s="16"/>
+      <c r="I781" s="16"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="10"/>
-      <c r="G782" s="11"/>
-      <c r="I782" s="11"/>
+      <c r="A782" s="15"/>
+      <c r="G782" s="16"/>
+      <c r="I782" s="16"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="10"/>
-      <c r="G783" s="11"/>
-      <c r="I783" s="11"/>
+      <c r="A783" s="15"/>
+      <c r="G783" s="16"/>
+      <c r="I783" s="16"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="10"/>
-      <c r="G784" s="11"/>
-      <c r="I784" s="11"/>
+      <c r="A784" s="15"/>
+      <c r="G784" s="16"/>
+      <c r="I784" s="16"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="10"/>
-      <c r="G785" s="11"/>
-      <c r="I785" s="11"/>
+      <c r="A785" s="15"/>
+      <c r="G785" s="16"/>
+      <c r="I785" s="16"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="10"/>
-      <c r="G786" s="11"/>
-      <c r="I786" s="11"/>
+      <c r="A786" s="15"/>
+      <c r="G786" s="16"/>
+      <c r="I786" s="16"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="10"/>
-      <c r="G787" s="11"/>
-      <c r="I787" s="11"/>
+      <c r="A787" s="15"/>
+      <c r="G787" s="16"/>
+      <c r="I787" s="16"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="10"/>
-      <c r="G788" s="11"/>
-      <c r="I788" s="11"/>
+      <c r="A788" s="15"/>
+      <c r="G788" s="16"/>
+      <c r="I788" s="16"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="10"/>
-      <c r="G789" s="11"/>
-      <c r="I789" s="11"/>
+      <c r="A789" s="15"/>
+      <c r="G789" s="16"/>
+      <c r="I789" s="16"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="10"/>
-      <c r="G790" s="11"/>
-      <c r="I790" s="11"/>
+      <c r="A790" s="15"/>
+      <c r="G790" s="16"/>
+      <c r="I790" s="16"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="10"/>
-      <c r="G791" s="11"/>
-      <c r="I791" s="11"/>
+      <c r="A791" s="15"/>
+      <c r="G791" s="16"/>
+      <c r="I791" s="16"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="10"/>
-      <c r="G792" s="11"/>
-      <c r="I792" s="11"/>
+      <c r="A792" s="15"/>
+      <c r="G792" s="16"/>
+      <c r="I792" s="16"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="10"/>
-      <c r="G793" s="11"/>
-      <c r="I793" s="11"/>
+      <c r="A793" s="15"/>
+      <c r="G793" s="16"/>
+      <c r="I793" s="16"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="10"/>
-      <c r="G794" s="11"/>
-      <c r="I794" s="11"/>
+      <c r="A794" s="15"/>
+      <c r="G794" s="16"/>
+      <c r="I794" s="16"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="10"/>
-      <c r="G795" s="11"/>
-      <c r="I795" s="11"/>
+      <c r="A795" s="15"/>
+      <c r="G795" s="16"/>
+      <c r="I795" s="16"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="10"/>
-      <c r="G796" s="11"/>
-      <c r="I796" s="11"/>
+      <c r="A796" s="15"/>
+      <c r="G796" s="16"/>
+      <c r="I796" s="16"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="10"/>
-      <c r="G797" s="11"/>
-      <c r="I797" s="11"/>
+      <c r="A797" s="15"/>
+      <c r="G797" s="16"/>
+      <c r="I797" s="16"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="10"/>
-      <c r="G798" s="11"/>
-      <c r="I798" s="11"/>
+      <c r="A798" s="15"/>
+      <c r="G798" s="16"/>
+      <c r="I798" s="16"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="10"/>
-      <c r="G799" s="11"/>
-      <c r="I799" s="11"/>
+      <c r="A799" s="15"/>
+      <c r="G799" s="16"/>
+      <c r="I799" s="16"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="10"/>
-      <c r="G800" s="11"/>
-      <c r="I800" s="11"/>
+      <c r="A800" s="15"/>
+      <c r="G800" s="16"/>
+      <c r="I800" s="16"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="10"/>
-      <c r="G801" s="11"/>
-      <c r="I801" s="11"/>
+      <c r="A801" s="15"/>
+      <c r="G801" s="16"/>
+      <c r="I801" s="16"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="10"/>
-      <c r="G802" s="11"/>
-      <c r="I802" s="11"/>
+      <c r="A802" s="15"/>
+      <c r="G802" s="16"/>
+      <c r="I802" s="16"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="10"/>
-      <c r="G803" s="11"/>
-      <c r="I803" s="11"/>
+      <c r="A803" s="15"/>
+      <c r="G803" s="16"/>
+      <c r="I803" s="16"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="10"/>
-      <c r="G804" s="11"/>
-      <c r="I804" s="11"/>
+      <c r="A804" s="15"/>
+      <c r="G804" s="16"/>
+      <c r="I804" s="16"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="10"/>
-      <c r="G805" s="11"/>
-      <c r="I805" s="11"/>
+      <c r="A805" s="15"/>
+      <c r="G805" s="16"/>
+      <c r="I805" s="16"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="10"/>
-      <c r="G806" s="11"/>
-      <c r="I806" s="11"/>
+      <c r="A806" s="15"/>
+      <c r="G806" s="16"/>
+      <c r="I806" s="16"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="10"/>
-      <c r="G807" s="11"/>
-      <c r="I807" s="11"/>
+      <c r="A807" s="15"/>
+      <c r="G807" s="16"/>
+      <c r="I807" s="16"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="10"/>
-      <c r="G808" s="11"/>
-      <c r="I808" s="11"/>
+      <c r="A808" s="15"/>
+      <c r="G808" s="16"/>
+      <c r="I808" s="16"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="10"/>
-      <c r="G809" s="11"/>
-      <c r="I809" s="11"/>
+      <c r="A809" s="15"/>
+      <c r="G809" s="16"/>
+      <c r="I809" s="16"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="10"/>
-      <c r="G810" s="11"/>
-      <c r="I810" s="11"/>
+      <c r="A810" s="15"/>
+      <c r="G810" s="16"/>
+      <c r="I810" s="16"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="10"/>
-      <c r="G811" s="11"/>
-      <c r="I811" s="11"/>
+      <c r="A811" s="15"/>
+      <c r="G811" s="16"/>
+      <c r="I811" s="16"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="10"/>
-      <c r="G812" s="11"/>
-      <c r="I812" s="11"/>
+      <c r="A812" s="15"/>
+      <c r="G812" s="16"/>
+      <c r="I812" s="16"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="10"/>
-      <c r="G813" s="11"/>
-      <c r="I813" s="11"/>
+      <c r="A813" s="15"/>
+      <c r="G813" s="16"/>
+      <c r="I813" s="16"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="10"/>
-      <c r="G814" s="11"/>
-      <c r="I814" s="11"/>
+      <c r="A814" s="15"/>
+      <c r="G814" s="16"/>
+      <c r="I814" s="16"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="10"/>
-      <c r="G815" s="11"/>
-      <c r="I815" s="11"/>
+      <c r="A815" s="15"/>
+      <c r="G815" s="16"/>
+      <c r="I815" s="16"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="10"/>
-      <c r="G816" s="11"/>
-      <c r="I816" s="11"/>
+      <c r="A816" s="15"/>
+      <c r="G816" s="16"/>
+      <c r="I816" s="16"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="10"/>
-      <c r="G817" s="11"/>
-      <c r="I817" s="11"/>
+      <c r="A817" s="15"/>
+      <c r="G817" s="16"/>
+      <c r="I817" s="16"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="10"/>
-      <c r="G818" s="11"/>
-      <c r="I818" s="11"/>
+      <c r="A818" s="15"/>
+      <c r="G818" s="16"/>
+      <c r="I818" s="16"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="10"/>
-      <c r="G819" s="11"/>
-      <c r="I819" s="11"/>
+      <c r="A819" s="15"/>
+      <c r="G819" s="16"/>
+      <c r="I819" s="16"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="10"/>
-      <c r="G820" s="11"/>
-      <c r="I820" s="11"/>
+      <c r="A820" s="15"/>
+      <c r="G820" s="16"/>
+      <c r="I820" s="16"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="10"/>
-      <c r="G821" s="11"/>
-      <c r="I821" s="11"/>
+      <c r="A821" s="15"/>
+      <c r="G821" s="16"/>
+      <c r="I821" s="16"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="10"/>
-      <c r="G822" s="11"/>
-      <c r="I822" s="11"/>
+      <c r="A822" s="15"/>
+      <c r="G822" s="16"/>
+      <c r="I822" s="16"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="10"/>
-      <c r="G823" s="11"/>
-      <c r="I823" s="11"/>
+      <c r="A823" s="15"/>
+      <c r="G823" s="16"/>
+      <c r="I823" s="16"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="10"/>
-      <c r="G824" s="11"/>
-      <c r="I824" s="11"/>
+      <c r="A824" s="15"/>
+      <c r="G824" s="16"/>
+      <c r="I824" s="16"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="10"/>
-      <c r="G825" s="11"/>
-      <c r="I825" s="11"/>
+      <c r="A825" s="15"/>
+      <c r="G825" s="16"/>
+      <c r="I825" s="16"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="10"/>
-      <c r="G826" s="11"/>
-      <c r="I826" s="11"/>
+      <c r="A826" s="15"/>
+      <c r="G826" s="16"/>
+      <c r="I826" s="16"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="10"/>
-      <c r="G827" s="11"/>
-      <c r="I827" s="11"/>
+      <c r="A827" s="15"/>
+      <c r="G827" s="16"/>
+      <c r="I827" s="16"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="10"/>
-      <c r="G828" s="11"/>
-      <c r="I828" s="11"/>
+      <c r="A828" s="15"/>
+      <c r="G828" s="16"/>
+      <c r="I828" s="16"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="10"/>
-      <c r="G829" s="11"/>
-      <c r="I829" s="11"/>
+      <c r="A829" s="15"/>
+      <c r="G829" s="16"/>
+      <c r="I829" s="16"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="10"/>
-      <c r="G830" s="11"/>
-      <c r="I830" s="11"/>
+      <c r="A830" s="15"/>
+      <c r="G830" s="16"/>
+      <c r="I830" s="16"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="10"/>
-      <c r="G831" s="11"/>
-      <c r="I831" s="11"/>
+      <c r="A831" s="15"/>
+      <c r="G831" s="16"/>
+      <c r="I831" s="16"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="10"/>
-      <c r="G832" s="11"/>
-      <c r="I832" s="11"/>
+      <c r="A832" s="15"/>
+      <c r="G832" s="16"/>
+      <c r="I832" s="16"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="10"/>
-      <c r="G833" s="11"/>
-      <c r="I833" s="11"/>
+      <c r="A833" s="15"/>
+      <c r="G833" s="16"/>
+      <c r="I833" s="16"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="10"/>
-      <c r="G834" s="11"/>
-      <c r="I834" s="11"/>
+      <c r="A834" s="15"/>
+      <c r="G834" s="16"/>
+      <c r="I834" s="16"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="10"/>
-      <c r="G835" s="11"/>
-      <c r="I835" s="11"/>
+      <c r="A835" s="15"/>
+      <c r="G835" s="16"/>
+      <c r="I835" s="16"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="10"/>
-      <c r="G836" s="11"/>
-      <c r="I836" s="11"/>
+      <c r="A836" s="15"/>
+      <c r="G836" s="16"/>
+      <c r="I836" s="16"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="10"/>
-      <c r="G837" s="11"/>
-      <c r="I837" s="11"/>
+      <c r="A837" s="15"/>
+      <c r="G837" s="16"/>
+      <c r="I837" s="16"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="10"/>
-      <c r="G838" s="11"/>
-      <c r="I838" s="11"/>
+      <c r="A838" s="15"/>
+      <c r="G838" s="16"/>
+      <c r="I838" s="16"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="10"/>
-      <c r="G839" s="11"/>
-      <c r="I839" s="11"/>
+      <c r="A839" s="15"/>
+      <c r="G839" s="16"/>
+      <c r="I839" s="16"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="10"/>
-      <c r="G840" s="11"/>
-      <c r="I840" s="11"/>
+      <c r="A840" s="15"/>
+      <c r="G840" s="16"/>
+      <c r="I840" s="16"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="10"/>
-      <c r="G841" s="11"/>
-      <c r="I841" s="11"/>
+      <c r="A841" s="15"/>
+      <c r="G841" s="16"/>
+      <c r="I841" s="16"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="10"/>
-      <c r="G842" s="11"/>
-      <c r="I842" s="11"/>
+      <c r="A842" s="15"/>
+      <c r="G842" s="16"/>
+      <c r="I842" s="16"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="10"/>
-      <c r="G843" s="11"/>
-      <c r="I843" s="11"/>
+      <c r="A843" s="15"/>
+      <c r="G843" s="16"/>
+      <c r="I843" s="16"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="10"/>
-      <c r="G844" s="11"/>
-      <c r="I844" s="11"/>
+      <c r="A844" s="15"/>
+      <c r="G844" s="16"/>
+      <c r="I844" s="16"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="10"/>
-      <c r="G845" s="11"/>
-      <c r="I845" s="11"/>
+      <c r="A845" s="15"/>
+      <c r="G845" s="16"/>
+      <c r="I845" s="16"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="10"/>
-      <c r="G846" s="11"/>
-      <c r="I846" s="11"/>
+      <c r="A846" s="15"/>
+      <c r="G846" s="16"/>
+      <c r="I846" s="16"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="10"/>
-      <c r="G847" s="11"/>
-      <c r="I847" s="11"/>
+      <c r="A847" s="15"/>
+      <c r="G847" s="16"/>
+      <c r="I847" s="16"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="10"/>
-      <c r="G848" s="11"/>
-      <c r="I848" s="11"/>
+      <c r="A848" s="15"/>
+      <c r="G848" s="16"/>
+      <c r="I848" s="16"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="10"/>
-      <c r="G849" s="11"/>
-      <c r="I849" s="11"/>
+      <c r="A849" s="15"/>
+      <c r="G849" s="16"/>
+      <c r="I849" s="16"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="10"/>
-      <c r="G850" s="11"/>
-      <c r="I850" s="11"/>
+      <c r="A850" s="15"/>
+      <c r="G850" s="16"/>
+      <c r="I850" s="16"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="10"/>
-      <c r="G851" s="11"/>
-      <c r="I851" s="11"/>
+      <c r="A851" s="15"/>
+      <c r="G851" s="16"/>
+      <c r="I851" s="16"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="10"/>
-      <c r="G852" s="11"/>
-      <c r="I852" s="11"/>
+      <c r="A852" s="15"/>
+      <c r="G852" s="16"/>
+      <c r="I852" s="16"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="10"/>
-      <c r="G853" s="11"/>
-      <c r="I853" s="11"/>
+      <c r="A853" s="15"/>
+      <c r="G853" s="16"/>
+      <c r="I853" s="16"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="10"/>
-      <c r="G854" s="11"/>
-      <c r="I854" s="11"/>
+      <c r="A854" s="15"/>
+      <c r="G854" s="16"/>
+      <c r="I854" s="16"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="10"/>
-      <c r="G855" s="11"/>
-      <c r="I855" s="11"/>
+      <c r="A855" s="15"/>
+      <c r="G855" s="16"/>
+      <c r="I855" s="16"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="10"/>
-      <c r="G856" s="11"/>
-      <c r="I856" s="11"/>
+      <c r="A856" s="15"/>
+      <c r="G856" s="16"/>
+      <c r="I856" s="16"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="10"/>
-      <c r="G857" s="11"/>
-      <c r="I857" s="11"/>
+      <c r="A857" s="15"/>
+      <c r="G857" s="16"/>
+      <c r="I857" s="16"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="10"/>
-      <c r="G858" s="11"/>
-      <c r="I858" s="11"/>
+      <c r="A858" s="15"/>
+      <c r="G858" s="16"/>
+      <c r="I858" s="16"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="10"/>
-      <c r="G859" s="11"/>
-      <c r="I859" s="11"/>
+      <c r="A859" s="15"/>
+      <c r="G859" s="16"/>
+      <c r="I859" s="16"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="10"/>
-      <c r="G860" s="11"/>
-      <c r="I860" s="11"/>
+      <c r="A860" s="15"/>
+      <c r="G860" s="16"/>
+      <c r="I860" s="16"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="10"/>
-      <c r="G861" s="11"/>
-      <c r="I861" s="11"/>
+      <c r="A861" s="15"/>
+      <c r="G861" s="16"/>
+      <c r="I861" s="16"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="10"/>
-      <c r="G862" s="11"/>
-      <c r="I862" s="11"/>
+      <c r="A862" s="15"/>
+      <c r="G862" s="16"/>
+      <c r="I862" s="16"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="10"/>
-      <c r="G863" s="11"/>
-      <c r="I863" s="11"/>
+      <c r="A863" s="15"/>
+      <c r="G863" s="16"/>
+      <c r="I863" s="16"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="10"/>
-      <c r="G864" s="11"/>
-      <c r="I864" s="11"/>
+      <c r="A864" s="15"/>
+      <c r="G864" s="16"/>
+      <c r="I864" s="16"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="10"/>
-      <c r="G865" s="11"/>
-      <c r="I865" s="11"/>
+      <c r="A865" s="15"/>
+      <c r="G865" s="16"/>
+      <c r="I865" s="16"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="10"/>
-      <c r="G866" s="11"/>
-      <c r="I866" s="11"/>
+      <c r="A866" s="15"/>
+      <c r="G866" s="16"/>
+      <c r="I866" s="16"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="10"/>
-      <c r="G867" s="11"/>
-      <c r="I867" s="11"/>
+      <c r="A867" s="15"/>
+      <c r="G867" s="16"/>
+      <c r="I867" s="16"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="10"/>
-      <c r="G868" s="11"/>
-      <c r="I868" s="11"/>
+      <c r="A868" s="15"/>
+      <c r="G868" s="16"/>
+      <c r="I868" s="16"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="10"/>
-      <c r="G869" s="11"/>
-      <c r="I869" s="11"/>
+      <c r="A869" s="15"/>
+      <c r="G869" s="16"/>
+      <c r="I869" s="16"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="10"/>
-      <c r="G870" s="11"/>
-      <c r="I870" s="11"/>
+      <c r="A870" s="15"/>
+      <c r="G870" s="16"/>
+      <c r="I870" s="16"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="10"/>
-      <c r="G871" s="11"/>
-      <c r="I871" s="11"/>
+      <c r="A871" s="15"/>
+      <c r="G871" s="16"/>
+      <c r="I871" s="16"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="10"/>
-      <c r="G872" s="11"/>
-      <c r="I872" s="11"/>
+      <c r="A872" s="15"/>
+      <c r="G872" s="16"/>
+      <c r="I872" s="16"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="10"/>
-      <c r="G873" s="11"/>
-      <c r="I873" s="11"/>
+      <c r="A873" s="15"/>
+      <c r="G873" s="16"/>
+      <c r="I873" s="16"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="10"/>
-      <c r="G874" s="11"/>
-      <c r="I874" s="11"/>
+      <c r="A874" s="15"/>
+      <c r="G874" s="16"/>
+      <c r="I874" s="16"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="10"/>
-      <c r="G875" s="11"/>
-      <c r="I875" s="11"/>
+      <c r="A875" s="15"/>
+      <c r="G875" s="16"/>
+      <c r="I875" s="16"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="10"/>
-      <c r="G876" s="11"/>
-      <c r="I876" s="11"/>
+      <c r="A876" s="15"/>
+      <c r="G876" s="16"/>
+      <c r="I876" s="16"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="10"/>
-      <c r="G877" s="11"/>
-      <c r="I877" s="11"/>
+      <c r="A877" s="15"/>
+      <c r="G877" s="16"/>
+      <c r="I877" s="16"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="10"/>
-      <c r="G878" s="11"/>
-      <c r="I878" s="11"/>
+      <c r="A878" s="15"/>
+      <c r="G878" s="16"/>
+      <c r="I878" s="16"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="10"/>
-      <c r="G879" s="11"/>
-      <c r="I879" s="11"/>
+      <c r="A879" s="15"/>
+      <c r="G879" s="16"/>
+      <c r="I879" s="16"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="10"/>
-      <c r="G880" s="11"/>
-      <c r="I880" s="11"/>
+      <c r="A880" s="15"/>
+      <c r="G880" s="16"/>
+      <c r="I880" s="16"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="10"/>
-      <c r="G881" s="11"/>
-      <c r="I881" s="11"/>
+      <c r="A881" s="15"/>
+      <c r="G881" s="16"/>
+      <c r="I881" s="16"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="10"/>
-      <c r="G882" s="11"/>
-      <c r="I882" s="11"/>
+      <c r="A882" s="15"/>
+      <c r="G882" s="16"/>
+      <c r="I882" s="16"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="10"/>
-      <c r="G883" s="11"/>
-      <c r="I883" s="11"/>
+      <c r="A883" s="15"/>
+      <c r="G883" s="16"/>
+      <c r="I883" s="16"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="10"/>
-      <c r="G884" s="11"/>
-      <c r="I884" s="11"/>
+      <c r="A884" s="15"/>
+      <c r="G884" s="16"/>
+      <c r="I884" s="16"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="10"/>
-      <c r="G885" s="11"/>
-      <c r="I885" s="11"/>
+      <c r="A885" s="15"/>
+      <c r="G885" s="16"/>
+      <c r="I885" s="16"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="10"/>
-      <c r="G886" s="11"/>
-      <c r="I886" s="11"/>
+      <c r="A886" s="15"/>
+      <c r="G886" s="16"/>
+      <c r="I886" s="16"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="10"/>
-      <c r="G887" s="11"/>
-      <c r="I887" s="11"/>
+      <c r="A887" s="15"/>
+      <c r="G887" s="16"/>
+      <c r="I887" s="16"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="10"/>
-      <c r="G888" s="11"/>
-      <c r="I888" s="11"/>
+      <c r="A888" s="15"/>
+      <c r="G888" s="16"/>
+      <c r="I888" s="16"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="10"/>
-      <c r="G889" s="11"/>
-      <c r="I889" s="11"/>
+      <c r="A889" s="15"/>
+      <c r="G889" s="16"/>
+      <c r="I889" s="16"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="10"/>
-      <c r="G890" s="11"/>
-      <c r="I890" s="11"/>
+      <c r="A890" s="15"/>
+      <c r="G890" s="16"/>
+      <c r="I890" s="16"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="10"/>
-      <c r="G891" s="11"/>
-      <c r="I891" s="11"/>
+      <c r="A891" s="15"/>
+      <c r="G891" s="16"/>
+      <c r="I891" s="16"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="10"/>
-      <c r="G892" s="11"/>
-      <c r="I892" s="11"/>
+      <c r="A892" s="15"/>
+      <c r="G892" s="16"/>
+      <c r="I892" s="16"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="10"/>
-      <c r="G893" s="11"/>
-      <c r="I893" s="11"/>
+      <c r="A893" s="15"/>
+      <c r="G893" s="16"/>
+      <c r="I893" s="16"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="10"/>
-      <c r="G894" s="11"/>
-      <c r="I894" s="11"/>
+      <c r="A894" s="15"/>
+      <c r="G894" s="16"/>
+      <c r="I894" s="16"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="10"/>
-      <c r="G895" s="11"/>
-      <c r="I895" s="11"/>
+      <c r="A895" s="15"/>
+      <c r="G895" s="16"/>
+      <c r="I895" s="16"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="10"/>
-      <c r="G896" s="11"/>
-      <c r="I896" s="11"/>
+      <c r="A896" s="15"/>
+      <c r="G896" s="16"/>
+      <c r="I896" s="16"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="10"/>
-      <c r="G897" s="11"/>
-      <c r="I897" s="11"/>
+      <c r="A897" s="15"/>
+      <c r="G897" s="16"/>
+      <c r="I897" s="16"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="10"/>
-      <c r="G898" s="11"/>
-      <c r="I898" s="11"/>
+      <c r="A898" s="15"/>
+      <c r="G898" s="16"/>
+      <c r="I898" s="16"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="10"/>
-      <c r="G899" s="11"/>
-      <c r="I899" s="11"/>
+      <c r="A899" s="15"/>
+      <c r="G899" s="16"/>
+      <c r="I899" s="16"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="10"/>
-      <c r="G900" s="11"/>
-      <c r="I900" s="11"/>
+      <c r="A900" s="15"/>
+      <c r="G900" s="16"/>
+      <c r="I900" s="16"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="10"/>
-      <c r="G901" s="11"/>
-      <c r="I901" s="11"/>
+      <c r="A901" s="15"/>
+      <c r="G901" s="16"/>
+      <c r="I901" s="16"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="10"/>
-      <c r="G902" s="11"/>
-      <c r="I902" s="11"/>
+      <c r="A902" s="15"/>
+      <c r="G902" s="16"/>
+      <c r="I902" s="16"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="10"/>
-      <c r="G903" s="11"/>
-      <c r="I903" s="11"/>
+      <c r="A903" s="15"/>
+      <c r="G903" s="16"/>
+      <c r="I903" s="16"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="10"/>
-      <c r="G904" s="11"/>
-      <c r="I904" s="11"/>
+      <c r="A904" s="15"/>
+      <c r="G904" s="16"/>
+      <c r="I904" s="16"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="10"/>
-      <c r="G905" s="11"/>
-      <c r="I905" s="11"/>
+      <c r="A905" s="15"/>
+      <c r="G905" s="16"/>
+      <c r="I905" s="16"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="10"/>
-      <c r="G906" s="11"/>
-      <c r="I906" s="11"/>
+      <c r="A906" s="15"/>
+      <c r="G906" s="16"/>
+      <c r="I906" s="16"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="10"/>
-      <c r="G907" s="11"/>
-      <c r="I907" s="11"/>
+      <c r="A907" s="15"/>
+      <c r="G907" s="16"/>
+      <c r="I907" s="16"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="10"/>
-      <c r="G908" s="11"/>
-      <c r="I908" s="11"/>
+      <c r="A908" s="15"/>
+      <c r="G908" s="16"/>
+      <c r="I908" s="16"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="10"/>
-      <c r="G909" s="11"/>
-      <c r="I909" s="11"/>
+      <c r="A909" s="15"/>
+      <c r="G909" s="16"/>
+      <c r="I909" s="16"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="10"/>
-      <c r="G910" s="11"/>
-      <c r="I910" s="11"/>
+      <c r="A910" s="15"/>
+      <c r="G910" s="16"/>
+      <c r="I910" s="16"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="10"/>
-      <c r="G911" s="11"/>
-      <c r="I911" s="11"/>
+      <c r="A911" s="15"/>
+      <c r="G911" s="16"/>
+      <c r="I911" s="16"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="10"/>
-      <c r="G912" s="11"/>
-      <c r="I912" s="11"/>
+      <c r="A912" s="15"/>
+      <c r="G912" s="16"/>
+      <c r="I912" s="16"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="10"/>
-      <c r="G913" s="11"/>
-      <c r="I913" s="11"/>
+      <c r="A913" s="15"/>
+      <c r="G913" s="16"/>
+      <c r="I913" s="16"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="10"/>
-      <c r="G914" s="11"/>
-      <c r="I914" s="11"/>
+      <c r="A914" s="15"/>
+      <c r="G914" s="16"/>
+      <c r="I914" s="16"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="10"/>
-      <c r="G915" s="11"/>
-      <c r="I915" s="11"/>
+      <c r="A915" s="15"/>
+      <c r="G915" s="16"/>
+      <c r="I915" s="16"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="10"/>
-      <c r="G916" s="11"/>
-      <c r="I916" s="11"/>
+      <c r="A916" s="15"/>
+      <c r="G916" s="16"/>
+      <c r="I916" s="16"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="10"/>
-      <c r="G917" s="11"/>
-      <c r="I917" s="11"/>
+      <c r="A917" s="15"/>
+      <c r="G917" s="16"/>
+      <c r="I917" s="16"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="10"/>
-      <c r="G918" s="11"/>
-      <c r="I918" s="11"/>
+      <c r="A918" s="15"/>
+      <c r="G918" s="16"/>
+      <c r="I918" s="16"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="10"/>
-      <c r="G919" s="11"/>
-      <c r="I919" s="11"/>
+      <c r="A919" s="15"/>
+      <c r="G919" s="16"/>
+      <c r="I919" s="16"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="10"/>
-      <c r="G920" s="11"/>
-      <c r="I920" s="11"/>
+      <c r="A920" s="15"/>
+      <c r="G920" s="16"/>
+      <c r="I920" s="16"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="10"/>
-      <c r="G921" s="11"/>
-      <c r="I921" s="11"/>
+      <c r="A921" s="15"/>
+      <c r="G921" s="16"/>
+      <c r="I921" s="16"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="10"/>
-      <c r="G922" s="11"/>
-      <c r="I922" s="11"/>
+      <c r="A922" s="15"/>
+      <c r="G922" s="16"/>
+      <c r="I922" s="16"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="10"/>
-      <c r="G923" s="11"/>
-      <c r="I923" s="11"/>
+      <c r="A923" s="15"/>
+      <c r="G923" s="16"/>
+      <c r="I923" s="16"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="10"/>
-      <c r="G924" s="11"/>
-      <c r="I924" s="11"/>
+      <c r="A924" s="15"/>
+      <c r="G924" s="16"/>
+      <c r="I924" s="16"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="10"/>
-      <c r="G925" s="11"/>
-      <c r="I925" s="11"/>
+      <c r="A925" s="15"/>
+      <c r="G925" s="16"/>
+      <c r="I925" s="16"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="10"/>
-      <c r="G926" s="11"/>
-      <c r="I926" s="11"/>
+      <c r="A926" s="15"/>
+      <c r="G926" s="16"/>
+      <c r="I926" s="16"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="10"/>
-      <c r="G927" s="11"/>
-      <c r="I927" s="11"/>
+      <c r="A927" s="15"/>
+      <c r="G927" s="16"/>
+      <c r="I927" s="16"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="10"/>
-      <c r="G928" s="11"/>
-      <c r="I928" s="11"/>
+      <c r="A928" s="15"/>
+      <c r="G928" s="16"/>
+      <c r="I928" s="16"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="10"/>
-      <c r="G929" s="11"/>
-      <c r="I929" s="11"/>
+      <c r="A929" s="15"/>
+      <c r="G929" s="16"/>
+      <c r="I929" s="16"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="10"/>
-      <c r="G930" s="11"/>
-      <c r="I930" s="11"/>
+      <c r="A930" s="15"/>
+      <c r="G930" s="16"/>
+      <c r="I930" s="16"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="10"/>
-      <c r="G931" s="11"/>
-      <c r="I931" s="11"/>
+      <c r="A931" s="15"/>
+      <c r="G931" s="16"/>
+      <c r="I931" s="16"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="10"/>
-      <c r="G932" s="11"/>
-      <c r="I932" s="11"/>
+      <c r="A932" s="15"/>
+      <c r="G932" s="16"/>
+      <c r="I932" s="16"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="10"/>
-      <c r="G933" s="11"/>
-      <c r="I933" s="11"/>
+      <c r="A933" s="15"/>
+      <c r="G933" s="16"/>
+      <c r="I933" s="16"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="10"/>
-      <c r="G934" s="11"/>
-      <c r="I934" s="11"/>
+      <c r="A934" s="15"/>
+      <c r="G934" s="16"/>
+      <c r="I934" s="16"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="10"/>
-      <c r="G935" s="11"/>
-      <c r="I935" s="11"/>
+      <c r="A935" s="15"/>
+      <c r="G935" s="16"/>
+      <c r="I935" s="16"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="10"/>
-      <c r="G936" s="11"/>
-      <c r="I936" s="11"/>
+      <c r="A936" s="15"/>
+      <c r="G936" s="16"/>
+      <c r="I936" s="16"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="10"/>
-      <c r="G937" s="11"/>
-      <c r="I937" s="11"/>
+      <c r="A937" s="15"/>
+      <c r="G937" s="16"/>
+      <c r="I937" s="16"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="10"/>
-      <c r="G938" s="11"/>
-      <c r="I938" s="11"/>
+      <c r="A938" s="15"/>
+      <c r="G938" s="16"/>
+      <c r="I938" s="16"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="10"/>
-      <c r="G939" s="11"/>
-      <c r="I939" s="11"/>
+      <c r="A939" s="15"/>
+      <c r="G939" s="16"/>
+      <c r="I939" s="16"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="10"/>
-      <c r="G940" s="11"/>
-      <c r="I940" s="11"/>
+      <c r="A940" s="15"/>
+      <c r="G940" s="16"/>
+      <c r="I940" s="16"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="10"/>
-      <c r="G941" s="11"/>
-      <c r="I941" s="11"/>
+      <c r="A941" s="15"/>
+      <c r="G941" s="16"/>
+      <c r="I941" s="16"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="10"/>
-      <c r="G942" s="11"/>
-      <c r="I942" s="11"/>
+      <c r="A942" s="15"/>
+      <c r="G942" s="16"/>
+      <c r="I942" s="16"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="10"/>
-      <c r="G943" s="11"/>
-      <c r="I943" s="11"/>
+      <c r="A943" s="15"/>
+      <c r="G943" s="16"/>
+      <c r="I943" s="16"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="10"/>
-      <c r="G944" s="11"/>
-      <c r="I944" s="11"/>
+      <c r="A944" s="15"/>
+      <c r="G944" s="16"/>
+      <c r="I944" s="16"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="10"/>
-      <c r="G945" s="11"/>
-      <c r="I945" s="11"/>
+      <c r="A945" s="15"/>
+      <c r="G945" s="16"/>
+      <c r="I945" s="16"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="10"/>
-      <c r="G946" s="11"/>
-      <c r="I946" s="11"/>
+      <c r="A946" s="15"/>
+      <c r="G946" s="16"/>
+      <c r="I946" s="16"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="10"/>
-      <c r="G947" s="11"/>
-      <c r="I947" s="11"/>
+      <c r="A947" s="15"/>
+      <c r="G947" s="16"/>
+      <c r="I947" s="16"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="10"/>
-      <c r="G948" s="11"/>
-      <c r="I948" s="11"/>
+      <c r="A948" s="15"/>
+      <c r="G948" s="16"/>
+      <c r="I948" s="16"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="10"/>
-      <c r="G949" s="11"/>
-      <c r="I949" s="11"/>
+      <c r="A949" s="15"/>
+      <c r="G949" s="16"/>
+      <c r="I949" s="16"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="10"/>
-      <c r="G950" s="11"/>
-      <c r="I950" s="11"/>
+      <c r="A950" s="15"/>
+      <c r="G950" s="16"/>
+      <c r="I950" s="16"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="10"/>
-      <c r="G951" s="11"/>
-      <c r="I951" s="11"/>
+      <c r="A951" s="15"/>
+      <c r="G951" s="16"/>
+      <c r="I951" s="16"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="10"/>
-      <c r="G952" s="11"/>
-      <c r="I952" s="11"/>
+      <c r="A952" s="15"/>
+      <c r="G952" s="16"/>
+      <c r="I952" s="16"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="10"/>
-      <c r="G953" s="11"/>
-      <c r="I953" s="11"/>
+      <c r="A953" s="15"/>
+      <c r="G953" s="16"/>
+      <c r="I953" s="16"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="10"/>
-      <c r="G954" s="11"/>
-      <c r="I954" s="11"/>
+      <c r="A954" s="15"/>
+      <c r="G954" s="16"/>
+      <c r="I954" s="16"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="10"/>
-      <c r="G955" s="11"/>
-      <c r="I955" s="11"/>
+      <c r="A955" s="15"/>
+      <c r="G955" s="16"/>
+      <c r="I955" s="16"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="10"/>
-      <c r="G956" s="11"/>
-      <c r="I956" s="11"/>
+      <c r="A956" s="15"/>
+      <c r="G956" s="16"/>
+      <c r="I956" s="16"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="10"/>
-      <c r="G957" s="11"/>
-      <c r="I957" s="11"/>
+      <c r="A957" s="15"/>
+      <c r="G957" s="16"/>
+      <c r="I957" s="16"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="10"/>
-      <c r="G958" s="11"/>
-      <c r="I958" s="11"/>
+      <c r="A958" s="15"/>
+      <c r="G958" s="16"/>
+      <c r="I958" s="16"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="10"/>
-      <c r="G959" s="11"/>
-      <c r="I959" s="11"/>
+      <c r="A959" s="15"/>
+      <c r="G959" s="16"/>
+      <c r="I959" s="16"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="10"/>
-      <c r="G960" s="11"/>
-      <c r="I960" s="11"/>
+      <c r="A960" s="15"/>
+      <c r="G960" s="16"/>
+      <c r="I960" s="16"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="10"/>
-      <c r="G961" s="11"/>
-      <c r="I961" s="11"/>
+      <c r="A961" s="15"/>
+      <c r="G961" s="16"/>
+      <c r="I961" s="16"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="10"/>
-      <c r="G962" s="11"/>
-      <c r="I962" s="11"/>
+      <c r="A962" s="15"/>
+      <c r="G962" s="16"/>
+      <c r="I962" s="16"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="10"/>
-      <c r="G963" s="11"/>
-      <c r="I963" s="11"/>
+      <c r="A963" s="15"/>
+      <c r="G963" s="16"/>
+      <c r="I963" s="16"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="10"/>
-      <c r="G964" s="11"/>
-      <c r="I964" s="11"/>
+      <c r="A964" s="15"/>
+      <c r="G964" s="16"/>
+      <c r="I964" s="16"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="10"/>
-      <c r="G965" s="11"/>
-      <c r="I965" s="11"/>
+      <c r="A965" s="15"/>
+      <c r="G965" s="16"/>
+      <c r="I965" s="16"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="10"/>
-      <c r="G966" s="11"/>
-      <c r="I966" s="11"/>
+      <c r="A966" s="15"/>
+      <c r="G966" s="16"/>
+      <c r="I966" s="16"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="10"/>
-      <c r="G967" s="11"/>
-      <c r="I967" s="11"/>
+      <c r="A967" s="15"/>
+      <c r="G967" s="16"/>
+      <c r="I967" s="16"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="10"/>
-      <c r="G968" s="11"/>
-      <c r="I968" s="11"/>
+      <c r="A968" s="15"/>
+      <c r="G968" s="16"/>
+      <c r="I968" s="16"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="10"/>
-      <c r="G969" s="11"/>
-      <c r="I969" s="11"/>
+      <c r="A969" s="15"/>
+      <c r="G969" s="16"/>
+      <c r="I969" s="16"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="10"/>
-      <c r="G970" s="11"/>
-      <c r="I970" s="11"/>
+      <c r="A970" s="15"/>
+      <c r="G970" s="16"/>
+      <c r="I970" s="16"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="10"/>
-      <c r="G971" s="11"/>
-      <c r="I971" s="11"/>
+      <c r="A971" s="15"/>
+      <c r="G971" s="16"/>
+      <c r="I971" s="16"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="10"/>
-      <c r="G972" s="11"/>
-      <c r="I972" s="11"/>
+      <c r="A972" s="15"/>
+      <c r="G972" s="16"/>
+      <c r="I972" s="16"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="10"/>
-      <c r="G973" s="11"/>
-      <c r="I973" s="11"/>
+      <c r="A973" s="15"/>
+      <c r="G973" s="16"/>
+      <c r="I973" s="16"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="10"/>
-      <c r="G974" s="11"/>
-      <c r="I974" s="11"/>
+      <c r="A974" s="15"/>
+      <c r="G974" s="16"/>
+      <c r="I974" s="16"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="10"/>
-      <c r="G975" s="11"/>
-      <c r="I975" s="11"/>
+      <c r="A975" s="15"/>
+      <c r="G975" s="16"/>
+      <c r="I975" s="16"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="10"/>
-      <c r="G976" s="11"/>
-      <c r="I976" s="11"/>
+      <c r="A976" s="15"/>
+      <c r="G976" s="16"/>
+      <c r="I976" s="16"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="10"/>
-      <c r="G977" s="11"/>
-      <c r="I977" s="11"/>
+      <c r="A977" s="15"/>
+      <c r="G977" s="16"/>
+      <c r="I977" s="16"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="10"/>
-      <c r="G978" s="11"/>
-      <c r="I978" s="11"/>
+      <c r="A978" s="15"/>
+      <c r="G978" s="16"/>
+      <c r="I978" s="16"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="10"/>
-      <c r="G979" s="11"/>
-      <c r="I979" s="11"/>
+      <c r="A979" s="15"/>
+      <c r="G979" s="16"/>
+      <c r="I979" s="16"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="10"/>
-      <c r="G980" s="11"/>
-      <c r="I980" s="11"/>
+      <c r="A980" s="15"/>
+      <c r="G980" s="16"/>
+      <c r="I980" s="16"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="10"/>
-      <c r="G981" s="11"/>
-      <c r="I981" s="11"/>
+      <c r="A981" s="15"/>
+      <c r="G981" s="16"/>
+      <c r="I981" s="16"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="10"/>
-      <c r="G982" s="11"/>
-      <c r="I982" s="11"/>
+      <c r="A982" s="15"/>
+      <c r="G982" s="16"/>
+      <c r="I982" s="16"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="10"/>
-      <c r="G983" s="11"/>
-      <c r="I983" s="11"/>
+      <c r="A983" s="15"/>
+      <c r="G983" s="16"/>
+      <c r="I983" s="16"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="10"/>
-      <c r="G984" s="11"/>
-      <c r="I984" s="11"/>
+      <c r="A984" s="15"/>
+      <c r="G984" s="16"/>
+      <c r="I984" s="16"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="10"/>
-      <c r="G985" s="11"/>
-      <c r="I985" s="11"/>
+      <c r="A985" s="15"/>
+      <c r="G985" s="16"/>
+      <c r="I985" s="16"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="10"/>
-      <c r="G986" s="11"/>
-      <c r="I986" s="11"/>
+      <c r="A986" s="15"/>
+      <c r="G986" s="16"/>
+      <c r="I986" s="16"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="10"/>
-      <c r="G987" s="11"/>
-      <c r="I987" s="11"/>
+      <c r="A987" s="15"/>
+      <c r="G987" s="16"/>
+      <c r="I987" s="16"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="10"/>
-      <c r="G988" s="11"/>
-      <c r="I988" s="11"/>
+      <c r="A988" s="15"/>
+      <c r="G988" s="16"/>
+      <c r="I988" s="16"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="10"/>
-      <c r="G989" s="11"/>
-      <c r="I989" s="11"/>
+      <c r="A989" s="15"/>
+      <c r="G989" s="16"/>
+      <c r="I989" s="16"/>
     </row>
     <row r="990">
-      <c r="A990" s="10"/>
-      <c r="G990" s="11"/>
-      <c r="I990" s="11"/>
+      <c r="A990" s="15"/>
+      <c r="G990" s="16"/>
+      <c r="I990" s="16"/>
     </row>
     <row r="991">
-      <c r="A991" s="10"/>
-      <c r="G991" s="11"/>
-      <c r="I991" s="11"/>
+      <c r="A991" s="15"/>
+      <c r="G991" s="16"/>
+      <c r="I991" s="16"/>
     </row>
     <row r="992">
-      <c r="A992" s="10"/>
-      <c r="G992" s="11"/>
-      <c r="I992" s="11"/>
+      <c r="A992" s="15"/>
+      <c r="G992" s="16"/>
+      <c r="I992" s="16"/>
     </row>
     <row r="993">
-      <c r="A993" s="10"/>
-      <c r="G993" s="11"/>
-      <c r="I993" s="11"/>
+      <c r="A993" s="15"/>
+      <c r="G993" s="16"/>
+      <c r="I993" s="16"/>
     </row>
     <row r="994">
-      <c r="A994" s="10"/>
-      <c r="G994" s="11"/>
-      <c r="I994" s="11"/>
+      <c r="A994" s="15"/>
+      <c r="G994" s="16"/>
+      <c r="I994" s="16"/>
     </row>
     <row r="995">
-      <c r="A995" s="10"/>
-      <c r="G995" s="11"/>
-      <c r="I995" s="11"/>
+      <c r="A995" s="15"/>
+      <c r="G995" s="16"/>
+      <c r="I995" s="16"/>
     </row>
     <row r="996">
-      <c r="A996" s="10"/>
-      <c r="G996" s="11"/>
-      <c r="I996" s="11"/>
+      <c r="A996" s="15"/>
+      <c r="G996" s="16"/>
+      <c r="I996" s="16"/>
     </row>
     <row r="997">
-      <c r="A997" s="10"/>
-      <c r="G997" s="11"/>
-      <c r="I997" s="11"/>
+      <c r="A997" s="15"/>
+      <c r="G997" s="16"/>
+      <c r="I997" s="16"/>
     </row>
     <row r="998">
-      <c r="A998" s="10"/>
-      <c r="G998" s="11"/>
-      <c r="I998" s="11"/>
+      <c r="A998" s="15"/>
+      <c r="G998" s="16"/>
+      <c r="I998" s="16"/>
     </row>
     <row r="999">
-      <c r="A999" s="10"/>
-      <c r="G999" s="11"/>
-      <c r="I999" s="11"/>
+      <c r="A999" s="15"/>
+      <c r="G999" s="16"/>
+      <c r="I999" s="16"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="10"/>
-      <c r="G1000" s="11"/>
-      <c r="I1000" s="11"/>
+      <c r="A1000" s="15"/>
+      <c r="G1000" s="16"/>
+      <c r="I1000" s="16"/>
     </row>
   </sheetData>
   <printOptions/>
